--- a/news_data/2020_08.xlsx
+++ b/news_data/2020_08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,15 +22,102 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도 ‘관광불편 민원’ 中 렌터카 관련 “가장 많아”</t>
+  </si>
+  <si>
+    <t>제주도 공항·실내관광지에선 마스크 꼭 써야…위반시 고발</t>
+  </si>
+  <si>
+    <t>제주도 하룻밤새 코로나 5명 확진 날벼락...목사·JDC 직원 부부-관광객</t>
+  </si>
+  <si>
+    <t>제주도 “도민·관광객 마스크 반드시”… 거리두기 2단계 격상</t>
+  </si>
+  <si>
+    <t>제주도내 실내관광지 등 마스크 쓰지 않으면 과태료 '10만원'</t>
+  </si>
+  <si>
+    <t>아이콘루프, 제주도 관광 시스템에 DID 신원인증 지원</t>
+  </si>
+  <si>
+    <t>제주 '김녕' 문화·관광 특화단지로…LH·제주도 협약</t>
+  </si>
+  <si>
+    <t>제주도, 블록체인 DID 기반 관광방역 선도</t>
+  </si>
+  <si>
+    <t>제주도, 이동약자 위한 무장애여행 관광지 우뚝 선다</t>
+  </si>
+  <si>
+    <t>제주도 여행, 실내체험관광지 '제주이야기' 자연을 담은 화장품, 향수 만들기</t>
+  </si>
+  <si>
+    <t>제주도 공항·실내관광지 마스크 착용 의무화…위반시 고발</t>
+  </si>
+  <si>
+    <t>[실전 바다 선상낚시(28)] 제주도 갈치낚시 '낚시도 관광상품'</t>
+  </si>
+  <si>
+    <t>'정낭품은 하르방' 등 제주도 관광기념품 공모전 금상</t>
+  </si>
+  <si>
+    <t>"숙박업 과잉공급" 제주도, 관광숙박업 신규 설립 제한키로</t>
+  </si>
+  <si>
+    <t>“객실 너무 많다” 제주도 관광숙박업 제한</t>
+  </si>
+  <si>
+    <t>제주도, 마스크 안 쓰면 관광지 출입금지 검토</t>
+  </si>
+  <si>
+    <t>제주도 관광 회복세…개별여행 대세·전세버스 ‘최악’</t>
+  </si>
+  <si>
+    <t>제주도 전세버스 3∼4월 매출액 0원… 단체관광이 사라졌다</t>
+  </si>
+  <si>
+    <t>롯데관광개발, 제주도 카지노산업 영향평가 심의서 적합 판정</t>
+  </si>
+  <si>
+    <t>해외여행 막힌 광복절 연휴…관광객 21만명 제주도 간다</t>
+  </si>
+  <si>
+    <t>제주도 관광약자 이동권 확보, 아직 갈 길 멀었다</t>
+  </si>
+  <si>
+    <t>"제주도 1등 향토기업"… 약속 지키는 롯데관광개발, 본사 제주 이전</t>
+  </si>
+  <si>
+    <t>제주도 오라관광단지 개발사업 재검토 요구</t>
+  </si>
+  <si>
+    <t>[제주에 산다] 늘어난 제주도 관광객… 남는 문제</t>
+  </si>
+  <si>
+    <t>제주도관광협회 ‘탐나오’, 현대백화점과 ‘제주마켓’ 진행</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥 조례 일부 개정안 입법예고</t>
+  </si>
+  <si>
+    <t>제주도 여름시즌 내국인 관광객, 작년보다 더 왔다</t>
+  </si>
+  <si>
+    <t>전남도, 제주항공과 제주도에서 전남 관광지 '홍보'</t>
+  </si>
+  <si>
+    <t>제주도 3박4일 여행코스 실내체험관광 '제주이야기' 천연꽃 향수, 립글로즈 만...</t>
+  </si>
+  <si>
+    <t>제주도 공항·관광지서 마스크 의무착용…위반시 고발</t>
+  </si>
+  <si>
     <t>제주도관광협회 '탐나오', 'THE 제주마켓' 동참</t>
   </si>
   <si>
     <t>제주도관광협회 탐나오, 코로나 조기극복 'THE 제주마켓' 동참</t>
   </si>
   <si>
-    <t>제주도 3박4일 여행코스 실내체험관광 '제주이야기' 천연꽃 향수, 립글로즈 만...</t>
-  </si>
-  <si>
     <t>제주도관광협회 탐나오, 코로나19 조기 극복을 위한 제주마켓 동참</t>
   </si>
   <si>
@@ -43,43 +130,121 @@
     <t>제주도관광지추천 '제주이야기', 제주도 자생꽃으로 만드는 향수 만들기 체험</t>
   </si>
   <si>
-    <t>제주도 공항·관광지서 마스크 의무착용…위반시 고발</t>
-  </si>
-  <si>
     <t>제주도가볼만한곳, 실내체험관광지 '제주이야기'에서 천연꽃향수만들기 제공</t>
   </si>
   <si>
     <t>제주도관광협회 탐나오, 현대백화점과 제주마켓 진행</t>
   </si>
   <si>
-    <t>제주도관광협회 '탐나오', 'THE 제주마켓' 동참 &lt; 경제일반 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 11:11 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 '탐나오', 'THE 제주마켓' 동참 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 경제일반 제주도관광협회 '탐나오', 'THE 제주마켓' 동참 기자명 홍석형 기자 입력 2020.08.07 11:29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회(회장 부동석)는 코로나19 조기 극복을 위해 제주여행 대표 온라인마켓인 탐나오와 함께 현대백화점에서 개최하는 'THE 제주마켓' 테마행사에 동참한다고 7일 밝혔다.행사는 7일부터 13일까지 목동점 식품관에서 진행된다.행사기간 동안 현대백화점에서는 제주의 특산기념품을 합리적인 가격에 구매할 수 있으며, 구매고객에게는 탐나오에서 판매되고 있는 제주도 기념품을 사은품으로 지급한다.인스타그램 등 SNS를 통해 제주여행 스팟 추천과 다양한 이벤트도 진행된다.탐나오는 제주여행 전문 오픈마켓으로, 도내 관광사업체의 온라인 홍보와 판매를 지원하고 있다.제주도내 1400여개 사업체가 참여 중이며 제주 항공권, 선박, 숙박, 렌트카, 관광레저 체험과 음식점, 특산품과 기념품업이 모두 참여할 수 있다.탐나오 입점은 도내 관광사업체라면 누구나 가능하며 언제든지 사이트를 통해 신청할 수 있다. 홍석형 기자 hsh8116@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 오늘의 주요뉴스 [관광] 제주관광 회복 가속도…코로나19 이전 수준 회복 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회 탐나오, 코로나 조기극복 'THE 제주마켓' 동참 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:13 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 탐나오, 코로나 조기극복 'THE 제주마켓' 동참 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도관광협회 탐나오, 코로나 조기극복 'THE 제주마켓' 동참 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2020.08.07 14:16 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도관광협회(회장 부동석)는 코로나 19 조기 극복을 위해 제주여행 대표 온라인마켓인 탐나오와 함께 현대백화점에서 개최하는 'THE 제주마켓' 테마행사에 동참한다. 행사는 7일부터 13일까지 목동점 식품관에서 진행된다. 행사기간 동안 현대백화점에서는 제주의 특산기념품을 합리적인 가격에 구매할 수 있다. 구매고객에게는 탐나오에서 판매되고 있는 제주도 기념품을 사은품으로 지급한다. 인스타그램 등 SNS를 통해 제주여행 스팟 추천과 다양한 이벤트도 진행된다. 탐나오는 제주여행 전문 오픈마켓으로, 제주도내 관광사업체의 온라인 홍보와 판매를 지원하고 있다. 제주도내 1400여개 사업체가 참여 중이며 제주 항공권, 선박, 숙박, 렌트카, 관광레저 체험과 음식점, 특산품과 기념품업이 모두 참여할 수 있다. 탐나오 입점은 제주도내 관광사업체라면 누구나 가능하며, 언제든지 사이트(www.tamnao.com)를 통해 신청할 수 있다. 문의: 제주도관광협회 온라인사업실(1522-3454). &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 3박4일 여행코스 실내체험관광 ‘제주이야기’ 천연꽃 향수, 립글로즈 만들기 체험 - 한국면세뉴스 × 전체기사 DF산업 전체 국내면세점 해외면세점 산업동향 금융 DF정책 브랜드·유통 전체 뷰티 패션·인테리어 주류·담배 식품·음료 가전·IT·게임 유통채널 포커스 전체 인터뷰·칼럼 What’s NEW 글로벌 라이프 여행·레저 전체 국내여행·숙박 해외여행·숙박 항공사·항공권 아웃도어 보도자료 UPDATED. 2022-10-04 11:10 (화) 로그인 회원가입 모바일웹 전체기사 DF산업 국내면세점 해외면세점 산업동향 DF정책 브랜드·유통 뷰티 패션·인테리어 주류·담배 식품·음료 가전·IT·게임 유통채널 포커스 인터뷰·칼럼 What’s NEW 글로벌 ISSUE 라이프 여행·레저 국내여행·숙박 해외여행·숙박 항공사·항공권 아웃도어 핫뉴스 핫뉴스 생활 엔터테인먼트 보도자료 기사검색 검색 이전 다음 제주도 3박4일 여행코스 실내체험관광 ‘제주이야기’ 천연꽃 향수, 립글로즈 만들기 체험 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME 핫뉴스 생활 제주도 3박4일 여행코스 실내체험관광 ‘제주이야기’ 천연꽃 향수, 립글로즈 만들기 체험 허남수 승인 2020.08.15 10:00 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 제주도 구좌읍 송당리는 대중교통 전면 개편과 함께 관광지 순환버스가 운행되고 있는 교통의 요지이자 제주도내 368개 오름 중 18개의 오름이 자리잡고 있어 제주도3박4일 여행코스의 중심지로 계획하기 좋다. 제주시 구좌읍 비자림 근처에 위치한 ‘제주이야기’ 송당점은 제주도의 자연을 담은 천연향수와 천연 화장품을 만들어 볼 수 있는 체험형 관광지로, 실내에 자리하고 있어 날씨에 구애 받지 않고 언제나 쾌적한 체험이 가능하다. 날씨 변덕이 심한 제주도 특성상 실내체험관광지는 제주여행 필수코스로 ‘제주이야기’는 대부분 실내 만들기 체험이 연령대 제한이 있는 것과 달리 5세 이상 미취학아동부터 체험이 가능해 어린 자녀 동반 가족 여행객들에게 특히 선호되고 있다. 체험상품으로는 △천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’ △자신이 좋아하는 향의 냉동 건조된 천연꽃을 골라 나만의 스타일대로 넣어 데코 할 수 있는 ‘천연꽃 롤향수’로 자극적이지 않은 천연원료를 사용하고 보존제를 전혀 첨가하지 않아 어린이도 부담 없이 사용할 수 있다. 뿐만 아니라 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차와 최근 신제품 립오일을 출시한 기능성 화장품, 예쁜 젤 캔들 등 다양한 제주도 기념품까지 구매할 수 있으며 현재 체험비 할인 및 화산송이 볼방향제 만들기 체험(1만원 상당)을 무료로 제공하고 있다. ‘제주이야기’ 송당점 2층에는 제주구좌카페 ‘송당다방’이 위치해있어, 별도의 테라스 공간에서 제주도 고유의 색을 간직하고 있는 송당마을 전경과 오름을 감상할 수 있다. ‘송당다방’에서는 100% 아라비카원두(에티오피아, 콜롬비아)를 최적의 로스팅 기법을 적용해 차별화된 커피맛의 아메리카노와 카페라떼, 에스프레소 대비 2배 진한 고농도 콜드브루 원액을 사용한 콜드브루 커피를 비롯해 구좌읍 대표 특산품인 제주당근으로 만든 당근주스와 보리미숫가루,  제주한라방에이드 등의 음료를 맛볼 수 있다. 업체 관계자는 “제주도 천연꽃으로 향수와 화장품을 만드는 체험은 제주도에서 할 수 있는 특별한 체험으로 연인이나 가족단위 방문객은 물론 회사 워크숍 등 단체 체험도 이어지고 있다”며”만들기 체험도 하고 송당다방에서 편안하게 이야기도 나누며 제주도에서 좋은 추억을 남기시길 바란다”고 말했다. 한편, ‘제주이야기’브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상 차 및 꽃을 이용한 티백 및 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 허남수 기자 kdf@kdfnews.com 저작권자 © 한국면세뉴스 무단전재 및 재배포 금지 허남수 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 관련기사 현대백화점그룹, 소외계층 아동 대상 대학생 멘토링 '언택트'로 재개 위메프 '베이비위크', 육아 필수 아이템 최대 40% 할인! 레니본 로맨티시즘의 향연, 유니크한 컬러와 페미닌한 실루엣의 20FW 광고 캠페인 롯데리아, 코로나 확진자 발생 매장 영업 재개 강북구청, 30번 확진자 발생...번동 거주 50대[코로나19] 자연지애, 프리바이오틱스 2종 투입한 '프리바이오틱스 더블' 20% 할인 이재명, 도내 종교시설 2주간 집합제한 행정명령 필네이처 ‘리타 노니쥬스 원액’ 누적판매 400만병 돌파 강북구청, 성북구 사랑제일교회 관련 확진자 5명 발생....#31~35[코로나19] 여성 Y존 관리에 좋은 청결제, 추천 제품은? 관광공사, 한국인 글로벌 파워유튜버들과 '한국관광 매력' 홍보 구딸 파리, 신제품 ‘르 떵 데 헤브’ 출시...남프랑스 그라스 오마주 향수 더보기+ 주요기사 여수 앞바다 검은 무지갯빛 기름띠 오염…"오염원 추적 중" 현대모비스, ‘차량용 5G통신 모듈' 개발..."미래 모빌리티 정조준" 몽골은 편의점 '기회의 땅'...GS·CU, 360여점 운영···'K-편의점의 힘' 발휘 "高물가에는 大용량 시대"...대용량 상품 판매, 전년比 2배 증가 마켓컬리 근로법 위반신고 가장 많아...野 "김슬아, 국감증인 不채택 의아" "누구를 위한 마트인가?" 하나로마트, 수입농산물 판매 '기준 위반'...제재 0건은 '제식구 봐주기' 당신만 안 본 뉴스 (속보) 日 기시다 총리 "10월 11일부터 외국인 무비자·자유여행 허용" 강남 S대학병원 천장서 대소변 쏟아져 환자가족 덥쳐..."병원측 사과 없어" [속보] 모스크바 주재 美 대사관, 러시아 거주-여행 미국인 철수령...이중 국적 미국인 동원령 징집 경고 [KDF World] [속보] 필리핀, 슈퍼 태풍 '노루' 최고 비상단계 대응 발령...최대 풍속 250km/h→허리케인 5등급과 맞먹어 [KDF Disaster] [속보] 美 허리케인 '이안(Ian)' 4등급 폭풍 격상...플로리다 비상사태 선포 '강제 주민 대피령' [KDF Disaster] (속보) 日 기시다 총리 "10월 11일부터 외국인 무비자·자유여행 허용" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신뉴스 롯데면세점, LDF BUY에 일본직구관 오픈 조셉앤스테이시, 2023 SS 파리 패션위크서 올해의 데뷔땅뜨 등극 위크엔드 막스마라, 2022 FW ‘하비토(Habito)’ 컬렉션 공개 [KDF MaxMara] 네이버, 미국판 당근마켓 '포쉬마크' 2조3000억원에 인수 이민정도 고민하던 기미·피부노화 이제는 벗어날 때 [KDF mastic] KDFN 인터뷰 OECD 최악의 노인 빈곤율과 자살률 1위 [안창현의 돋보기] 오는 10월 2일 노인의 날을 앞두고 우리나라의 노인 빈곤율이 압도적인 세계 1위로 나타나 초고령사회(65세 노인 인구가 전체의 20% 이상)를 목전에 둔 상황에서 국가적인 대책 ... 금융위기 공포, 한국의 원화 가장 취약[안창현의 돋보기] 28일 원/달러 환율이 1439.9원으로 폭등하며 1440원 돌파를 목전에 뒀고 코스피는 2200선이 무너지며 2.45% 하락한 2169.29로 2년 2개월 만에 최저치를 기록했고... 자살을 부르는 사회, OECD 자살률 부동의 1위 [안창현의 돋보기] 통계청이 27일 발표한 ‘2021년 사망원인통계’에 따르면 우리나라는 2021년에도 OECD(경제협력개발기구) 국가 가운데 자살률 부동의 1위를 기록했다.자살로 소중한 생을 마감한... What's NEW 오마이걸 미미, 막스마라 입고 오마이~, 마라~ [KDF @star1] 오마이걸 미미가 위크엔드 막스마라(Weekend MaxMara)와 함께한 앳스타일 화보를 공개했다. 미미는 위크엔드 막스마라 2022 FW 파카, 점퍼, 패딩 등 다양한 아우터를 ... 심달기, 영화를 말아? 인기를 말아?  JIFF 말고 BIFF까지 [KDF Rolling] 영화 '말아'의 주인공 ‘심달기’가 부산국제영화제를 앞두고 '마리끌레르' BIFF 에디션을 통해 진솔한 생각을 담은 인터뷰와 화보를 공개했다. 화보 속 심달기는 배우로서 지닌 다채... 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 한국면세뉴스 KoreaDutyFreeNews 등록번호 서울 아 03561 등록일 2015-02-02 발행인 박홍규 편집인 박홍규 청소년보호책임자 박주범 서울특별시 서초구 서초대로55길 3 애니빌딩 6층 (서초동 1696-13) 02-3478-1767 mail to kdf@kdfnews.com / 4067park@naver.com 한국면세뉴스 · 면세뉴스아시아 © 2022 kdfnews.com All rights reserved. 한국면세뉴스의 모든 콘텐츠는 저작권법의 보호를 받으며, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회 탐나오, 코로나19 조기 극복을 위한 제주마켓 동참 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-04 11:07 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 탐나오, 코로나19 조기 극복을 위한 제주마켓 동참 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도관광협회 탐나오, 코로나19 조기 극복을 위한 제주마켓 동참 기자명 허태홍 기자 입력 2020.08.07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회는 코로나 19 조기 극복을 위해 제주여행 대표 온라인마켓인 탐나오와 함께 현대백화점에서 개최하는 “THE 제주마켓” 테마행사에 동참한다. 행사는 오는 13일까지 목동점 식품관에서 진행된다. 행사기간 동안 현대백화점에서는 제주의 특산기념품을 합리적인 가격에 구매할 수 있으며, 구매고객에게는 탐나오에서 판매되고 있는 제주도 기념품을 사은품으로 지급한다. 인스타그램 등 SNS를 통해 제주여행 스팟 추천과 다양한 이벤트도 진행된다. 탐나오 입점은 도내 관광사업체라면 누구나 가능하며 언제든지 사이트(www.tamnao.com)를 통해 신청할 수 있다. 한편 탐나오는 제주여행 전문 오픈마켓으로, 도내 관광사업체의 온라인 홍보와 판매를 지원하고 있다. 허태홍 기자 black4t@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ 제주지식재산센터 10월 무료 변리상담 지원 JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 포토뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 인기뉴스 1 서귀포예술의전당, ‘빛이 머무는 곶’전(展) 개최 2 막바지 국비예산 확보에 더욱 진력해야 3 제주도, 중증장애인아동 돌봄 지원 960시간으로 확대 4 “제주, 누구도 가보지 않은 새로운 길 도전한다” 5 삼매봉도서관 10월 5일 재개관 6 “토지세가 너무 많이 나왔어요” 7 제주 관광 전세 버스는 달리고 싶은데… “기사가 없어요” 8 제주 4일 최대 30㎜ 비…5일 찬바람 ‘주의’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>특별 여행주간 관광객 증가율, 제주도 가장 높았다 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:13 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 특별 여행주간 관광객 증가율, 제주도 가장 높았다 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 특별 여행주간 관광객 증가율, 제주도 가장 높았다 원성심.홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.08.05 11:23 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 7월 1~19일 여행주간, 제주도 27만명 방문...6월 比 23% 증가여름 휴가시즌 맞물려 증가세 전환...1일4만9000명↑ 정부가 코로나19 위기극복의 일환으로 안전한 여행문화 확산 및 내수 활성화를 위해 시행한 '2020 특별 여행주간'(7월 1~19일) 운영 결과, 지역별 방문객에서는 제주도가 가장 높은 증가율을 보인 것으로 나타났다. 문화체육관광부가 5일 발표한 '2020 특별 여행주간' 사업 효과 분석결과 자료에 따르면, 특별 여행주간 기간 동안 지역방문(이동량)과 관광소비지출액 모두 전월(6월) 같은 기간 보다 증가했지만 아직 지난해 같은 기간 수준에는 미치지 못한 것으로 나타났다. 특별 여행주간 동안 지역방문자 수는 전월(6월) 동기 대비 4.1%가 증가한 것으로 나타났다. 제주도는 이 기간 총 27만 4300명이 방문한 것으로 집계됐다. 이는 6월 같은 기간(22만 2000명)과 비교해 23.6% 증가한 수치이다. 지난해 같은 기간과 비교해서도 1.4% 증가했다. 6월과 비교해 제주도 다음으로 강원(18.6%), 인천(9.0%) 순으로 높은 증가세를 보였다. 지난해 대비 증가한 곳은 강원(6.8%), 전북(2.8%), 제주도(1.4%) 3곳이다. 문체부는 이번 특별여행주간 결과를 바탕으로 여름성수기 관광수요가 하반기에도 계속 이어질 수 있도록 오는 10월 말부터 약 2주간(10월 31일~11월 15일) 가을여행주간을 추진한다. 한편, 최근 여름 휴가시즌이 절정에 이르면서 제주도를 방문하는 내국인 관광객은 1일 5만명에 육박하는 등 완전한 증가세로 전환됐다. 일별 입도객 추이를 보면, 주말인 지난 1일 올해 최대치인 '4만 9219명'을 기록한 것을 시작으로 △2일(일) 4만 7093명 △3일(월) 4만 3531명으로 집계됐다. 8월 내국인 입도객은 총 13만 9843명으로, 지난해와 비교해 4.2% 증가했다. 코로나19 위기상황이 심각단계로 격상됐던 지난 2월 이후 월단위 증가세 전환은 이번이 처음이다. 제주관광은 올 여름 휴가시즌이 시작된 7월부터 완연한 회복세를 보이기 시작했다. 7월 입도객은 내내국인 98만 4407명, 외국인 4422명 총 98만 8829명으로 집계됐다. 전체적으로는 지난해와 비교해 24.3% 감소한 것이지만, 이는 외국인 무비자 입국 중단 및 제주국제공항의 국제선 운항이 전면 중단되면서 외국인 관광객의 발길이 완전히 끊겼기 때문이다.  7월 외국인 입도객은 지난해 같은기간(15만 6214명)의 불과 3%도 안되는 수준(-97.2%)이다. 반면, 내국인은 지난해 대비 85% 수준(-14.3%)으로 회복된 것으로 나타났다. 지난 3~4월만 하더라도 '반토막' 수준이던 것이, 빠른 회복세를 보이고 있음을 보여준다. 이처럼 내국인 관광객들이 급증하고 있는 것은 여름 휴가시즌을 맞았으나 코로나19 사태로 해외여행이 제한되는 상황이 지속됨에 따라 코로나19 청정지역으로 평가받는 제주도로 발길을 돌리고 있기 때문으로 풀이된다. 외국인 관광시장의 '개점휴업'이 장기화되는 가운데, 내국인 입도객의 이러한 추이는 최대 불황기를 맞고 있는 관광업계에서는 매우 고무적으로 받아들이고 있다. 그러나 현재 제주도를 방문하는 관광객들은 대부분 '개별' 여행객이 주를 이루는 것으로 나타나 전세버스 업계는 물론 단체관광객을 대상으로 영업해온 음식점 등은 여전히 극심한 침체가 이어지는 것으로 나타났다.  &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심.홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주관광 모처럼 활기...1일 입도 여행객 4만명↑ '출렁' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 관광은 언제부터 시작됐을까? ┃ 기업인 너는 누구인가 HL - 펜앤드마이크 × 전체기사 정치 전체 이제는 4·15총선이다 사회 경제·산업·과학 미디어 전체 방송 모니터 외교·안보·국제 연예·문화·스포츠 기획·연재·기고 전체 \'가짜 뉴스\' 만든 정치인 \'가짜 뉴스\' 만든 언론인 문혁춘추 미제스 에세이 유니샘의 교실이야기 특별기고 자유지성인 대회 기타 나의좌파 탈출기 차명진 만평 칼럼 시민기자 시민단체 동향 인사·동정·부고 펜앤드마이크 최신영상 전체 펜앤뉴스 펜앤드마이크TV 독자의 소리 현대사 자료실 전체 5·18 광주사태를 파헤친다 북한정권 창출의 주인공 스티코프 일기 황장엽 망명 비화 전두환, 제5공화국 탄생의 비밀 김일성 정권의 아버지 레베데프 비망록 김용삼의 현대사 추적 화제의 신간 촌평 차명진 만평 김정산 작가의 펜앤투어 집회·행사·세미나 공지사항 미디어 모니터 UPDATED. 2022-10-04 10:08 (화) 로그인 회원가입 모바일웹 기사검색 검색 홈 칼럼 정규재 권순활 김용삼 PenN수첩 정치 사회 경제·산업·과학 외교·안보·국제 미디어 연예·문화·스포츠 촌평 기획·연재·기고 '가짜 뉴스' 만든 언론인 문혁춘추 미제스 에세이 특별기고 유니샘의 교실이야기 기타 차명진 만평 현대사 자료실 현대사 추적 5·18 광주사태 북한정권 스티코프 일기 황장엽 비화 제5공화국 탄생의 비밀 레베데프 비망록 펜앤드마이크TV 구독안내 이전 다음 제주도 관광은 언제부터 시작됐을까? ┃ 기업인 너는 누구인가 HL 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 펜앤드마이크 최신영상 펜앤드마이크TV 제주도 관광은 언제부터 시작됐을까? ┃ 기업인 너는 누구인가 HL 펜앤 펜앤 이메일 기자의 다른기사보기 최초승인 2020.08.10 12:23:37 최종수정 2020.08.10 12:23 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × © 펜앤드마이크 출처 명기한 전재 및 재배포는 환영합니다 펜앤 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 후 이용가능합니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 추천순 최신순 전체보기 인기기사 1[단독]尹 영국 방문 엉터리 선동, 5년전 박근혜 탄핵 괴담 퍼트렸던 동일 인물 소행으로 밝혀져 2KBS 직원들,尹 대통령 발언 관련 단체 성명 "정파적 편견에 찌든 특정 언론이 저지른 국가적 자해행위" 3[단독] 수상한 자금 흐름 포착...文정부 첫 국방장관 송영무의 자유총연맹 지역본부 옥죄기 전횡 의혹 수사 4허접한 대통령실 MBC 공문 서식 '충격'...김재원 "직원들 너무 나태" 5[단독] 경찰 수사선상 오른 자유총연맹 예산전횡 막후 정황 속 송영무 총재 직무유기 의혹 6"국회, 이 XX" 尹 발언 브리핑 연 김은혜 "미국 국회 아냐···한국 국회말한 것" 7[팩트체크]尹 '막말' 논란 관련 대통령실의 변명이 궁색한 이유 8[팩트체크] 김건희 여사의 ‘베일 모자’ 논란은?... 김어준이 맨 먼저 쏜 ‘오발탄 사건’ 9[단독] 박원순 간판시책 '태양광' 먹튀, 해드림협동조합의 수상한 자금 흐름 내막 추적 10[김태우 칼럼] “조국을 불패의 핵보유 군사강국으로 전변시키시었으며...” 최신기사 김건희 국감? 문재인 국감하자! [2022년 10월 4일(화) 김진기의 텐텐뉴스] 北 중거리탄도미사일, 열도 하늘 지나 태평양 떨어져... 日 '화들짝' 北 미사일 도발에 즉각 반응한 尹 "이런 무모한 도발 행위에 결연히 대응할 것" [속보]북한, 중거리탄도미사일 발사…일본 넘어 태평양 떨어져 [단독] 자유총연맹 文말뚝인사 송영무 총재의 이상한 물류센터 사업···뭐길래? 악마와 손잡은 파가니니와 협연한 ‘블랙핑크’, 21년 만에 영미 팝역사 새로 써 [단독] 자유총연맹 장악하려는 文말뚝인사 송영무 총재의 수상한 인사개정···왜 우)03149 서울특별시 종로구 인사동5길 26 8층(관훈동,홍익빌딩) 대표전화 : 02-2138-5881 팩스 : 02-730-0989 명칭 : (주)펜앤드마이크 제호 : 펜앤드마이크(PenN) 등록번호 : 서울 아 04863 발행인 : 천영식 편집인 : 천영식 등록일 : 2017-12-06 발행일 : 2018-01-02 청소년보호책임자 : 최대현 펜앤마이크 penn@pennmike.com / 기사제보·보도문의 pennjebo@pennmike.com Copyright © 2022 펜앤드마이크. All rights reserved. 상담가능 시간 : 평일 오전 10시~오후 5시30분 회사소개 광고안내 개인정보처리방침 청소년보호정책 인터넷신문윤리강령 위로</t>
-  </si>
-  <si>
-    <t>제주도관광지추천 ‘제주이야기’, 제주도 자생꽃으로 만드는 향수 만들기 체험 - CCTV뉴스 - 김범규 기자 × 전체기사 특집 모아보기 News Focus On People Inside Product Zoom In D-Trend SecuTV 스토리지 금융보안 특집 안전산업특집 UPDATE : 2022-10-04 11:02 (화) 로그인 전체기사 정기구독신청 고객센터 광고문의 스토리지 금융보안 특집 안전산업특집 특집 모아보기 News Focus On People Inside Product Zoom In D-Trend SecuTV 검색 기사검색 검색 회원 로그인 회원가입 이전 다음 제주도관광지추천 ‘제주이야기’, 제주도 자생꽃으로 만드는 향수 만들기 체험 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 조이뉴스 제주도관광지추천 ‘제주이야기’, 제주도 자생꽃으로 만드는 향수 만들기 체험 김범규 기자 승인 2020.08.01 09:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 한라산 정상으로부터 가장 가까운 지경에 중산간 마을로 최근 인기 있는 제주도관광지로 꼽히는 인생사진 명소 안돌오름을 비롯해 백약이오름, 아부오름 등 수많은 오름이 분포되어 있다. 또한 종달리 수국길과 2800여 그루의 비자나무가 그늘을 만들어 주는 ‘비자림’, 수요미식회를 통해 유명해진 핸드드립카페 ‘풍림다방’ 등 다양한 핫플레이스가 밀집돼 여름여행지로 각광받고 있다. 풍림다방 바로 앞에 위치한 ‘제주이야기’ 송당점은 제주도 천연꽃으로 향수와 화장품을 만들기 체험을 할 수 있는 제주도체험관광지로 날씨에 구애받지 않고 쾌적한 체험이 가능하다. 체험상품으로는 △천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’ △자신이 좋아하는 향의 냉동 건조된 천연꽃을 골라 나만의 스타일대로 넣어 데코 할 수 있는 ‘천연꽃 롤향수’가 있으며 천연꽃디퓨저와 화상송이 볼방향제 만들기 체험도 가능하다. ‘제주이야기’의 천연꽃 향수는 동백, 수국, 수선화, 장미 등 제주자생 꽃과 천연오일 등 보존제가 전혀 들어가지 않은 천연원료로 만들어 제주도 여름여행지로 어린이도 부담 없이 만들고 사용할 수 있다. 또한 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차와 최근 신제품 립오일을 출시한 기능성 화장품, 예쁜 젤 캔들 등 다양한 제주도 기념품까지 구매할 수 있다. 현재 ‘제주이야기’는 행원본점과 송당점으로 운영되고 있으며 대부분의 실내체험이 연령대 제한이 있지만 5세 이상부터 체험이 가능해 가족여행지로도 인기가 높다. 업체 관계자는 “제주도 천연꽃으로 향수와 화장품을 만드는 체험은 제주도에서 할 수 있는 특별한 체험으로 내 손으로 직접 만들어 세상에 단 하나뿐인 향수라는 특별한 의미가 더해져 선물용으로 만족도가 높은 편”이라고 말했다. 이어 “연인이나 가족단위 방문객은 물론 회사 워크숍 등 단체 체험도 이어지고 있다”고 설명했다. 한편, ‘제주이야기’브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상 차 및 꽃을 이용한 티백 및 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 저작권자 © CCTV뉴스 무단전재 및 재배포 금지 김범규 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 가장 많이 본 뉴스 1[기고] 디지털 주권과 클라우드 데이터의 상관 관계 2[포커스온] 첨단 미래차 시대, 보안은 필수다 3사이냅소프트, 하이브리드 워크플레이스 '웍스타운(WorksTown)' 메타버스 전시회 참가 4[IT트렌드] 안전 사고 예방에 ‘디지털 트윈’ 주목 5레노버, ‘씽크시스템 서버 혁신 30주년’ 기념 제품 업그레이드 발표 6파블로항공 "드론 원천 기술로 무인 모빌리티 시장 선도하겠다" 7시옷, 하드웨어 기반의 자동차 보안 솔루션으로 글로벌 시장 공략 8삼성전자, 패션 브랜드 준지 콜라보 에디션 출시 9글로벌 가상자산 플랫폼 윈터뮤트에서 약 2300억 원 해킹 10[IT트렌드] 출입부터 결제까지, 무인 매장 지키는 보안 기술 각광 이 시각 주요뉴스 모벤시스, 진동 측정과 모션 제어 가능한 IIoT 센서 VMS-200 출시 모벤시스, 진동 측정과 모션 제어 가능한 IIoT 센서 VMS-200 출시 사이버 보안 국가 경쟁력 제고 위한 '국제사이버보안인증협회' 발족 사이버 보안 국가 경쟁력 제고 위한 '국제사이버보안인증협회' 발족 베스핀글로벌, 멀티 클라우드 통합 솔루션 ‘베스핀 클라우드 서비스’ 출시 베스핀글로벌, 멀티 클라우드 통합 솔루션 ‘베스핀 클라우드 서비스’ 출시 매체소개 광고문의 기사제보 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 법인명 : (주) 테크월드 제호 : CCTV뉴스 08507 서울특별시 금천구 가산디지털1로 168, 1012-1호 (가산동, 우림라이온스밸리 C동) 대표전화 : 02)2026-5700 팩스 : 02)2026-5701 이메일 : webmaster@techworld.co.kr 등록번호 : 서울, 아 03078 등록일 : 2008-06-27 발행일 : 2009-02-19 발행·편집인 : 박한식 청소년보호책임자 : 박지성 Copyright © CCTV뉴스 All rights reserved. 위로</t>
-  </si>
-  <si>
-    <t>제주도 공항·관광지서 마스크 의무착용…위반시 고발 - 이투데이 속보창 구독신청 RSS 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 사회 일반 제주도 공항·관광지서 마스크 의무착용…위반시 고발 입력 2020-08-24 20:39 권태성 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 ▲제주도 내 11곳 해수욕장이 정식 개장한 1일 제주시 곽지해수욕장을 찾은 피서객들이 해수욕을 즐기고 있다. (뉴시스)앞으로 제주국제공항을 비롯한 제주 주요 관광지에서 마스크를 의무적으로 착용해야 한다. 제주도는 24일 ‘사회적 거리 두기 2단계에 따른 제주형 특별방역 행정조치계획’ 고시를 통해 고위험 시설, 대중교통, 항공기 내, 제주공항, 제주항, 실내 관광시설 등에서 마스크 착용을 의무화하는 행정조치를 발동했다고 이날 밝혔다.또 제주도는 공공기관의 실내 50인 이상, 실외 100인 이상 행사를 금지하도록 했다. 관련 뉴스 [곽노성의 글로벌 인사이트] 코로나19 방역의 정치화와 ‘폰지’ 위험 충북서 80대 노인 코로나로 숨져…아들 부부 접촉 LG전자 인도네시아 TV 공장서 직원 200명 코로나19 감염 도내 종교시설은 각종 소모임과 정규행사 외 추가 행사 개최를 전면 금지했다. 또 온라인 예배를 권고했다.도는 특별행정 조치를 위반하면 ‘감염병의 예방 및 관리에 관한 법률’(이하 감염병예방법)에 따라 고발 조치해 300만 원 이하의 벌금을 물도록 하고 또 확진자가 발생하면 방역 비용에 대해 손해배상(구상권) 청구하기로 했다. #코로나 #제주도 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 인천에 사는 박준수, 유영미 씨는 동갑내기 부부다. 11년 전 친구 소개로 만나 반년간의 연애 끝에 결혼에 골인했다. 당시 준수 씨는 완성차를 만드는 대기업에, 영미 씨는 전자제품을 만드는 중소기업에 다녔다. 결혼 1년여 만에 아이를 낳았고, 영미 씨는 회사를 나왔다. 외벌이에 빠듯한 살림이었지만 살만했다. 아이에게 드는 돈도 별로 없 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 서울만? 비수도권 출산율도 0.7~0.8명대 가임기 여성 유출로 출생아 감소 더 가팔라져 인구가 줄어드는 속도는 비수도권에서 상대적으로 빠르다. 추세적인 저출산에 더해 가임기 여성을 포함한 청년층(15~29세) 인구가 유출돼서다. 인구 유출은 추가적인 출생아 수 감소 요인이 된다. 그나마 수도권은 합계출산율 감소 영향이 가임기 여성 증가 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 증시가 불안한 모습을 보이는 가운데 금융당국이 이달 중순께 증권시장 안정펀드(증안펀드)를 재가동할 전망이다. 증안펀드 투입에 앞서 공매도 금지에 대한 논의도 진행된다. 4일 금융권 등에 따르면 금융위원회는 증안펀드 재가동을 위해 증권 유관 기관과 실무 협의 및 약정 절차를 진행 중이다. 빠르면 이달 중순에 조성 작업을 마무리할 계 전장연, 지하철 4호선 출근길 시위…“지연우려” 전국장애인차별철폐연대(전장연)가 4일 오전 8시부터 서울 지하철 4호선에서 출근길 지하철 탑승 시위를 이어갈 것으로 예상된다. 서울교통공사는 공지사항을 통해 "10월 4일(화)~7일(금) 오전 8시 00분부터 4호선에서 ‘전국장애인차별철폐연대’의 ‘장애인 권리 예산 확보’를 위한 삭발식 및 ‘지하철 타기 선전전’이 예정돼 있다"며 "이로 인해 믿었던 반도체 수출도 '흔들'…성큼 다가온 '쌍둥이 적자' 공포 10월 수출입동향서 수출 상승세 둔화 무역수지 적자 6개월째 이어져 '위기' 반도체마저 115억 달러로 5.7% 감소 재정 적자에 이어 경상수지도 위기 세계 경기 침체로 무역 상황이 악화되면서 믿었던 반도체 수출도 흔들리고 있다. 23개월 연속 이어오던 수출 상승세가 주춤하며 이미 적자인 관리재정수지에 이어 경상수지까지 적자인 '쌍둥이 적 감사원 '文 서면조사 통보'에…野 "정치 탄압" vs 與 "감사에 성역 없어" 野 정치탄압대책위 "尹 소란 종착지는 文…감사원 직권남용 고발" 靑 출신 野 의원들 "무례한 행태…국민 두려움 모르는 권력 끝은 침몰" 이재명 "민생경제, 외교평화에 힘 쏟을 때" 與 "전직 대통령도 성역은 있을 수 없어" 정진석 "전 대통령 서면조사 요구 처음 아냐…겸허히 받아들여야" 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 유가 하락 방어 나선 OPEC+, 하루 100만 배럴 감산 폭탄 터뜨리나 하루 50만~100만 배럴 감산 전망 지배적 전 세계 산유량의 1% 달하는 규모 배럴당 125달러였던 브렌트유 최근 85달러선대 유가 상승시 경기침체 리스크 더 커질 수도 석유수출국기구(OPEC)와 비(非) OPEC 산유국의 협의체인 ‘OPEC플러스(+)’가 이번 주 열리는 정례 회의에서 대형 감산에 나설 것이라는 관측이 커지고 있다. 감산으로 글로벌 경 [신용리스크 악몽 재현되나]①"우리 회사채 사주세요" 치솟는 금리에 울고 싶은 기업들 국내 5대 그룹 한 계열사는 최근 회사채 수요예측에 나섰지만, 선뜻 사겠다는 큰 손(기관투자자)이 없어 낭패를 봤다. 미국 중앙은행인 연방준비제도가 연방기금금리를 0.75%포인트(p) 올리는 ‘자이언트 스텝’을 3회 연속 단행한 후 시장 금리가 치솟고, 변동성이 커지자 기관들이 손사래를 치고 있다. 회사 관계자는 “올해 초만 해도 없어서 못 많이 본 뉴스 01 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 02 전장연, 지하철 4호선 출근길 시위…“지연우려” 03 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 04 머스크 “크림반도는 러시아 영토, 우크라이나 중립국 전환해야” 05 FOMC 후 일주일…폭락장에도 ‘태조이방원’ 찜한 외국인 06 유엔 “연준, 금리 그만 올려라” 07 우크라이나, 남부전선 돌파…러시아 점령지 헤르손 뚫었다 08 벤처투자 혹한기…몸집보다 수익으로 내실 다진 ‘켄타우로스’ 뜬다 09 '베이비 슬럼프 시대'...아기 발자국을 늘려라 10 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 최신 영상 "北 도발 시 즉각 대응"…한미 연합 해상훈련 모습 // 이투데이TV 사회 최신 뉴스 '채널A 사건' 최강욱 의원 무죄…법원 "비방 경위 찾을 수 없어" [포토] '창의적 상상 가득한 공공디자인' [포토] 일상 속 공공디자인 [포토] 무한상상 공유하는 공공디자인 페스티벌 [국감 핫이슈] 서울대 입학생 3명 중 2명 수도권 출신… 강남 3구 11.9％ [국감 핫이슈] 재소자 폭행‧고소에 시달리는 교정공무원…‘극단적 선택’도 속보 ‘채널A 사건’ 최강욱 의원 1심 무죄 [국감 핫이슈] ‘스토킹범죄’ 경찰이 구속영장 신청해도 검사‧판사가 32.6% 기각 8차선 도로에 누워 잔 남성 발견…“누구 인생 망치려고” 서대문구 '영 케어러' 돌봄·경제·취업·학습 지원 뉴스발전소 [인포그래픽] 개천절, 태극기 다는 법은? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '즐거움 가득한 공공디자인' 마켓 뉴스 특징주 투자전략 테슬라 공급 업체 ‘디아이씨’, 폐배터리 사업 진출 소식에 급등세 에쓰오일, 산유국 감산 소식에 3%대 오름세 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 [오늘의 증시 리포트] “HMM, 4분기부터 실적 급감” [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” “삼성전자, 역대급 ‘공급 축소’ 전망... 반도체 상승 싸이클, 최대 재고 후유증 우려” [오늘의 투자전략] 글로벌 증시 강세 따른 투자심리 개선…저가 매수·기술적 반등 시도 "하이브, BTS 활동 줄어도 3분기 실적 시장 예상치 부합할 전망" 오늘의 상승종목 10.04 10:54 20분지연 코스피 코스닥 1.SK네트웍스우 17,000 2.디아이씨 640 3.삼성출판사 3,550 4.에이프로젠제약 79 5.한미글로벌 2,850 1.오로스테크놀로지 2,760 2.라닉스 1,520 3.오픈엣지테크놀로지 3,150 4.유안타제7호스팩 765 5.네이처셀 2,700 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 28,153,000 +1.18% 이더리움 1,902,000 +1.17% 비트코인 캐시 167,000 -0.54% 리플 655.3 +0.02% 위믹스 2,587 +1.93% 에이다 615.2 +0.13% 이오스 1,701 -0.41% 트론 88.14 -0.92% 스텔라루멘 167.2 -4.02% 비트코인에스브이 69,400 -0.57% 체인링크 10,730 +2.58% 샌드박스 1,196 +0.93% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
-  </si>
-  <si>
-    <t>제주도가볼만한곳, 실내체험관광지 ‘제주이야기’에서 천연꽃향수만들기 제공 &lt; 조이뉴스 &lt; 기사본문 - 테크월드뉴스 - 조명의 기자 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 정기구독 특집 아카이브 스마트 팩토리 계측기 오토모티브 산업용 PC 뉴스 최신기사 반도체·디스플레이 임베디드·컴퓨팅·IoT 홈·모바일·통신 자동차·배터리 인터넷·게임·플랫폼 AI·메타버스·로봇 바이오·헬스케어 정책·사회·종합 인사·동정 인사이트 한장TECH 포커스 TECH웨이브 오피니언 인터뷰 칼럼 기고 트렌드 글로벌 트렌드 국내 트렌드 IT 증권가 라이프 생활TECH #IT용어 컨슈머 테크토크/동영상 전체메뉴 버튼 검색하기 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도가볼만한곳, 실내체험관광지 ‘제주이야기’에서 천연꽃향수만들기 제공 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 기사저장 다른 공유 찾기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 본문 글씨 줄이기 본문 글씨 키우기 제주도가볼만한곳, 실내체험관광지 ‘제주이야기’에서 천연꽃향수만들기 제공 기자명 조명의 기자 입력 2020.08.01 10:00 댓글 0 [테크월드=조명의 기자] 현재 제주도에서 인기 있는 관광지로 꼽히고 있는 안돌오름 비밀의 숲은 SNS 인생샷 장소로 화제를 모으며 커플여행지추천 순위로 꼽히고 있다. 60년을 가꾼 편백나무가 하늘 높이 솟아 장관을 이루고 있는 숲의 입구에는 한가운데서 사진을 찍으려는 사람들로 붐비고 있으며 신비스러운 분위기의 숲 속은 곳곳이 포토스팟으로 커플사진, 셀프웨딩사진을 찍기 위해 다양한 소품을 챙겨오기도 한다. 또한 오감을 만족시키는 실내체험관광 ‘제주이야기’에서 동백, 수국, 수선화 등 제주자생 꽃으로 천연향수와 천연 화장품을 만들며 향기로 제주도를 기억하는 특별한 기념품을 남길 수 있다. ‘제주이야기’는 날씨 변화가 심한 제주도에서 날씨에 구애 받지 않고 쾌적한 실내 체험을 즐길 수 있는 실내 커플여행지로, 월정리 해변 인근 행원본점과 송담점 두 군데를 운영되고 있다. 체험상품으로는 △천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’ △자신이 좋아하는 향의 냉동 건조된 천연꽃을 골라 나만의 스타일대로 넣어 데코 할 수 있는 ‘천연꽃 롤향수’가 있으며 천연꽃 방향제와 화산송이 모공팩 만들기 체험도 가능하다. 제주도의 자연을 담은 천연향수는 보존제가 전혀 들어가지 않고 천연꽃과 천연오일 등 천연원료로 만들어 어린이도 부담 없이 만들어보고 사용도 가능하다. 특히 제주도에서 나고 자란 천연꽃과 원료로 내 손으로 직접 만들어 세상에 단 하나뿐인 화장품과 향수는 의미가 더해져 선물용으로도 만족도가 높은 편이다. 또한 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차, 립오일 등 기능성 화장품과 예쁜 젤 캔들 등 다양한 제주도 기념품까지 구매할 수 있다. 뿐만 아니라 대부분의 실내체험이 연령대 제한이 있지만 5세 이상부터 체험이 가능하다는 것이 장점으로, 어린 자녀를 동반한 가족여행지로도 선호도가 높고 회사 워크숍 등 단체 체험도 이어지고 있다 특히 ‘제주이야기’ 행원본점에서는 현재 8월 31일까지 방문 전 전화 후 제주도로 신혼여행을 온 신혼부부에 한해 체험비를 전액 무료로 제공하고 있다. 업체 측은 “제주도에 오신 신혼부부들에게 호텔 패키지나 알려진 명소뿐만 아니라 제주도의 아름다움을 더욱 다양하게 느끼고 가시길 바라며 무료 체험 이벤트를 준비했다”고 말했다. 한편, ‘제주이야기’브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상 차 및 꽃을 이용한 티백 및 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 조명의 기자 (techwriter@techworld.co.kr) 기자의 다른기사 보기 저작권자 © 테크월드뉴스 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 테크월드 인기기사 카카오, 다음 통합 연기...사용자 불만 부담으로 작용 대만언론 ‘삼성’ 잇딴 견제…경쟁 확대 부담되나 넷기어, '철원 미(米)술관' 뮤럴 디지털 캔버스 납품 및 전시 美 법원, 머스크의 ‘트위터 인수 과정’ 중 문자 내역 공개 NHN페이코, 아성다이소에 페이코 간편 결제 서비스 도입 주요뉴스 Now [Tech 한주] 에스피지, 로봇 산업 확대로 증가하는 감속기 수요 美 법원, 머스크의 ‘트위터 인수 과정’ 중 문자 내역 공개 에릭슨엘지, 한네스 엑스트롬 신임 CEO 임명 컴투스플랫폼 ‘하이브’, 블록체인 기능 업그레이드…Web3 완벽 대응 SKT, 인공지능 돌봄 서비스 독거노인 심리상담 진행 LG이노텍, 글로벌 준법경영시스템 인증 획득 카카오내비, 울산광·주까지 C-ITS 서비스 적용 지역 확대 유니티, 2022 서울 스마트시티 리더스포럼서 스마트시티 기술 발표 마이크론, 자체회계연도 4분기 매출 66.4억 달러…전년비 19.8%↓ 매체소개 광고문의 기사제보 개인정보취급방침 청소년보호정책 이메일무단수집거부 기사 및 제보문의 : desk@epnc.co.kr 2020년 문화훈장 2011년 대통령 표창 2005년 국무총리 표창 1998/1999년 문화관광부 표창 인터넷신문위원회 법인명 : (주)테크월드 제호 : 테크월드뉴스 서울특별시 금천구 가산디지털1로 168, 1012-1호 (가산동, 우림라이온스밸리 C동) 대표전화 : 02)2026-5700 팩스 : 02)2026-5701 이메일 : webmaster@techworld.co.kr 등록번호 : 서울 아 03078 등록일 : 2014-04-01 발행일 : 1995-01-01 발행·편집인 : 박한식 청소년보호책임자 : 박지성 통신판매업신고 : 제 2008-서울금천-0415호 Copyright © 2022 테크월드뉴스. All rights reserved. 위로 전체메뉴 전체기사 특집 아카이브 전체 스마트 팩토리 계측기 오토모티브 산업용 PC 뉴스 전체 반도체·디스플레이 임베디드·컴퓨팅·IoT 홈·모바일·통신 자동차·배터리 인터넷·게임·플랫폼 AI·메타버스·로봇 바이오·헬스케어 정책·사회·종합 인사·동정 인사이트 전체 한장TECH 포커스 TECH웨이브 오피니언 전체 인터뷰 칼럼 기고 트렌드 전체 글로벌 트렌드 국내 트렌드 IT 증권가 라이프 전체 생활TECH 가젯·컨슈머 IT용어 TECH토크 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회 탐나오, 현대백화점과 제주마켓 진행 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:10 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회 탐나오, 현대백화점과 제주마켓 진행 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회 탐나오, 현대백화점과 제주마켓 진행 김태형 기자 승인 2020.08.09 15:59 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 부동석)는 제주여행 온라인마켓으로 자체 운영 중인 ‘탐나오’와 함께 지난 7일부터 오는 13일까지 서울 현대백화점 목동점에서 진행하고 있는 ‘THE 제주마켓’ 테마 행사에 참여하고 있다고 밝혔다. 도관광협회는 행사 기간에 제주의 특산기념품을 합리적인 가격에 판매하는 한편 구매 고객에게는 탐나오에서 판매되는 기념품을 사은품으로 제공하고 있다. 또 인스타그램 등 소셜네트워크서비스를 통해 제주여행 스팟 추천과 다양한 이벤트도 벌이고 있다. 김태형 기자  kimth@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김태형 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>제주도 공항·실내관광지에선 마스크 꼭 써야…위반시 고발 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도 공항·실내관광지에선 마스크 꼭 써야…위반시 고발 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도 공항·실내관광지에선 마스크 꼭 써야…위반시 고발 송고시간2020-08-24 20:04 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 24일 행정조치 고시·발동…종교시설 소모임도 전면금지 '제주 돌하르방도 마스크 착용' [연합뉴스 자료 사진] (제주=연합뉴스) 고성식 기자 = 신종 코로나바이러스 감염증(코로나19) 예방을 위해 제주국제공항 등에서 모든 이용자의 마스크 착용이 의무화된다. 제주도는 24일 오후 '사회적 거리 두기 2단계에 따른 제주형 특별방역 행정조치계획' 고시를 통해 고위험 시설, 대중교통, 항공기 내, 제주공항, 제주항, 실내 관광시설 등에서 마스크 착용을 의무화하는 행정조치를 발동했다고 이날 밝혔다. 도는 또 공공기관의 실내 50인 이상, 실외 100인 이상 행사를 금지하도록 하고 민간 행사 개최 시 핵심 방역수칙을 반드시 준수하도록 권고했다. 광고 도내 종교시설에 대해 개신교 예배 및 천주교 미사, 불교 법회 등 정규 행사를 제외한 각종 소모임과 정규 행사 외 추가 행사 개최를 전면 금지하고 예배의 경우 가급적 온라인으로 전환해줄 것을 권고했다. 도는 특별행정 조치를 위반하면 '감염병의 예방 및 관리에 관한 법률'(이하 감염병예방법)에 따라 고발 조치해 300만원 이하의 벌금을 물도록 하고 또 확진자가 발생하면 방역 비용에 대해 손해배상(구상권) 청구하기로 했다. 이 밖에 도는 대형 유통시설, 전통시장, 건설사업장, 콜센터 등 다중이 모인 41개 시설에 대해 '생활 속 거리 두기' 시행 수칙을 준수하도록 하고, 도 산하 담당 부서 등이 이를 철저하게 점검키로 했다. 특별행정 조치 기간은 도지사가 별도 지정 해제할 때까지 계속된다. 유튜브로 보기 https://youtu.be/MZ_IYHpy5Gc koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2020/08/24 20:04 송고 #마스크 #착용 #의무화 #제주공항 #실내관광지 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 35 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 하룻밤새 코로나 5명 확진 날벼락...목사·JDC 직원 부부-관광객 &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:42 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도 하룻밤새 코로나 5명 확진 날벼락...목사·JDC 직원 부부-관광객 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 제주도 하룻밤새 코로나 5명 확진 날벼락...목사·JDC 직원 부부-관광객 기자명 이승록 기자					(leerevol@naver.com) 입력 2020.08.25 00:58 댓글 66 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도, 24일 오후 8시 29번 확진, 10시께 30-31번, 32번, 25일 새벽 33번 확진 [기사 수정=25일 오전 8시25분] 제주에서 하룻밤새 5명의 코로나19 확진자가 발생했다.제주도는 24일 오후 8시께 제주지역에서 29번 코로나19 확진자가 발생한데 이어 오후 10시께 3명의 코로나19 확진 환자(제주지역 30번·31번·32번)가 추가 발생했다고 밝혔다.25일 새벽 1시40분께에는 29번 확진자 목사의 부인이 코로나19 확진 판정을 받아 33번 확진자가 됐다.29번 확진자는 목사로 지난 16일 용인시 죽전동 새빛교회에서 설교를 한 후 용인시 252번 확진자와 접촉했다.A씨는 지난 23일 오후 6시경 경기도 용인시 수지구보건소로부터 용인시 252번 확진자(22일 확진판정)의 접촉자로 이관 통보돼 자가격리 중이었다. 24일 밤 8시께 코로나19 확진 판정을 받았다.29번 확진자의 부인도 25일 오전 확진 판정을 받아 제주 확진자(33번) 명단에 이름을 올렸다.제주도 30번과 31번 확진자는 부부이며, 자녀 1명과 함께 지난 8월13일에서 15일까지 3일간 수도권 지역을 방문한 것으로 파악됐다. 부부 확진자는 각각 발열 등의 증상을 보이고 있다.30번 확진자는 24일 오전 10시 제주보건소에서, 31번 확진환자는 오후 3시 한마음병원에서 검체를 채취했다.30번 확진자는 국가공기업인 제주국제자유도시개발센터(JDC) 직원으로 확인됐고, 24일 밤 긴급방역을 실시했다. 25일 오전에도 건물 방역을 다시 실시할 예정이다.현재 JDC는 필수 인력만 남기고 재택근무를 지시했다. 구내식당도 폐쇄했다. 32번 확진자는 인천시 주민으로 지난 23일 오후 2시35분 김포발 TW723편으로 입도해 24일까지 제주체류 중 24일 오전 11시30분경 제주보건소에서 코로나19 검사를 받았다. 32번 확진자는 “24일 오전 9시50분경 서울 강남구보건소에서 확진자 관련 연락을 받고, 택시를 타고 제주보건소로 방문했다”고 진술했다.32번 확진자는 “검사 직후 강남구보건소의 자가격리 안내전화를 받고, 자택에서 격리하라는 것으로 오인해 오후 1시35분 제주발 KE1236 항공편을 통해 출도했다”고 밝혔다. 제주도는 인천에 있는 32번 확진자의 격리조치를 위해 인천시 계양구보건소에 이관 통보 절차를 밟고 있다.  32번 확진자는 이관 후 인천시 계양구에서 관리될 예정이다. 제주도는 30번과 31번 확진자를 제주대학교병원 음압병상으로 이송하는 한편 32번 확진자의 격리조치를 위해 인천시 계양구보건소에 협조 요청했다. 방역당국은 이들 3명 확진자의 상세한 동선이 파악되는 즉시 구체적인 동선을 공개하고, 방역 조치할 예정이다. 관련기사 제주 29번 확진자는 목사..16일 용인시 새빛교회서 설교 [속보] 제주 29번째 코로나 확진자 발생...역학조사 중 코로나 확진 목사 방역 ‘비협조’…JDC 직원-교사 부부 확진 ‘파장’ “출근하자마자 피신”...코로나 습격에 제주 ‘지역감염’ 초긴장 제주 34번째 코로나 확진자 또 JDC 직원...원희룡 "340명 직원 전수조사" 제주 30번 확진자 역학조사...‘6곳 방문, 41명 접촉’ JDC 강타한 코로나19, 전 직원 검사에 불안감 ‘고조’ 제주 31번 확진자 추가 동선 공개...‘접촉자 18명’ 제주 코로나 32번 확진자 접촉 택시 3명 파악 ‘난항’ 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 “도민·관광객 마스크 반드시”… 거리두기 2단계 격상 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주도 “도민·관광객 마스크 반드시”… 거리두기 2단계 격상 , 신종 코로나 바이러스 입력 : 2020-08-21 14:37:22 수정 : 2020-08-21 14:37:20 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 수도권 인구 지속적 유입 우려22일부터 도내 방역대책 강화 여름 휴가철인 지난 20일 서울 강서구 김포공항 국내선 터미널이 제주도 등으로 관광을 떠나려는 시민들로 북적이고 있다. 김포공항=뉴스1 국내에서 ‘코로나 시대 최고의 관광지’로 부상한 제주도가 신종 코로나바이러스 감염증(코로나19) 지역사회 확산을 차단하기 위해 사회적 거리두기를 2단계로 상향 조정할 예정이라고 21일 밝혔다. 제주도는 전국에서 비교적 코로나19 확산 속도가 가파르지 않은 지역이나 예방적 차원에서 선제 조치에 나섰다. 원희룡 제주지사는 22일 0시를 기해 제주형 방역대책을 생활 속 거리 두기인 기존 1단계 사회적 거리 두기에서 2단계 사회적 거리 두기 수준으로 격상해 시행하라고 말했다. 원 지사는 이날 제주도청 집무실에서 도내 코로나19 확진자 발생과 관련해 긴급 대책회의를 주재하며 이같이 지시했다. 원 지사는 “현재 수도권의 폭발적인 증가세, 수도권의 사회적 거리두기가 강도 높게 진행되고 있다”며 “제주도는 수도권 인구가 많이 유입되고 있어 앞으로 2주간 2단계 사회적 거리 두기 수준의 방역대책을 시행해야 한다”고 말했다. 이어 “우선 실내 50인 이상·실외 100인 이상의 행사와 회의를 금지하는 행정명령을 내리겠다”며 “12개 종류별 고위험 업소에 대해서는 방역수칙에 대한 엄격한 준수를 권고하고 전체 이행 실태를 점검하면서 이행하지 않을 경우 영업중단 등의 행정조치도 단행하겠다”고 밝혔다. 또 “도민과 관광객 모두에게 마스크 착용을 강력히 권고해야 한다”고 덧붙였다. 도는 이날 긴급 대책회의 결과에 따라 22일 0시부터 시행할 2단계 사회적 거리두기 수준의 제주형 방역대책에 대한 세부지침을 만들어 공포할 예정이다. 도는 경로당 등 사회복지시설과 공공시설, 고위험 업소의 운영 중단 여부는 앞으로 코로나19 상황 추이를 예의주시하면서 최종 결정할 예정이다. 제주에는 수도권에서 유입되는 인구가 많아 앞으로 2주 동안 제주형 방역대책이 시행될 것으로 보인다. 제주에서는 지난 20일 도내 27번째 코로나19 확진자에 이어 21일 오전 28번째 확진자가 잇따라 발생했다. 박유빈 기자 yb@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20200821513859 0101080100000 0 2020-08-21 14:37:22 2020-08-21 14:37:20 0 제주도 “도민·관광객 마스크 반드시”… 거리두기 2단계 격상 세계일보 박유빈 4a90a23d-7352-485f-a77a-821e6bd64da9 yb@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 "바위야 호박이야?" 1.1t 넘는 초대형 호박 수확 2 23층 지붕 위 기인…양복 입고 활보, 왜? 3 머스크, 440억달러에 트위터 인수…계약파기 철회 4 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 5 에펠탑 아래 숲, 하마터면 사라질뻔∼ 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도내 실내관광지 등 마스크 쓰지 않으면 과태료 '10만원' &lt; 전국 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 14:50 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도내 실내관광지 등 마스크 쓰지 않으면 과태료 '10만원' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주도내 실내관광지 등 마스크 쓰지 않으면 과태료 '10만원' 기자명 이병철 기자 입력 2020.08.24 20:51 수정 2020.08.24 20:59 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 대중교통과 실내관광시설 등 고위험시설 13종에 이용자나 관리자가 마스크를 쓰지 않을 경우 10만원 이하의 과태료가 부과됩니다. 제주도는 코로나19 확산에 따른 사회적 거리두기 2단계에 따른 제주형 특별방역 행정조치를 오늘(24일) 발동했다고 밝혔습니다. 제주형 특별방역 행정조치에는 생활 속 거리두기 41개 유형 시설과 사업장별 핵심방역 수칙 준수, 공공기관의 ‘실내 50인, 실외 100인 이상’ 규모의 행사·회의·집회 금지, 민간의 행사·회의·집회는 방역수칙 준수 강력 권고, 종교시설 정규 예배 외 각종 모임․집합과 행사 등 금지, 고위험시설, 대중교통, 비행기, 공·항만, 실내관광시설 내 마스크 착용 의무화 등입니다. 이 행정조치 기간은 오늘부터 제주도지사가 별도 지정 시까지 유지됩니다. 도는 특별행정 조치 위반 시에는 방역비용에 대한 손해배상이 청구된다고 밝혔습니다. 이병철 기자 taiwan0812@hanmail.net 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 정토사회문화회관 개관, '사회공헌·포교'의 전당 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 미륵도량 봉덕사 "희망의 노래 전통차 축전" "건강한 자연 음식을"...봉녕사 사찰음식 대향연 개막 조계종 제37대 총무원장 진우스님 5일 취임 법회...BBS 생중계 정토사회문화회관 개관, '사회공헌·포교'의 전당 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 취임 100일 하윤수 부산교육감 "공교육 새로운 모델 만들 것" 부산 산업단지 통근버스 6개 노선 신설 제주, 1천억원 혈세 투입된 ‘버스 준공영제’...업체 반발로 ‘스톱’ 마포구, 이제 쓰레기 소각장 불필요..."분쇄 매립+재활용 고도화 대안" 제시 검찰, '서해 공무원 피격' 안영호 전 합참 작전본부장 조사 학생들에게 성적인 농담한 교사...법원, "해임 적법" 최신뉴스 전국 취임 100일 하윤수 부산교육감 "공교육 새로운 모델 만들 것" 전국 부산 산업단지 통근버스 6개 노선 신설 전국 제주, 1천억원 혈세 투입된 ‘버스 준공영제’...업체 반발로 ‘스톱’ 사회 마포구, 이제 쓰레기 소각장 불필요..."분쇄 매립+재활용 고도화 대안" 제시 사회 검찰, '서해 공무원 피격' 안영호 전 합참 작전본부장 조사 포토뉴스 취임 100일 하윤수 부산교육감 "공교육 새로운 모델 만들 것" 부산 산업단지 통근버스 6개 노선 신설 제주, 1천억원 혈세 투입된 ‘버스 준공영제’...업체 반발로 ‘스톱’ 마포구, 이제 쓰레기 소각장 불필요..."분쇄 매립+재활용 고도화 대안" 제시 인기뉴스 1 조계종 제6대 군종교구장에 능원스님 단독 추천 2 김기선 팀장 “11월 24일부터 종이컵 등 일회용품 무상제공 금지” 3 관음성지 양양 낙산사, 가을 맞이 사찰음식 나눔 잔치 4 무주 일가족 사상사고...보일러 배기관 막혀 5 [뉴스파노라마 한글날 특집] 김영수 관장 "한글, 한국문화 직조하는 씨줄 날줄...귀하게 여겨 잘 썼으면" 6 러시아, 우크라 전역에 미사일 보복 공습...백여명 사상 7 '하루가 멀다 하고 또'…충북 교육계 성추문 얼룩 8 조계종 제18대 직능대표와 비구니 중앙종회의원 30명 선출 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>아이콘루프, 제주도 관광 시스템에 DID 신원인증 지원 - 매일경제 뉴스 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 구독신청 통합검색 검색 닫기 뉴스 인기뉴스 오피니언 기획·연재 스페셜에디션 스타투데이 스포츠 게임진 영문뉴스 MK China MK Japan MK빌리어드뉴스 미라클어헤드 MK ESG 프리미엄 매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 뉴스레터 들려주는 뉴스 재테크 증권 부동산 경제용어 신설법인 라이프 골프 Book 여행 날씨 우버人사이트 MK생애설계센터 LUXURY M M플레이 Car 비즈니스 The Biz Times 닛케이텔레콤 집꾸미기 큐레이션 건빵 한국데이터거래소 MK몰 캠페인 세계지식포럼 세계한상대회 정진기언론문화상 구독신청 매경오픈 MK멤버십 뉴스 오피니언 프리미엄 연예 스포츠 증권 부동산 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition 인기뉴스 암호화폐 오늘의 매경 아이콘루프, 제주도 관광 시스템에 DID 신원인증 지원 자체 DID 신원인증 서비스 `쯩` 앱에 탑재 이지영 기자 입력 : 2020.08.20 14:59:26 국내 블록체인 기업 아이콘루프가 제주도와 함께 DID(분산신원증명) 기반 관광 방역 시스템을 선보인다. 아이콘루프와 제주특별자치도는 블록체인 DID 기반 제주형 관광 방역 시스템 구축 및 활성화를 위한 업무 협약(MOU)을 체결했다고 20일 밝혔다. 제주도는 최근 코로나19로 감소했던 방문 관광객 수가 관광 성수기를 맞아 다시 늘고 있는 만큼 방역 강화의 중요성을 실감 중이다. 이에 지난 7월 '제5차 제주형 생활 방역 위원회'를 통해 코로나19 확산 방지와 더불어 안전한 휴가 환경을 제공하기 위한 관광 최성수기 방역 대응책을 논의 및 발표한 바 있다. 제주도에서는 기존 관광 방역을 넘어 보다 안전한 환경을 제공하기 위해 아이콘루프와 협력했다고 설명했다. 아이콘루프와 제주도는 DID 기반 제주형 관광 방역 시스템을 이달 선보이며 방문객이 안심하고 관광할 수 있는 관광 방역 선도 모델을 제시할 예정이다. 이번 시스템의 가장 큰 특징은 블록체인 기술을 활용한 DID를 적용해 프라이버시 보호 및 사용자 편의를 극대화했다는 점이다. 이 시스템을 통해 발급되는 관광 방역 인증은 사용자 단말기의 안전한 영역에 암호화돼 보관되며, QR 인증 시에는 블록체인으로 비식별화된 정보의 위변조 여부를 검증해 개인정보를 보호한다. 업장 출입 시마다 매번 새로 인증을 하거나 QR코드를 재생성하는 등의 불편함 없이 한 번 발급받은 방문 인증을 간편하게 재활용할 수 있다. 또한 개인의 신원정보와 방문기록정보는 분리해 개인 프라이버시가 침해되지 않도록 하며, 코로나19 확진자 발생 시 동선 추적 용도로만 확인한다. 제주형 관광 방역 시스템은 지난 19일부터 제주도 청사 출입 공무원을 대상으로 시범 시행했다. 오는 8월 내 도청 인근 50개 업장을 대상으로 시범 운영에 들어가며, 이후 9월 초부터는 도내 8개 권역별 클러스터를 중심으로 민간에 정식 오픈할 예정이다. 이번 시스템은 아이콘루프 DID 신원인증 서비스 '쯩' 앱에 탑재된다. '쯩'은 금융위원회의 혁신금융서비스로 지정된 마이아이디 플랫폼 기반의 DID 서비스로, 이달부터 시중은행의 비대면 실명인증 수단으로도 활용될 예정이다. 김종협 아이콘루프 대표는 "제주도와의 협력은 포스트 코로나 시대를 준비하는 현시점에서 DID 신원인증, 즉 블록체인 기술의 실생활 적용에 새로운 지평을 여는 사례가 될 것"이라며 "국내 주요 관광지인 제주도에서 대규모 사용자가 안전하고 간편한 DID 신원인증 서비스를 직접 사용해 봄으로써, 블록체인 기술이 일상생활에 가져다 줄 수 있는 실질적 편의를 몸소 경험하게 될 것"이라고 말했다. [이지영 D.STREET(디스트리트) 기자] [ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] 오늘의 핫뉴스 전세대출 94%가 변동금리라는데…2030 절반차지   3시간 18분공영홈쇼핑 방송편성, 일부 업체에 집중돼   19분경기침체를 알리는 지표가 시장의 호재가 되는 역설 [핫이슈]   5시간 6분한전 사장 "전력도매가 1kWh 270원…사상최고"   2시간 9분 당신이 좋아할 만한 기사 댓글 시선집중 [매경증권센터] 이시각 증시는? [이시각 증시는] 거래소, 코스닥 시황 종합 [이 시각 특징주] 투자자별 매매동향, 이슈 테마.. [증권사 리포트] 최신 증권사 리포트 요약 주요뉴스 전세대출 94%가 변동금리라는데…2030 절반차.. 공영홈쇼핑 방송편성, 일부 업체에 집중돼 TSMC 창업자 "전쟁 발생시 TSMC 전부 파괴될것.. 경기침체를 알리는 지표가 시장의 호재가 되는.. 한전 사장 "전력도매가 1kWh 270원…사상최고" 인기뉴스 종합 연예 스포츠 1"과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메모.. 2"내 반려견 물려 배가 보랏빛으로"…한강공원에 나타난 .. 3금통위 앞두고 환율 또 급등…"환율 얼마나 더 오르나요.. 4"크림반도 우크라 영토"라던 푸틴, 갑자기 태도 바꾼 결.. 5"엉덩이 깨물어 멍들게 했다"…동거녀 10대 딸 학대한 5.. 1김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [똑.. 2선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[공.. 3‘♥남궁민’ 진아름 결혼소감 “예쁘게 행복하게 살게.. 4공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] 5김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”(회장님네.. 1꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예고 2유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 3치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 4조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 [.. 5"어떤 방법이라도 찾아준다고…나를 믿어준 kt에 고마워.. 포토 1/2 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 (책임자 : 이선형, 고성준) 서울특별시 중구 퇴계로 190 ☎ 02) 2000-2114 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved. RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY 매경LUXMEN 시티라이프 M-Print KDX한국데이터거래소 아이콘루프, 제주도 관광 시스템에 DID 신원인증 지원 - 매일경제 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소</t>
+  </si>
+  <si>
+    <t>제주 '김녕' 문화·관광 특화단지로…LH·제주도 협약 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 경제 경제최신 경제정책 국제경제 건설부동산 제주 '김녕' 문화·관광 특화단지로…LH·제주도 협약 등록 2020.08.20 11:22:40 작게 크게 다양한 제주형 모델 발굴하기로 두 기관 협약 [서울=뉴시스] 강세훈 기자 = 한국토지주택공사(LH)와 제주도가 도시 발전을 위해 다양한 사업을 함께 추진하기로 했다. LH는 20일 제주도와 '지역균형발전 및 지역상생거점 조성을 위한 업무협약'을 체결했다고 밝혔다. 협약에 따라 두 기관은 제주도 주거종합계획의 안정적 실현을 위한 공공주택 공급, 인구정책과 연계한 특화단지 발굴, 주거복지서비스 제고, 제주형 도시재생사업 발굴 등에 협력하기로 합의했다. 특히 2018년 지구지정된 제주김녕 공공주택사업지구에 대해 친수공간을 조성하고 제주만의 공간 특성에 맞는 건축계획을 수립하는 등 문화·관광이 결합된 특화단지로 개발함으로써 제주 동북권의 지역상생 거점으로 조성할 계획이다. 아울러 준공 이후에도 LH-제주도-주민이 함께 공공시설물을 유지하고 관리할 수 있는 도시관리체계를 도입해 지역경제 활성화와 일자리 창출이 함께 가능한 지역사회 상생모델을 구축할 예정이다. 변창흠 LH사장은 “이번 협약 체결로 제주도민의 삶에 변화를 줄 수 있는 다양한 제주형 모델들을 발굴할 수 있을 것"이라며 "앞으로도 LH는 지역문제 해결에 앞장서는 공공 디벨로퍼로서 지속가능한 도시공간 조성과 도민들의 삶의 질 향상을 위해 적극 노력할 것"이라고 밝혔다. ◎공감언론 뉴시스 kangse@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 청도군 "가을밤 코미디와 함께 반시 맛 즐겨보세요" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 2[창사기획-인구절벽]①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5[단독]엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 6국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 7미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 블록체인 DID 기반 관광방역 선도 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, 블록체인 DID 기반 관광방역 선도 파이낸셜뉴스입력 2020.08.19 16:58수정 2020.08.19 16:58 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 아이콘루프와 19일 제주형 관광방역시스템 구축 협약차세대 신원확인기술 적용…코로나19 차단·안전관광↑ QR코드 스캔만으로 간편하게 방문인증 가능한 제주형 관광방역 시스템 [제주=좌승훈 기자] 제주특별자치도는 국내 블록체인 전문기업 ㈜아이콘루프(대표 김종협)와 ‘블록체인 분산신원증명(DID) 기반의 제주형 관광방역시스템 구축과 활성화를 위한 업무협약'을 체결했다고 19일 밝혔다. 도와 아이콘루프는 이에 따라 블록체인 DID 기반의 제주형 관광방역 시스템을 이달 선보인다. DID는 개인 정보를 사용자의 스마트폰에 저장하고, 인증 시 필요한 정보만 골라서 제출하도록 해주는 블록체인 기반의 신원 인증 기술이다. 이 시스템의 가장 큰 특징은 블록체인 기반의 DID 기술을 적용해 프라이버시 보호와 사용자 편의를 극대화했다는 점이다. 시스템을 통해 발급되는 관광방역 인증은 사용자 단말기 안전 영역에 암호화해 보관된다. QR인증 시에는 블록체인으로 비식별화된 정보의 위·변조 여부를 검증해 개인정보를 보호한다. 아울러 업장 출입마다 새로 인증하거나 QR코드를 재생성하는 불편함 없이 한 번 발급받은 방문인증을 재활용할 수 있다. 개인의 신원정보와 방문기록정보는 분리해 개인 프라이버시가 침해되지 않도록 했다. 확진자 발생 시에만 정보를 결합해 동선을 추적함으로써 신속하고 정확한 확인이 가능하다. 도는 QR코드 방식의 서비스를 통해 다수의 방문객이 한 장소를 이용하더라도 동시에 방문 인증이 가능하고, 줄서기 현상도 해소함으로써 방문객 편의 증대와 함께 코로나19 감염 우려를 획기적으로 줄일 수 있을 것으로 기대하고 있다. 도는 앞으로 우수 방역업장에 대한 정보 제공과 상호 피드백 기능도 추가할 계획이다. 임태봉 도 보건복지여성국장은 “제주형 관광방역시스템이 도입됨에 따라 제주가 국내 대표 안전 관광지로 거듭날 수 있게 됐다”면서 “특히 코로나19 장기화로 침체된 지역경제에 활력을 불어넣는 계기가 되었으면 한다” 말했다. 도와 아이콘루프는 ‘DID’를 19일부터 제주도 청사 출입 공무원을 대상으로 시행한다. 이어 이달 내 도청 인근 50개 업장을 대상으로 시범 운영하기로 했다. 내달부터는 도내 8개 권역별 클러스터를 중심으로 민간에 정식 오픈할 예정이다. jpen21@fnnews.com 좌승훈 기자 키워드#QR코드 #분산신원증명 #DID #블록체인 #제주형관광방역시스템 #관광방역인증 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 이동약자 위한 무장애여행 관광지 우뚝 선다 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 이동약자 위한 무장애여행 관광지 우뚝 선다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도, 이동약자 위한 무장애여행 관광지 우뚝 선다 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2020.08.26 11:23 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도, 도내 90개 관광지 무장애 여행데이터 구축 및 서비스 고도화 제주도가 이동약자의 여행권 보장을 위한 무장애여행 데이터 확대 및 서비스 고도화사업을 추진한다.이번 사업은 고령화사회 진입 등으로 이동약자 인구는 증가하고 있음에도 관광지등에서 이동가능한 정보부재로 인한 이동권이 제약받고 있고, 이를 해소하기 위해 추진하는 사업이다.2018~2019년 사업으로 구축된 70개 관광지 무장애여행 데이터를 정비하는 한편 20개 관광지 데이터를 추가로 구축하고 이와 연계한 숙박시설, 음식점 등 이동약자를 위한 무장애여행 데이터를 구축해 서비스하게 된다.사업 결과물은 제주데이터허브(jejudatahub.net)를 통해 민간에 서비스되고, 올해에는 무장애여행 포털서비스도 시행할 예정이다.특히 2018~2019년 사업 성과물인 70개 관광지 무장애데이터는 민간에 제공해 민간에서 무장애여행 특화상품을 개발하는데 도움을 주고 있다. 도내 ICT 민간업체들도 관광지, 수요자, 무장애여행전문가이드 등을 매칭시키는 앱개발을 추진 중이다.서비스가 시행되면 90개 관광지 및 숙박, 화장실 등에 대한 무장애데이터 제공으로 국내․외 제1의 관광섬으로서 누구나 접근 가능한 관광․여행권을 보장할 수 있을 것으로 기대된다.노희섭 미래전략국장은 “이 사업은 주민이 직접 제안해 사회문제를 해결하는 디지털 사회혁신 사업으로 추진돼 더 큰 의미가 있다”며 “포스트 코로나19 사회문제 해결의 모델로도 기대된다. 앞으로도 적극 활용하겠다”고 말했다.한편 무장애여행 데이터 구축사업은 행안부 주최 디지털사회혁신 사업평가에서 2018년 최우수 기관상, 2019년 우수상을 수상해 전국적으로도 호평 받고 있다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 여행, 실내체험관광지 ‘제주이야기’ 자연을 담은 화장품, 향수 만들기 &lt; 생활·문화 &lt; 생활·문화 &lt; 기사본문 - 내외경제TV 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 기사제보 2022-10-11 13:35 (화) facebook naver post 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 여행, 실내체험관광지 ‘제주이야기’ 자연을 담은 화장품, 향수 만들기 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활·문화 생활·문화 제주도 여행, 실내체험관광지 ‘제주이야기’ 자연을 담은 화장품, 향수 만들기 기자명 장성길 기자 입력 2020.08.28 10:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 제주도 여행 코스 추천 '제주이야기' 이목 집중 날씨와 상관없이 풍성한 일정을 꾸미고 싶다면 실내에 자리해 쾌적하고 편하게 즐길 수 있는 실내체험관광지를 제주도 여행코스에 넣는 것을 추천한다. 세계 7대 자연경관으로 지정된 제주도는 우도, 한라산 백록담, 쇠소깍, 천년의 힐링 숲길 비자림 등 아름다운 자연환경을 자랑하는 명소들이 가득하지만 변덕스러운 날씨로 갑자기 비가 쏟아지는 일이 많다. ‘제주이야기’는 동백, 수국, 수선화, 장미 등 제주자생 꽃으로 천연향수와 천연 화장품을 만들 수 있어 오감을 만족시키는 실내체험장으로, 날씨에 구애 받지 않고 실내관광을 즐길 수 있다. 특히 대부분의 실내체험이 연령대 제한이 있지만 5세 이상부터 체험이 가능하다는 것이 장점으로, 어린 자녀를 동반한 가족여행지로도 선호도가 높고 회사 워크숍 등 단체 체험도 이어지고 있다 체험상품으로는 △천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’ △자신이 좋아하는 향의 냉동 건조된 천연꽃을 골라 나만의 스타일대로 넣어 데코 할 수 있는 ‘천연꽃 롤향수’가 있으며 천연꽃 방향제와 화산송이 모공팩 만들기 체험도 가능하다. 제주도 자연을 담은 천연향수는 보존제가 전혀 들어가지 않고 천연꽃과 천연오일 등 천연원료로 만들어 어린이도 부담 없이 만들어보고 사용도 가능하다. 특히 제주도에서 나고 자란 천연꽃과 원료로 내 손으로 직접 만들어 세상에 단 하나뿐인 화장품과 향수는 의미가 더해져 선물용으로도 만족도가 높은 편이라 제주도민들이 추천하는 체험이다. 또한 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차, 립오일 등 기능성 화장품과 예쁜 젤 캔들 등 다양한 제주도 기념품까지 구매할 수 있다. ‘제주이야기’는 현재 월정리 해변 인근 행원본점과 비자림 근처 풍림다방 바로 앞 송담점 두 군데를 운영되고 있으며 최근 이호테우 해변 인근에 용두암점을 오픈하고 오전 10시 입장객 무료체험 이벤트를 진행하고 있다. 행원본점은 아기자기한 포토존과 대형버스 6대까지 주차 가능한 넓은 주차장과 체험장이 마련돼 있어 단체여행과 기념품, 워크숍 장소로 주목을 받고 있다. 8월 31일까지 제주도로 신혼여행을 온 신혼부부에 한해 체험비를 전액 무료로 제공하고 있다. (방문 전 전화 필수) 업체 측은 “제주도에 오신 신혼부부들에게 호텔 패키지나 알려진 명소 뿐만 아니라 제주도의 아름다움을 더욱 다양하게 느끼고 가시길 바라며 무료 체험 이벤트를 준비했다”고 말했다. 한편, ‘제주이야기’브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상 차 및 꽃을 이용한 티백 및 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 장성길 기자 adv07@gmail.com 다른기사 보기 저작권자 © 내외경제TV 무단전재 및 재배포 금지 당신만 안 본 뉴스 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" '나는 솔로' 9기 옥순 인스타, 수영복 패션에 정숙 "언니, 너무 섹시" '나는 솔로' 9기 정숙 인스타 "이렇게 단아하니 협찬 모델" '나는 솔로' 9기 영자 인스타, "선 넘네" 악플에 경고장? '나는 솔로' 옥순 완전체 결성되나 "7, 10기 옥순님들 들어와" '나는 솔로' 10기 영숙 인스타, 꿀피부 자랑…골프 협찬 모델 예고? '나는 솔로' 10기 현숙 인스타 "포00에서 뭐 하나" 협찬 모델 예고 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 류호정 의원 "청와대 오픈빨 떨어져…전방위 재정비 시급" 성범죄 가장 많이 발생한 철도역사는 '수원역' 오버워치2 PC방 3위 진입…본격적인 FPS 게임 경쟁에 돌입 전라남도의회, 제366회 임시회 12일 개회 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 최신뉴스 류호정 의원 "청와대 오픈빨 떨어져…전방위 재정비 시급" 성범죄 가장 많이 발생한 철도역사는 '수원역' 오버워치2 PC방 3위 진입…본격적인 FPS 게임 경쟁에 돌입 전라남도의회, 제366회 임시회 12일 개회 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 포토뉴스 류호정 의원 "청와대 오픈빨 떨어져…전방위 재정비 시급" 성범죄 가장 많이 발생한 철도역사는 '수원역' 오버워치2 PC방 3위 진입…본격적인 FPS 게임 경쟁에 돌입 전라남도의회, 제366회 임시회 12일 개회 인기뉴스 1 류호정 의원 "청와대 오픈빨 떨어져…전방위 재정비 시급" 2 성범죄 가장 많이 발생한 철도역사는 '수원역' 3 오버워치2 PC방 3위 진입…본격적인 FPS 게임 경쟁에 돌입 4 전라남도의회, 제366회 임시회 12일 개회 5 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 6 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 7 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 8 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 rss 매체정보 서울특별시 금천구 가산디지털1로 168, C동 12층 1209-1호(가산동, 우림라이온스밸리) 대표전화 : 070-4252-5497 청소년보호책임자 : 정동진 법인명 : (주)내외경제미디어 제호 : 내외경제TV 등록번호 : 서울 아 02225 등록일 : 2012-08-06 발행일 : 2012-08-06 발행·편집인 : 정동진 내외경제TV 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 내외경제TV. All rights reserved. mail to msn06s@nbntv.co.kr 위로 전체메뉴 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>아이콘루프, 제주도 관광 시스템에 DID 신원인증 지원 - 매일경제 뉴스 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 구독신청 통합검색 검색 닫기 뉴스 인기뉴스 오피니언 기획·연재 스페셜에디션 스타투데이 스포츠 게임진 영문뉴스 MK China MK Japan MK빌리어드뉴스 미라클어헤드 MK ESG 프리미엄 매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 뉴스레터 들려주는 뉴스 재테크 증권 부동산 경제용어 신설법인 라이프 골프 Book 여행 날씨 우버人사이트 MK생애설계센터 LUXURY M M플레이 Car 비즈니스 The Biz Times 닛케이텔레콤 집꾸미기 큐레이션 건빵 한국데이터거래소 MK몰 캠페인 세계지식포럼 세계한상대회 정진기언론문화상 구독신청 매경오픈 MK멤버십 뉴스 오피니언 프리미엄 연예 스포츠 증권 부동산 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition 인기뉴스 암호화폐 오늘의 매경 아이콘루프, 제주도 관광 시스템에 DID 신원인증 지원 자체 DID 신원인증 서비스 `쯩` 앱에 탑재 이지영 기자 입력 : 2020.08.20 14:59:26 국내 블록체인 기업 아이콘루프가 제주도와 함께 DID(분산신원증명) 기반 관광 방역 시스템을 선보인다. 아이콘루프와 제주특별자치도는 블록체인 DID 기반 제주형 관광 방역 시스템 구축 및 활성화를 위한 업무 협약(MOU)을 체결했다고 20일 밝혔다. 제주도는 최근 코로나19로 감소했던 방문 관광객 수가 관광 성수기를 맞아 다시 늘고 있는 만큼 방역 강화의 중요성을 실감 중이다. 이에 지난 7월 '제5차 제주형 생활 방역 위원회'를 통해 코로나19 확산 방지와 더불어 안전한 휴가 환경을 제공하기 위한 관광 최성수기 방역 대응책을 논의 및 발표한 바 있다. 제주도에서는 기존 관광 방역을 넘어 보다 안전한 환경을 제공하기 위해 아이콘루프와 협력했다고 설명했다. 아이콘루프와 제주도는 DID 기반 제주형 관광 방역 시스템을 이달 선보이며 방문객이 안심하고 관광할 수 있는 관광 방역 선도 모델을 제시할 예정이다. 이번 시스템의 가장 큰 특징은 블록체인 기술을 활용한 DID를 적용해 프라이버시 보호 및 사용자 편의를 극대화했다는 점이다. 이 시스템을 통해 발급되는 관광 방역 인증은 사용자 단말기의 안전한 영역에 암호화돼 보관되며, QR 인증 시에는 블록체인으로 비식별화된 정보의 위변조 여부를 검증해 개인정보를 보호한다. 업장 출입 시마다 매번 새로 인증을 하거나 QR코드를 재생성하는 등의 불편함 없이 한 번 발급받은 방문 인증을 간편하게 재활용할 수 있다. 또한 개인의 신원정보와 방문기록정보는 분리해 개인 프라이버시가 침해되지 않도록 하며, 코로나19 확진자 발생 시 동선 추적 용도로만 확인한다. 제주형 관광 방역 시스템은 지난 19일부터 제주도 청사 출입 공무원을 대상으로 시범 시행했다. 오는 8월 내 도청 인근 50개 업장을 대상으로 시범 운영에 들어가며, 이후 9월 초부터는 도내 8개 권역별 클러스터를 중심으로 민간에 정식 오픈할 예정이다. 이번 시스템은 아이콘루프 DID 신원인증 서비스 '쯩' 앱에 탑재된다. '쯩'은 금융위원회의 혁신금융서비스로 지정된 마이아이디 플랫폼 기반의 DID 서비스로, 이달부터 시중은행의 비대면 실명인증 수단으로도 활용될 예정이다. 김종협 아이콘루프 대표는 "제주도와의 협력은 포스트 코로나 시대를 준비하는 현시점에서 DID 신원인증, 즉 블록체인 기술의 실생활 적용에 새로운 지평을 여는 사례가 될 것"이라며 "국내 주요 관광지인 제주도에서 대규모 사용자가 안전하고 간편한 DID 신원인증 서비스를 직접 사용해 봄으로써, 블록체인 기술이 일상생활에 가져다 줄 수 있는 실질적 편의를 몸소 경험하게 될 것"이라고 말했다. [이지영 D.STREET(디스트리트) 기자] [ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] 오늘의 핫뉴스 전세대출 94%가 변동금리라는데…2030 절반차지   3시간 18분공영홈쇼핑 방송편성, 일부 업체에 집중돼   19분TSMC 창업자 "전쟁 발생시 TSMC 전부 파괴될것"   1시간 10분경기침체를 알리는 지표가 시장의 호재가 되는 역설 [핫이슈]   5시간 6분 당신이 좋아할 만한 기사 댓글 시선집중 [매경증권센터] 이시각 증시는? [이시각 증시는] 거래소, 코스닥 시황 종합 [이 시각 특징주] 투자자별 매매동향, 이슈 테마.. [증권사 리포트] 최신 증권사 리포트 요약 주요뉴스 전세대출 94%가 변동금리라는데…2030 절반차.. 공영홈쇼핑 방송편성, 일부 업체에 집중돼 TSMC 창업자 "전쟁 발생시 TSMC 전부 파괴될것.. 경기침체를 알리는 지표가 시장의 호재가 되는.. 한전 사장 "전력도매가 1kWh 270원…사상최고" 인기뉴스 종합 연예 스포츠 1"과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메모.. 2"내 반려견 물려 배가 보랏빛으로"…한강공원에 나타난 .. 3금통위 앞두고 환율 또 급등…"환율 얼마나 더 오르나요.. 4"크림반도 우크라 영토"라던 푸틴, 갑자기 태도 바꾼 결.. 5"엉덩이 깨물어 멍들게 했다"…동거녀 10대 딸 학대한 5.. 1김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [똑.. 2선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[공.. 3‘♥남궁민’ 진아름 결혼소감 “예쁘게 행복하게 살게.. 4공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] 5김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”(회장님네.. 1꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예고 2유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 3치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 4조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 [.. 5"어떤 방법이라도 찾아준다고…나를 믿어준 kt에 고마워.. 포토 1/2 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 (책임자 : 이선형, 고성준) 서울특별시 중구 퇴계로 190 ☎ 02) 2000-2114 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved. RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY 매경LUXMEN 시티라이프 M-Print KDX한국데이터거래소 아이콘루프, 제주도 관광 시스템에 DID 신원인증 지원 - 매일경제 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소</t>
+  </si>
+  <si>
+    <t>제주도 공항·실내관광지 마스크 착용 의무화…위반시 고발 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주도 공항·실내관광지 마스크 착용 의무화…위반시 고발 입력 : 2020-08-25 09:36:28 수정 : 2020-08-25 09:36:25 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 신종 코로나바이러스 감염증(코로나19) 예방을 위해 제주공항과 실내 관광지 등에서 모든 이용자의 마스크 착용이 의무화된다. 제주도는 ‘사회적 거리 두기 2단계에 따른 제주형 특별방역 행정조치계획’ 고시를 통해 고위험 시설, 대중교통, 항공기 내, 제주공항, 제주항, 실내 관광시설 등에서 마스크 착용을 의무화하는 행정조치를 발동했다고 25일 밝혔다. 도는 또 공공기관의 실내 50인 이상, 실외 100인 이상 행사를 금지하도록 하고 민간 행사 개최 시 핵심 방역수칙을 반드시 준수하도록 권고했다. 도내 종교시설에 대해 개신교 예배 및 천주교 미사, 불교 법회 등 정규 행사를 제외한 각종 소모임과 정규 행사 외 추가 행사 개최를 전면 금지하고 예배의 경우 가급적 온라인으로 전환해줄 것을 권고했다. 도는 특별행정 조치를 위반하면 ‘감염병의 예방 및 관리에 관한 법률’에 따라 고발 조치해 300만원 이하의 벌금을 물도록 했다. 확진자가 발생하면 방역 비용에 대해 손해배상(구상권)을 청구하기로 했다. 이 밖에 도는 대형 유통시설, 전통시장, 건설사업장, 콜센터 등 다중이 모인 41개 시설에 대해 ‘생활 속 거리 두기’ 시행 수칙을 준수하도록 했다. 특별행정 조치 기간은 도지사가 별도 지정 해제할 때까지 계속된다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20200825507382 0101070100000 0 2020-08-25 9:36:28 2020-08-25 9:36:25 0 제주도 공항·실내관광지 마스크 착용 의무화…위반시 고발 세계일보 임성준 9a19e7e4-78a9-43d0-9d4a-245149669a84 jun2580@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 "바위야 호박이야?" 1.1t 넘는 초대형 호박 수확 2 23층 지붕 위 기인…양복 입고 활보, 왜? 3 머스크, 440억달러에 트위터 인수…계약파기 철회 4 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 5 에펠탑 아래 숲, 하마터면 사라질뻔∼ 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>[실전 바다 선상낚시㉘] 제주도 갈치낚시 '낚시도 관광상품' - 뉴스퀘스트 × 전체기사 ESG 전체 ESG일반 환경 사회공헌 기업가정신 경제/산업 전체 금융/증권 건설/부동산 자동차 유통 IT/게임 경제일반 산업일반 보도자료 바이오/제약 정치/사회 전체 대통령실 국회/정당 국방 북한 법조 교육 사건사고 정치일반 사회일반 전국 환경 행정 환경 보건의료 복지·노동 보도자료 국제 전체 국제일반 보도자료 문화/레저 전체 문화일반 레저일반 여행 보도자료 과학 연예/스포츠 전체 영화 드라마 가요 야구 축구 연예일반 스포츠일반 보도자료 강명호의 HOT! 코너 오피니언 전체 똑바로보기 기고 데스크칼럼 김호일의 직썰(直說) 행동경제학으로 보는 세상 성우제의 문화비평 오광수의 문화필담 김주석의 알기쉬운 상속과 증여 이강락의 경영컨설팅 '길이 보인다' 신동권의 공정거래 바로보기 권태오 장군의 영점사격 김형근의 科技누설 과학으로 해부해보는 男子 女子, 그리고 女子 방사성동위위원소의 DNA를 찾아서 이영종의 우리가 미처 몰랐던 북한 알기쉽게 풀어 쓴 ESG 이윤진의 ESG Books/문학 전체 북리뷰, 책은 밥이다 이 책을 말한다 저자와의 인터뷰 사람들 전체 인사 부고 오늘의 날씨 서울 B ℃ 미세먼지 좋음 경기 B ℃ 미세먼지 좋음 인천 B ℃ 미세먼지 좋음 광주 B ℃ 미세먼지 좋음 대전 B ℃ 미세먼지 좋음 대구 B ℃ 미세먼지 좋음 울산 B ℃ 미세먼지 좋음 부산 B ℃ 미세먼지 좋음 강원 B ℃ 미세먼지 좋음 충북 B ℃ 미세먼지 좋음 충남 B ℃ 미세먼지 좋음 전북 B ℃ 미세먼지 좋음 전남 B ℃ 미세먼지 좋음 경북 B ℃ 미세먼지 좋음 경남 B ℃ 미세먼지 좋음 제주 B ℃ 미세먼지 좋음 세종 B ℃ 미세먼지 좋음 네이버 포스트 페이스북 트위터 RSS 로그인 회원가입 모바일웹 최종편집 2022-10-11 14:20 (화) 전체메뉴 버튼 ESG 경제/산업 정치/사회 국제 문화/레저 연예/스포츠 오피니언 Books/문학 기사검색 검색 이전 다음 [실전 바다 선상낚시㉘] 제주도 갈치낚시 '낚시도 관광상품' 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 문화/레저 레저일반 실전 바다선상낚시 [실전 바다 선상낚시㉘] 제주도 갈치낚시 '낚시도 관광상품' 하응백 문화에디터 승인 2020.08.25 11:24 댓글 2 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 해가 지기 직전의 제주 바다. 【뉴스퀘스트=하응백 문화에디터】 낚시를 왜 하는가 하고, 심각하게 생각하고 낚시하는 낚시꾼은 거의 없다. 무엇을 잡을까 혹은 어떻게 잡을까 하면 이야기는 달라진다. 더 많이 더 큰 고기를 잡는 방법, 하면 이야기는 더욱 달라진다. 낚시꾼들은 대개 단순 명료하다. 좋은 조황, 큰 고기에 대한 욕심은 끝이 없다. 낚시는 일부 사람들이 오해하는 것처럼 강이나 호수 혹은 바다에서 사색에 잠겨 정신의 도(道)를 닦는 행위가 아니다. 낚시는 인류의 조상이 생존을 위해 수렵할 때의 습관이 지금까지 전해지는 몇 안 되는 생존 방식 중의 하나다. 때문에 낚시는 잔인하고 거칠다. 종교 이전에 낚시가 발생했기에 종교 계율을 위반하기도 한다. 마르크스적으로 말하면 본인이 생산과 소비의 주체이기에 소외되지 않은 노동 행위라고도 볼 수 있다. 하지만 낚시에는 어떤 철학도 어울리지 않는다. 간단하게 말하면 낚시는 내가 잡아서 나와 내 가족과 내 친지가 먹는 단순 행위다. 그 순수성 때문에 어떤 철학도 범접할 수 없다. 기록적인 길이의 장마 동안 온 국민이 비가 그치기를 기다렸다. 장마 끝 무렵 태풍이 지나갔다. 태풍 이후 제주 근해에서 ‘갈치가 터졌다’는 소식이 제주 최성훈 사장으로부터 전해졌다. ‘터졌다’는 말은 엄청 많이 잡힌다는 뜻이다. 낚시꾼들의 은어다. 그래? 그렇다면 안 갈 수가 없다. 아무리 꼬임이라 하더라도 섶을 지고 불에 뛰어드는 것도 아니기에 핑계 삼아 만사를 제쳐놓고 제주로 간다. 갈 수밖에 없다. 요즘 제주도 갈치낚시는 거의 완전히 패키지 관광 상품화 되어 있다. 제주 낚시 선사(船社) 홈페이지에 신청하거나 전화를 걸면, 싼 비행기표 예약과 낚싯배 예약이 일괄적으로 처리된다. 만약 낚시 장비가 없으면 2만 원에 장비를 대여해 준다. 아이스박스를 가져갈 필요도 없다. 스티로폼 박스가 낚싯배에 준비되어 있어 5000원에 판매한다. 물론 얼음은 선비에 포함되어 있다. 몸만 가면 된다. 이게 바로 제주 갈치낚시의 특징이다. 제주 갈치낚시는 대개 오후 1, 2시 정도 제주행 비행기를 타면서 시작된다. 제주 공항에 도착하면 갈치배 선사 버스가 공항에서 대기하고 있다. 그 버스를 타면 도두, 한림, 모슬포, 성산 등 그때그때 갈치가 잘 나오는 출조항까지 낚시꾼을 데려다준다. 항에 도착하기 전에 마트에 들러 낚시꾼이 필요한 물품, 예컨대 면장갑이나 간식거리 등을 준비할 수 있게 한다. 항에 도착해 바로 낚싯배를 타고 승선명부를 작성하면 배는 바로 출항한다. 배에는 물 등의 음료수와 얼음과 미끼가 준비되어 있다. 낚시꾼은 개인 장비만 준비하면 된다. 바늘이나 채비는 미리 준비해 가도 되고 배에서 구매해도 된다. 배에서 구매하는 편이 현지 바다 상황에 맞춘 것이라 더 효율적이기도 하다. 배에서는 본격적인 밤낚시가 시작되기 전에 저녁을 준다. 배에 따라서는 미끼 꽁치를 밤새도록 썰어주는 서비스를 제공하기도 한다. 이렇게 낚시를 밤새도록 하고 귀항을 하면 아이스박스에 잡은 고기를 담아 택배, 냉동, 항공화물로 각각의 목적지로 보낼 수 있다. 잡은 고기를 먹기 좋게 손질해 달라면 손질도 해 준다. 물론 낚시꾼 본인이 수화물로 가져가도 된다. 이런 건 낚시꾼이 선택하면 된다. 잡은 고기를 박스 포장한 다음 아침 식사를 하고, 제주 공항 부근 목욕탕에 들러서 간단하게 샤워를 한다. 그 다음 공항까지 데려다준다. 여기까지 선사가 책임지고 진행한다. 이게 바로 요즘의 제주 패키지 관광낚시다. 제주 은갈치호 선단의 최성훈사장. 꾼들의 채비를 직접 점검해 준다. 이런 관광낚시의 개념을 확립한 선사 중의 하나가 제주 은갈치호 선단이다. 이 선단의 최성훈 사장은 제주 사람은 아니다. 낚시를 좋아하다가 선장 면허도 따고 제주도에서 낚시 사업에 뛰어들어 은갈치호 선단을 이루었다. 이제 성공한 사업가이기도 하지만 그는 늘 열정적으로 일한다. 낚싯배 일은 고기를 잡는 어업, 즉 고기를 잡는 1차 산업이기도 하지만 그보다는 낚시꾼의 시간을 잡는 관광업으로 보아야 한다. 그걸 이해한 선장이나 선주들은 성공했다. 그렇지 않으면 도태되고 만다. 안타깝지만 어쩔 수 없는 일이다. 은갈치호 선단의 VIP호. 8월 23일 김포에서 오후 2시 비행기를 탄다. 제주에 도착하니 한바탕 소나기가 쏟아지고 난 다음이다. 버스를 타고 한림항으로 향한다. 최근 제주 갈치배들 중 일부는 낚시 인원을 12명으로 제한하는 이른바 우등 낚싯배를 운영한다. 갈치낚시 도중 가장 성가신 일이 옆 사람과 줄이 엉키는 것이어서 이를 피하여 낚시 인원을 아예 한 줄에 6명으로 제한하는 것이다. 이렇게 하면 간격이 넓어 낚시하기가 쉬워진다. 대신 승객을 적게 태우니 일인당 선비는 더 비싸진다. 통상적으로 제주 갈치배 하루 선비는 18만 원, 우등 낚싯배는 22만 원이다. 우등 낚싯배를 최 사장은 VIP호라 이름지었다. 평생 VIP 되어 본 적이 별로 없지만 오늘 하룻밤은 VIP가 되어, 열심히 낚시해 보자는 생각을 하니 웃음이 나온다. VIP호에서 최사장이 반갑게 인사를 한다. 최사장 배를 탄 지도 벌써 10년이 지났다. VIP호는 직접 운항을 한단다. 배는 한림항을 바로 출발하여 목적지로 간다. 30분 정도 항해하고 풍을 내린다. 배에는 ‘알리’라고 하는 인도네시아 청년이 조수로 일하고 있다. 이 ‘알리’가 미끼용 꽁치를 밤새도록 썰어준단다. 채비를 내리자마자 함께 동출(동반 출조: 낚시꾼들의 말이다)한 친구의 초릿대에 반응이 온다. 해도 지지 않았는데 벌써 반응이 오면? 친구는 “이러다가 오늘 대박이 나는 거 아니야?”하고 즐거워한다. 올려보니 갈치가 두 마리 달려 있다. 기념사진 찰칵. 권재배 소장, 환갑이 되어도 고기를 잡으면 어린 아이의 미소를 짓는다. 수심 70m. 최사장은 처음에는 40m 정도만 내리고, 해가 져서 집어가 되면 20m 정도만 내리고 낚시하란다. 바늘 하나 간격이 2m에서 2.5m이니 바늘 10개면 채비 길이가 20~25m다. 40m를 내리면 실제 미끼는 수심 40m에서 60m 사이에 있다. 이런 걸 직감적으로 알아채야 한다. 20m를 내렸는데 윗바늘에만 큰 게 물리면 조금 더 올리면 되고, 아랫 바늘에 큰 게 물리면 수심을 더 주면 된다. 이날은 밤새도록 수심 20m가 적정했다. 수심 20m을 주면 대개 위로부터 2번에서 6번 바늘에서 많이 잡혔다. 해가 지자 한 번 내릴 때마다 2~3마리의 갈치가 올라온다. 그중 반 정도는 3지 이상의 괜찮은 씨알이다(3지란 손가락 세 마디 정도 굵기의 너비). 10시가 지나면서 고등어가 섞이기 시작한다. 고등어가 물리면 좀 성가시다. 갈치나 고등어나 다 맛있는 생선이지만, 아무래도 갈치가 더 희소가치가 있으니 갈치를 선호한다. 갈치낚시를 하다 보면 항상 2지 이하의 작은 갈치(풀치라 한다)도 섞여서 올라오게 마련이다. 야간낚시 삼매경. 경험이 많은 꾼들은 이때 작은 갈치를 썰어 미끼로 사용한다. 갈치로 미끼를 사용하면 이점이 많다. 고등어 등의 잡어가 덜 물리고 갈치로 어종이 선별되는 경향이 다분하다는 것과, 갈치 씨알이 조금 굵어지는 듯한 느낌을 받는다는 것이다. 굵어진다고 단정하지 않고 ‘굵어지는 듯한 느낌’이라고 표현한 데 주목하기 바란다. 실제 그렇다. 갈치란 동종 포식어여서 자기네들끼리도 상처가 나거나 재빠르지 못하면 서로 잡아 먹히고 잡아먹는다. 동종포식하는 갈치를 잡기 위해 작은 갈치를 미끼로 사용하는 데 대하여 ‘불쌍한 갈치!’ 한다거나 ‘잔인한 낚시꾼!’이라고 하는 사람들도 있다. 그러던 와중에 초릿대가 크게 휘청거린다. 초릿대가 위로 올라와 쭉 펴지기도 한다. 갈치의 경우는 아무리 대어라도 아래도 처박을 뿐 위로 올라오지는 않는다. 초릿대가 펴지거나 옆으로 째지거나 하면 방어나 삼치 종류다. 그럴 땐 빨리 줄을 회수해야 옆 사람의 낚시 채비와 엉키지 않는다. 얼른 채비를 회수했더니 제일 윗 바늘에 잿방어 한 마리가 달려 올라온다. 잿방어는 아열대성 어종으로 가끔 제주도 해역에서 잡힌다. 힘이 매우 좋고, 회맛도 일품이다. 재방어와는 다른 어종이다. 재방어는 삼치를 닮은 물고기다. 누가 물고기 이름을 지었는지 모르지만, 좀 잘못 지었지 않나 싶기도 하다. 잿방어. 하여간 잿방어같이 맛있는 어종은 회로 빨리 먹어야 한다. 재빨리 회를 떠 친구와 여름밤의 정감을 나눈다. 배를 탄 다른 낚시꾼들도 한 점씩 먹고는 사라진다. 얼른 고기 잡을 욕심으로 느긋하게 회를 즐길 시간이 없다. 최사장이 제주 사람들은 잿방어를 두고 ‘간파치’라고 한다고 일러준다. 나중에 찾아보니 ‘간파치’는 일본 말이다. 다른 말도 그렇지만 제주 방언은 생선 이름을 부를 때도 상당히 특이하다. 이를테면 ‘보리멸’을 ‘모살치’라고 부른다거나 ‘붉은쏨뱅이’를 ‘우럭’이라고 부른다. 회를 끝까지 즐기고 다시 낚시를 한다. 파도도 거의 없고 바람은 살랑거린다. 제주 바다에서 여러 번 갈치낚시를 하지만, 바다가 이렇게 순한 경우는 드물다. 바다가 순하면 오히려 갈치 조과가 좋지 않은 경우가 많건만, 폭발적은 아니라 하더라도 따문따문 갈치가 올라와 심심할 틈이 없다. 오히려 바쁘다고 해야 정확한 말이다. 미끼 갈고 채비 내리고 입질이 오면 기다렸다가 채비 회수해 갈치를 아이스박스에 넣고, 고등어는 피를 빼서 바가지에 담았다가 다시 아이스박스에 넣고... 사실 노동도 이런 노동이 없다. 갈치낚시는 손맛도 없다. 초릿대의 움직임을 보고 줄을 잡고 회수하니 손맛이 있을 리가 없다. 오로지 잡아서, 먹고, 나눠주고, 저장하기 위해서 하는 낚시가 갈치낚시다. 그래도 재미있다. 재미있어서 먼동이 트는 줄도 모르고 하는 낚시가 또한 갈치낚시다. 해가 뜨면서 낚시가 끝나고 귀항한다. 30kg 정도 잡았나. 많이 잡은 꾼은 한 50kg은 잡은 것 같다. 박스에 담긴 갈치와 고등어. 서울로 가져가면 먹을 일만 남았다. 회로, 구이로, 조림으로, 국으로. 하룻밤 노동에 대한 대가는 가족과 친지의 즐거운 식탁에서 확인될 것이다. 갈치낚시는 원래 그런 낚시다. 노동이면서 재미있고, 내 입과 함께 주위 사람들의 입을 위하는 그런 낚시다. (왼쪽부터) 갈치회, 갈치국, 갈치구이. 팁: 갈치회 맛있게 먹는 법 갈치는 잡을 때 빙장시켜야 한다. 아이스박스에 40% 정도 얼음을 깔고 갈치를 잡으면 바닷물 두어 바가지 부어놓는다. 갈치가 차곡차곡 쌓이면서 바닷물이 찰랑찰랑하면 딱 좋은 상태다. 이렇게 하는 것을 꾼들은 빙장이라 한다. 낚시가 끝나면 스티로폼박스에 갈치를 옮겨 담고, 얼음은 비닐 봉지에 담아 넓게 펴서 갈치 위에 올린다. 이렇게 해야 갈치가 최상의 신선도를 유지한다. 그렇게 해서 비행기 화물칸에 실려 서울로 공수된다. 갈치회를 장만할 때도 일반 생선과는 좀 다른 과정을 거친다. 갈치회는 먼저 거친 수세미를 문질러서 은색 비늘을 살살 닦아낸다. 그 다음 포를 뜨고, 흰색 힘줄을 제거하고 적당한 크기로 썬다. 이렇게 먹어도 되지만 갈치는 상당히 기름져서 몇 점 먹으면 질린다. 때문에 갈치를 썬 다음에 얼음물에 2~3분 정도 담가 기름기를 좀 뺀 다음, 물기를 완전히 제거하고 고들고들하게 한 다음 먹으면 가장 맛있다. Tag #갈치낚시 #잿방어 #제주도선상낚시 #바다낚시 #은갈치 저작권자 © 뉴스퀘스트 무단전재 및 재배포 금지 하응백 문화에디터 다른기사 보기 관련기사 [실전 바다 선상낚시㉗] 부세조기 낚시 '한여름의 파티' [실전 바다 선상낚시㉖] 백조기의 재발견 [실전 바다 선상낚시㉕] 제주도 대전갱이 낚시 [실전 바다 선상낚시㉔] 점농어 외수질 낚시 [실전 바다 선상낚시⑰] 천수만 백조기 낚시 [실전 바다 선상낚시⑯] 서해 왕등도 문어낚시 [실전 바다 선상낚시⑮] 삼천포 문어낚시 [실전 바다 선상낚시㉚] 인천 무의도·자월도 '주꾸미낚시' ISSUE &amp; CULTURE 행동경제학으로 보는 세상 신뢰성 높으면서도 빠지기 쉬운 '숫자의 오류' 신뢰성 높으면서도 빠지기 쉬운 '숫자의 오류' 권태오 장군의 영점사격 푸틴 핵버튼 누르나? 30만 동원령 배경은... 푸틴 핵버튼 누르나? 30만 동원령 배경은... 이영종의 '우리가 몰랐던 북한' '도끼로 까라'는 고려항공, 국제노선 다시 날아오를까... '도끼로 까라'는 고려항공, 국제노선 다시 날아오를까... 4차산업혁명시대, 中 유니콘 기업 대해부 디핑셴지치런(地平線機器人) 스마트 모빌리티 AI 분야의 최고봉, 오히려 투자자들이 안달 디핑셴지치런(地平線機器人) 스마트 모빌리티 AI 분야의 최고봉, 오히려 투자자들이 안달 이강락의 경영컨설팅 '길이 보인다' 노력은 운도 만들어 낸다. 노력은 운도 만들어 낸다. 차이나는 차이나스토리 中 경제 불황에 청년 실업 극심, 좌판과 배달 라이더도 마다않아... 中 경제 불황에 청년 실업 극심, 좌판과 배달 라이더도 마다않아... 신동권의 공정거래 바로보기 불공정거래행위에는 국경이 없다? 불공정거래행위에는 국경이 없다? 김형근의科技누설 ‘무기 장사꾼’이 제정한 노벨상… 노벨 평화상이 노벨 과학상보다 소중하다 ‘무기 장사꾼’이 제정한 노벨상… 노벨 평화상이 노벨 과학상보다 소중하다 과학으로 해부해보는 男子 女子 멸종 위기 동물, 보존 노력이 최선의 길인가? …이미 야생 생존능력 잃어, 포기해야 멸종 위기 동물, 보존 노력이 최선의 길인가? …이미 야생 생존능력 잃어, 포기해야 이철형의와인인문학 재미 있는 와인과 건강 이야기(9) 재미 있는 와인과 건강 이야기(9) 1[척척박사 이윤진의 세상 살리는 수다] 양자역학이 코카콜라 병에 주는 희망 2“ERP 8종 동시 준비”…에듀윌, ERP정보관리사 자격증 전문 과정 ‘한방패스’ 3빗장 풀린 해외여행...11일부터 무비자 일본여행 4늘어나는 '전세사기'...내 돈 내 보금자리 지키려면? 5삼성바이오 송도4공장 11일 부분 가동 돌입…글로벌 바이오 기업으로 '우뚝' 6[4차산업혁명시대 중국유니콘기업 대해부(95)] 디핑셴지치런(地平線機器人) 스마트 모빌리티 AI 분야의 최고봉, 오히려 투자자들이 안달 7현대모비스 'COMFI'로 미래차 시장에 도전장 8노벨경제학상, 전 연준 의장 버냉키 등 美경제학자 3인 9DB하이텍·풍산 물적분할 ‘좌초’...소액주주가 달라졌다 10한화건설 이라크서 철수, 부실뇌관 '비스야마 신도시 건설' 접는다 SPONSOR 회사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 종로구 새문안로3길 12 (신문로빌딩) 3층 대표전화 : 02-734-6988 팩스 : 02-733-6988 발행인·편집인 : 박민수 법인명 : 넥스터스미디어 주식회사 제호 : 뉴스퀘스트 등록번호 : 서울 아 02774 | 등록일 : 2012년 09월 18일 발행일 : 2012년 09월 18일 청소년보호책임자 : 김동호 뉴스퀘스트 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스퀘스트. All rights reserved. mail to master@newsquest.co.kr 위로</t>
+  </si>
+  <si>
+    <t>‘정낭품은 하르방’ 등 제주도 관광기념품 공모전 금상 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 ‘정낭품은 하르방’ 등 제주도 관광기념품 공모전 금상 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 ‘정낭품은 하르방’ 등 제주도 관광기념품 공모전 금상 김지우 기자 승인 2020.08.25 15:37 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제23회 제주도 관광기념품 공모전 금상 수상작 ‘정낭품은 하르방’(왼쪽)과 ‘제주컬러링북 시리즈’ 제주도 관광기념품 공모전에서 ‘정낭품은 하르방’과 ‘제주컬러링북 시리즈’가 금상을 차지했다. 제주특별자치도와 제주특별자치도관광협회는 ‘제23회 제주특별자치도 관광기념품 공모전’ 당선작 18점을 최종 선정했다고 25일 밝혔다. 당선작은 관광 및 기념품 업계, 도외 전문가 등으로 구성된 심사위원회가 지난 6월 16일부터 지난달 10일까지 공모를 통해 접수된 145개 작품을 대상으로 상품성·디자인·창의성·실용성 등을 종합 평가해 선정했다. 이번 공모전의 금상은 유천규씨의 ‘정낭품은 하르방’과 이준천(드림스카이)씨의 ‘제주컬러링북 시리즈’가 차지했다. ‘정낭품은 하르방’은 현무암 돌담과 정낭의 모습을 이미지화해 양초 홀더로 사용할 수 있는 장식품으로, 제주의 전통성을 제대로 표현해 높은 점수를 받았다. ‘제주컬러링북 시리즈’는 바다·숲·사람·길 등 4개의 스토리와 지역별 테마를 살린 5권의 코스북으로 여행 기간 일정 수립 및 여행기 작성과 컬러링을 동시에 할 수 있어 매력적이고 실용적이라는 평가를 받았다. 은상에는 ‘제주감귤드립커피’(박혜진, 제주바솔트)와 ‘COSMO-VASE 시리즈’(김경찬, 제주점토도예연구소), ‘해녀캐릭터 비바리 안심알리미’(오재권, 크리어아트디자인) 등 3개 작품이 선정됐다. 이 밖에 동상 4개, 장려상 4개, 입선 5개 작품이 수상의 영예를 안았다. 특히 이번 관광기념품 공모전은 처음으로 일반인 심사를 도입해 당선작 선정에 도민 대표성을 확보했다. 시상식은 다음 달 중 열릴 예정이다. 김재웅 제주도 관광국장은 “제주관광기념품홍보관을 중심으로 우수작에 대한 홍보를 지원하고 판로를 확대하는 등 제주를 대표하는 관광기념품으로 육성하기 위해 노력하겠다”고 말했다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>"숙박업 과잉공급" 제주도, 관광숙박업 신규 설립 제한키로 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 "숙박업 과잉공급" 제주도, 관광숙박업 신규 설립 제한키로 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 "숙박업 과잉공급" 제주도, 관광숙박업 신규 설립 제한키로 송고시간2020-08-13 16:34 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 (제주=연합뉴스) 변지철 기자 = 제주도는 일반거주지역에 관광숙박업소를 제한할 계획이다. 새섬 상공에서 본 서귀포 (서귀포=연합뉴스) 제주 서귀포시 새섬 상공에서 바라본 서귀포시 전경. [연합뉴스 자료사진] 제주도는 숙박업 과잉공급을 억제하는 내용을 담은 '제주도 관광진흥조례 일부 개정 조례안'을 입법 예고하고, 오는 9월 1일까지 의견을 받는다고 13일 밝혔다. 도는 숙박시설이 과잉 공급돼 공급을 억제하는 것이 바람직하다고 판단하고, 조례 개정을 통해 일반주거지역에 관광숙박업 신규 설립을 제한할 방침이다. 광고 또 현행 도시계획 조례상 자연녹지지역 내 관광숙박업 개발면적을 도시계획위원회의 심의 후 3만㎡까지 가능하던 것을 1만㎡ 이내로 제한하기로 했다. 제주지역의 숙박업은 관광객의 급증과 각종 개발사업 호조 등으로 2013년 이후 급격한 성장세를 보였으나 최근 객실 과잉공급 등의 문제가 나타나고 있다. 한국은행 제주본부가 분석한 '제주지역 숙박업 리스크 요인 점검' 보고서를 보면, 2018년 말 기준 도내 숙박업체의 보유 객실은 7만1천822개에 이르지만 도내 체류 관광객 수를 고려한 필요 객실 수는 4만6천실로 추정돼 2만6천실 가까이가 과잉공급된 상태다. 도는 입법예고 기간 의견을 수렴하고 제주도 조례규칙심의회 심의를 거쳐 최종 개정안을 확정한 뒤 10월 중 도의회에 제출할 예정이다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2020/08/13 16:34 송고 #제주도 #숙박업 #과잉공급 #관광숙박업 #제한 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 35 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>“객실 너무 많다” 제주도 관광숙박업 제한-국민일보 시사 시사 &gt; 전체기사 “객실 너무 많다” 제주도 관광숙박업 제한 일반주거지역 신규 불허, 면적 축소 등 관련 조례 개정 입력 : 2020-08-12 16:53/수정 : 2020-08-12 16:55 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 황금연휴가 시작된 지난 4월 30일 오전 제주국제공항 1층 국내선 도착장이 관광객들의 발길로 붐비고 있다. 뉴시스제주도가 도내 객실 과잉공급 문제를 해소하기 위해 관광숙박업 신규 설립을 제한하고 자연녹지지역 내 개발 가능 면적을 대폭 축소하기로 했다.제주도는 이 같은 내용을 담은 제주도 관광진흥조례 일부개정 조례안을 12일 입법예고했다고 이날 밝혔다.주요 개정내용을 보면 숙박시설 공급을 억제하기 위해 일반 주거지역에서의 관광숙박업 신규 설립을 제한한다.그동안 모텔 여관 펜션 등을 포함하는 일반숙박업은 상업지역과 계획관리지역에서만 개발이 가능했지만 호텔과 휴양콘도미니엄 등 관광숙박업은 일반주거지역에서도 영업이 가능했다.이와함께 조례 개정안은 제주도 도시계획조례 상 자연녹지지역 내 개발 가능 부지 면적을 현행 3만㎡에서 1만㎡으로 축소하는 규정을 담고 있다.제주지역 숙박시설은 2014년 4만2007실에서 지난 6월 7만3601실로 3만1594실이나 증가했다. 1일 평균 제주 체류 관광객을 18만명 내외로 볼 때 적정 객실 수를 훨씬 웃돌고 있다. 한국은행 제주본부는 4만6000실을 제주지역 적정 객실 수로 분석했다.이처럼 숙박업소 과잉 공급으로 출혈경쟁이 심해지면서 숙박업 허가를 제한해야 한다는 목소리가 잇따랐다.특히 호텔업과 휴양콘도미니엄업을 포함하는 관광숙박업은 올해 6월 기준 3만2559실로, 제주지역 전체 숙박시설 객실 수의 절반을 차지하고 있다.제주도는 이번 조례 개정이 객실 과잉공급 속도를 늦추는 데 효과를 낼 것으로 기대하고 있다.도는 입법예고기간 동안 의견을 수렴하고 제주도조례규칙심의회 심의를 거쳐 최종 개정안을 확정해 10월 중 도의회에 제출할 예정이다.제주=문정임 기자 moon1125@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 ‘naver.pay’ 주소, 속았다…8천만원 사기친 피싱사이트 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 스페인에선 주전… 94분 뛴 이강인, 팀내 최고평점 부하 직원 엉덩이 때렸는데 정직 1개월…‘솜방망이’ 논란 김영환 지사 “현금복지 후퇴 없다…양해구한다” 한화 창립 70주년, 김승연 회장 “어제를 경계하고 늘 새로워지자” 3년만의 제약 바이오 채용박람회 “프로농구 우승 후보는?” 감독에게 물었더니…SK·KT 막상막하 과학·미래 가치 담았다…UCLG 총회 ‘대전트랙’ 시작 정진석 ‘식민사관’ 발언 논란…유승민 “천박한 발언, 사퇴해야” 경찰 ‘제2의 n번방’ 18명 검거, 3명 구속 잇따르는 경기침체 경고…JP모건 CEO “미·세계 경제에 침체 올 것” 이재호 연수구청장, MZ세대와 소통…역사·문화 공유 최인호 “코레일·SR, 간부급 경조사비 5년간 14억 지급” 대구서 전국동시조합장선거 관련 첫 고발 전주, 후백제∼조선 유산 묶는 ‘왕의 궁원’ 프로젝트 추진 JP모건 CEO “S&amp;P 20% 더 빠질 수 있다” [3분 미국주식]</t>
+  </si>
+  <si>
+    <t>제주도, 마스크 안 쓰면 관광지 출입금지 검토 - 뉴스제주 × 전체기사 사회 전체 사건사고 일반 포토 날씨 뉴스제주초점 기업·인물탐방 행정 전체 제주도청 제주도의회 제주시청 서귀포시청 유관기관 읍면동 정치 전체 선거 정당 국회 의정활동 시민단체 교육 전체 교육청 교육행정 학교소식 경제 전체 제주도 제주시 서귀포시 도외 일반 문화 전체 제주도 제주시 서귀포시 도외 일반 관광 전체 제주도 제주시 서귀포시 도외 일반 동정 전체 도청 도의회 제주시 서귀포시 기타 연예 스포츠 동영상 오피니언 전체 기자수첩 칼럼 기고 시민기자 미디어부 뉴스제주TV 뉴스제주 시작페이지로 즐겨찾기 추가 한국어 영어 일본어 중국어 처음으로 로그인 회원가입 모바일웹 전체 사회 사건사고 포토 날씨 뉴스제주초점 기업·인물탐방 행정 제주도청 제주도의회 제주시청 서귀포시청 유관기관 사업소 읍면동 정치 선거 정당 국회 교육 교육청 교육행정 학교소식 경제 제주도 제주시 서귀포시 도외 문화 제주도 제주시 서귀포시 도외 스포츠 오피니언 기자수첩 칼럼 기고 시민기자 관광 제주도 제주시 서귀포시 도외 일반 동정 도청 도의회 제주시 서귀포시 기타 후원안내 날씨 기사검색 검색 최종편집 : 2022-10-11 14:50 (화) 이전 다음 제주도, 마스크 안 쓰면 관광지 출입금지 검토 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 행정 제주도, 마스크 안 쓰면 관광지 출입금지 검토 김명현 기자 승인 2020.08.16 15:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 텔레그램 URL복사 × 제주자치도, 사회적 거리두기 1단계 유지 원희룡 지사, 서울 수도권에서 2단계로 격상하자 대책회의 주재 ▲ 수도권 지역에서의 사회적 거리두기 2단계 상향 조치에 따라 원희룡 제주도지사가 16일 대책회의를 주재했다. ©Newsjeju 서울과 경기도 등 수도권 지역에서 코로나19 대응 사회적 거리두기를 2단계로 격상하자, 원희룡 제주특별자치도지사는 16일 대책회의를 열어 휴가철 철통 방역을 당부했다. 원희룡 제주도지사는 일단 제주에선 사회적 거리두기 1단계 현 상황을 유지하되 공·항만과 다중이용시설, 관광지에 대한 방역을 더욱 강화하라고 지시했다. 또한 오는 21일에 있을 하반기 정기인사와 관련해 코로나19 방역에 빈틈이 없도록 철저한 인수인계도 강조했다. 원희룡 지사는 "그동안 제주에선 방역수칙이 철저히 지켜져 1단계의 사회적 거리두기가 유지되고 있다"며 "휴가철을 맞아 수도권의 많은 사람들이 제주를 방문할 것으로 예상됨에 따라 마스크 착용 권고를 더욱 강화하라"고 주문했다. 이어 원 지사는 "최근 여론을 보면 마스크 미 착용에 대한 민원이 많아지고 있다"며 "관리 감독이 가능한 범위 내에서 인력을 투입해 다중이용시설과 관광지 등에서 마스크를 쓰지 않으면 출입을 금지시키는 행정명령 발동도 검토할 필요가 있다"고 말했다. 이에 따라 제주도정은 담당부서별로 공·항만과 관광객이 자주 찾는 관광지, 해수욕장, 재래시장 등을 중심으로 집중관리계획을 수립해 시행할 방침이다. 이와 함께 다중이용시설에 대한 방역수칙 준수사항을 점검하고 방역수칙 의무화 대상시설을 추가 지정하는 한편, 고위험시설 대상 전자출입명부 관리 강화 등을 통해 방역조치 미이행 업소에 대한 행정명령을 시행한다. 한편, 서울과 경기도는 수도권 지역에서 매일 40명 이상의 코로나19 확진자가 발생하고 있어 사회적 거리두기를 2단계로 상향 조정했다. 1단계에선 방역수칙을 준수하면서 일상적인 경제활동을 허용하나, 2단계로 격상되면 불요불급한 외출이나 모임 및 다중이용시설 이용을 자제토록 권고한다. 이에 따라 집합이나 모임 등의 행사는 실내 50인, 실외 100인 이상 모일 수 없으며, 스포츠 행사도 무관중으로 치러야 한다. 공공시설과 그 밖의 고위험시설로 분류된 곳도 운영이 중단된다. 이보다 더 강한 조치인 3단계에 이르면 필수적인 사회경제활동을 제외한 모든 활동이 원칙적으로 금지된다. 10인 이상의 모임도 열 수 없다. 첨부파일 : 사회적 거리두기 단계별 조치.hwp Tag #원희룡지사 #코로나19 #사회적거리두기 #2단계 #마스크 #관광지 #출입금지 저작권자 © 뉴스제주 무단전재 및 재배포 금지 김명현 기자 다른기사 보기 관련기사 김포시 코로나 확진자 제주여행 동선 공개 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 자동등록방지 내용 0 / 400 등록 댓글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 많이 본 뉴스 뉴스 댓글 1[강병삼 시장 축사] 뉴스제주 창간 16주년 2[김광수 교육감 축사] 뉴스제주 창간 16주년 3[오영훈 지사 축사] 뉴스제주 창간 16주년 4[김한규 의원 축사] 뉴스제주 창간 16주년 5[이종우 시장 축사] 뉴스제주 창간 16주년 1수상자 본인 입니다. 확인 되지 않은 사실을 기반으로 허유사실을 공론화하지 않으시길 바랍니다. 2나 조만간 자살 할 것 같아 3ㅎ ㅎ ㅎ 4비슷비슷헌 사름덜 보염싱게~ 자기들부터 깨끗허게 살주게 5원희룡... 최신기사 용담1동지역사회보장협의체·용담1동 동행동락 행사 추진 용담1동지역사회보장협의체·용담1동 동행동락 행사 추진 조천읍장, 지방세 체납액 징수 철저 당부 조천읍장, 지방세 체납액 징수 철저 당부 구좌읍 민속보존회, 제61회 탐라문화제 민속예술부문 우수상 수상 구좌읍 민속보존회, 제61회 탐라문화제 민속예술부문 우수상 수상 삼양동 새마을지도자, 원당봉 산책로 환경정비 실시 삼양동 새마을지도자, 원당봉 산책로 환경정비 실시 용담1동민속보존회, 제61회 탐라문화제 출연 용담1동민속보존회, 제61회 탐라문화제 출연 아라동 민속보존회, 제61회 탐라문화제 탐라퍼포먼스 및 퍼레이드 경연 참가 아라동 민속보존회, 제61회 탐라문화제 탐라퍼포먼스 및 퍼레이드 경연 참가 제주에 투자한 기업들은 어떻게 성공했을까 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 첨단로8길 34, 1층 대표전화 : 064-747-1188 팩스 : 064-745-4569 청소년보호책임자 : 남우엽 제호 : 뉴스제주 등록번호 : 제주 아 01007 등록일 : 2006-10-09 발행인 : 남우엽 편집인 : 남우엽 뉴스제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스제주. All rights reserved. mail to newsjeju@hanmail.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광 회복세…개별여행 대세·전세버스 ‘최악’ - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 관광 회복세…개별여행 대세·전세버스 ‘최악’ 파이낸셜뉴스입력 2020.08.10 15:26수정 2020.08.10 15:26 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주관광공사, 관광객 신용카드 소비지출 분석…업종 간 희비 뚜렷 제주관광공사가 올 여름 휴가철을 맞아 판매하고 있는 '제주마을로 떠나는 힐링여행, 제주 로캉스' 홍보 포스터. [제주=좌승훈 기자] 코로나19로 크게 위축됐던 제주지역 관광업계가 여름 휴가철에 힘입어 회복세를 보이고 있다. 관광행태도 종전과 크게 달라졌다. 단체관광보다 개별관광 행태로 바뀌면서, 특급호텔·렌터카부문은 예년 수준으로 회복되고 있는 반면, 전세버스 부문은 개점휴업 상태로 업종 간 희비가 크게 엇갈리고 있다. 제주도와 제주관광공사는 10일 신용카드 매출자료 데이터를 분석한 '코로나19에 따른 '2020년 상반기 제주관광 소비 영향 분석' 결과를 발표한 가운데, 제주관광 소비 지출액이 지난 4월 최저점을 찍은 이후 지속적으로 회복하는 것으로 조사됐다. 전년 동기 대비 올해 소비지출 증감액은 지난 1월 355억원(7％), 2월 -654억원(-14％), 3월 -1천60억원(-21％), 4월 -1천266억원(-24％)을 기록했다. 하지만 부처님오신날부터 노동절·어린이날로 이어지는 황금연휴 이후 회복세로 돌아서 5월 -602억원(-11％)에 이어 6월 -495억원(-9％) 수준까지 올라왔다. 관광객 소비금액도 4월의 경우 전년 동기에 비해 46%나 하락한 뒤, 5월부터 상승세로 전환돼 6월에는 -16% 수준까지 회복됐다. 이 가운데 내국인 관광객 소비금액은 4월 -39%에서 6월 -5%까지 올라왔다. 하지만 외국인 관광객은 무비자 제도 중단과 함께 국제선 운항도 끊기면서 4월 -90%를 기록한 뒤 6월 역시 -81%로 침체의 늪에서 빠져 나오지 못하고 있다. 업종별로도 상반된 결과를 드러냈다. 특급호텔 매출액은 코로나19 사태가 시작된 지난 2월은 전년 동기 대비 -50％까지 감소했지만, 5월은 전년 수준을 회복했다. 렌터카도 2월에 전년 동기 대비 -50％까지 감소한 후 회복세로 돌아서 6월은 -12％까지 올라왔다. 반면 전세버스와 관광여행사의 상황은 심각하다. 특히 단체관광을 받는 전세버스는 최악이다. 3∼4월 매출액이 전년 동기 대비 -100％까지 하락한 데 이어, 6월에도 -64％ 수준에 머무르고 있다. 관광여행사는 코로나19 발생 전인 1월 매출이 전년 동기 대비 120％ 수준이었지만, 이후 6월까지 -50％ 이상 감소폭을 이어가고 있다. 문성환 공사 관광산업처장은 “특급호텔·렌터카의 매출 회복세와 전세버스·관광여행사의 매출 급감은 코로나19 영향이 커 제주관광 행태가 단체관광에서 개별관광으로 완전히 전환되는 체질 변화를 단적으로 보여주고 있다”면서 “이는 향후 마케팅 전략 수립과 추진에도 적극 반영해 나갈 것”이라고 밝혔다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 전세버스 3∼4월 매출액 0원… 단체관광이 사라졌다-국민일보 시사 시사 &gt; 전체기사 제주도 전세버스 3∼4월 매출액 0원… 단체관광이 사라졌다 코로나 영향 개별관광으로 전환… 여행사 매출 줄고 렌터카는 회복 입력 : 2020-08-11 04:05 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주 서귀포시 안덕면의 한 해바라기밭을 찾은 관광객들이 여름 정취를 만끽하고 있다. 연합뉴스제주 단체관광이 사라졌다. 여름 휴가철임에도 제주도에선 관광버스를 찾아보기 힘들다.제주도와 제주관광공사가 10일 발표한 ‘신종 코로나바이러스감염증(코로나19)에 따른 2020년 상반기 제주관광 소비 영향 분석’ 자료를 살펴보면 관광업계 상황은 업종별로 상반된 결과를 보였다.전세버스는 3·4월 전년 동기대비 -100%까지 하락한 후 6월에도 -64% 수준을 회복하는 데 그쳤다. 수학여행 수요가 있던 지난해의 경우 제주지역 전세버스 매출액이 3~4월 4억4100만원이었으나 올해 같은 기간에는 0원이었다.관광여행사는 코로나19 발생 전인 1월 매출액이 전년 동기의 -120%에서 시작해 6월까지 -50%인 상황이다.반면 특급호텔 매출액은 지난 2월 작년 동기대비 -50%까지 감소했으나 5월부터 전년 수준을 회복했다. 렌터카 업계도 2월에 전년 동기대비 -50% 수준으로 감소한 이후 회복세를 타 6월에는 -12% 수준까지 올라섰다.관광객이 제주여행에서 소비한 금액은 지난 4월 전년 동기대비 -46%까지 하락한 후 5월부터 상승세로 전환해 6월에는 -16% 수준까지 회복했다. 내국인 관광객 소비액은 지난 4월 작년 같은 기간 대비 -39%까지 감소한 후 6월에는 -5% 수준까지 회복한 것으로 나타났다.외국인 관광객은 무비자 제도 중단, 전세계로의 해외여행 규제 등 영향으로 4월 전년 동기대비 -90%를 기록한 이후 회복 기미를 보이지 않고 있다.전세버스·관광여행사의 매출 급감과 특급호텔·렌터카의 상반된 매출 회복세는 코로나19 이후 제주 관광형태가 단체관광에서 개별관광으로 전환돼 가고 있음을 의미한다.제주관광공사 관계자는 “제주올레 붐이 일어난 2010년 전후로 제주여행 형태는 개별관광 형태로 굳어져왔다”며 “코로나19가 단체관광 흐름을 사실상 끊어놓았다”고 설명했다.이어 “가고 싶은 곳을 찾아가는 개별관광은 소비 지출을 도 전체로 확산시키는 장점이 있다”며 “관광공사와 도는 개별관광 지원 정책과 단체관광업계 피해 최소화 방안을 함께 고민해야 할 시점”이라고 말했다.제주=문정임 기자 moon1125@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 ‘naver.pay’ 주소, 속았다…8천만원 사기친 피싱사이트 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 스페인에선 주전… 94분 뛴 이강인, 팀내 최고평점 부하 직원 엉덩이 때렸는데 정직 1개월…‘솜방망이’ 논란 김영환 지사 “현금복지 후퇴 없다…양해구한다” 한화 창립 70주년, 김승연 회장 “어제를 경계하고 늘 새로워지자” 3년만의 제약 바이오 채용박람회 “프로농구 우승 후보는?” 감독에게 물었더니…SK·KT 막상막하 과학·미래 가치 담았다…UCLG 총회 ‘대전트랙’ 시작 정진석 ‘식민사관’ 발언 논란…유승민 “천박한 발언, 사퇴해야” 경찰 ‘제2의 n번방’ 18명 검거, 3명 구속 잇따르는 경기침체 경고…JP모건 CEO “미·세계 경제에 침체 올 것” 이재호 연수구청장, MZ세대와 소통…역사·문화 공유 최인호 “코레일·SR, 간부급 경조사비 5년간 14억 지급” 대구서 전국동시조합장선거 관련 첫 고발 전주, 후백제∼조선 유산 묶는 ‘왕의 궁원’ 프로젝트 추진 JP모건 CEO “S&amp;P 20% 더 빠질 수 있다” [3분 미국주식]</t>
+  </si>
+  <si>
+    <t>롯데관광개발, 제주도 카지노산업 영향평가 심의서 적합 판정 검색 2022-10-11 화요일 홈 경제 경제일반 산업 자동차/항공 조선/철강 화학/에너지 제약/바이오 중기 금융 증권 IT 전자 게임 유통 부동산 칼럼 정치 사회 연예 최신 영화 연예 스포츠 스포츠종합 축구 야구 농구 골프 여행 문화 기업PR 롯데관광개발, 제주도 카지노산업 영향평가 심의서 적합 판정 2020-08-14 15:09:09 | 유진의 기자 | joy0536@naver.com 페이스북 트위터 카카오톡 프린트 가 + 가 - 제주 드림타워 복합리조트 카지노 이전 작업 청신호 ▲ 제주 드림타워 복합리조트 전경./사진=롯데관광개발 [미디어펜=유진의 기자]롯데관광개발이 개장을 준비하고 있는 제주 드림타워 복합리조트의 외국인 카지노 이전 작업에 청신호가 켜졌다.14일 제주도와 롯데관광개발에 따르면 전날(13일) 진행된 제주도 카지노산업 영향평가 심의위원회의의 심의 결과 롯데관광개발의 카지노 이전 신청에 대해 적합 판정이 나왔다.카지노산업 영향평가는 카지노 소재지를 2배 이상 확장 이전할 경우 심의를 받아야 한다는 지난해 12월 조례 개정안에 따라 국내에서는 처음으로 실시됐다.롯데관광개발은 서귀포시 중문관광단지 내 롯데호텔제주에서 운영 중인 카지노를 드림타워로 확장(1,176㎡→ 5367㎡) 이전하기 위해 지난달 28일 카지노 산업 영향 평가서를 제주도에 제출한 바 있다.이번 심의 결과 참석 위원 15명 중 적합 판정(800점 이상)한 위원은 14명, 조건부 적합 판정(600~800점 미만)한 위원은 1명으로 위원 전체 평균 점수는 800점 이상이다. 평가는 지역사회 영향(500점), 지역사회 기여도(300점), 도민의견수렴(200점) 등 3개 분야 18개 항목으로 1000점 만점으로 구성됐다.롯데관광개발 관계자는 “심의위원들이 지역 경기가 침체된 상황에서 일자리 창출과 외국인 관광객 유치 등 제주 드림타워 복합리조트가 가져다 줄 경제적 효과에 후한 점수를 준 것 같다”고 말했다.   롯데관광개발은 이번 평가서에서 3100명의 신규 일자리 창출은 물론 향후 5년간 연평균 537억원의 제주관광진흥기금과 연간 140만명의 외국인 관광객 유치 등 지역경제 활성화에 기여하는 것은 물론 지역상생 등을 위해 120억원에 이르는 제주발전기금을 기부하겠다고 설명했다.이번 심의에서 적합 판정을 받음에 따라 제주 드림타워 복합리조트의 카지노 이전 작업은 한층 탄력을 받을 것으로 전망된다. 제주도는 롯데관광개발이 카지노 이전 허가 신청서를 제출할 경우 이번 심의 결과를 바탕으로 도의회 의견 청취 및 카지노업 감독위원회 의견 등을 종합적으로 검토해 허가 여부를 결정하게 된다.제주 드림타워 복합리조트는 현재 공정율 99.9%로 롯데관광개발은 빠르면 이번 달 준공허가를 받고 이후 호텔 등급 결정이 이루어지는대로 카지노 이전 허가 신청서를 제출할 예정이다.   제주 드림타워 복합리조트는 38층, 169m 높이로 제주에서 가장 높은 롯데시티호텔(89m)보다 2배 가량 높으며, 연면적은 여의도 63빌딩의 1.8배인 30만3737㎡로 제주도 최대 규모다. 세계적 프리미엄 호텔 브랜드인 하얏트그룹이 전체 1,600 올스위트 객실 및 14개 레스토랑, 8층 풀데크, 38층 전망대, 호텔부대시설 등을 그랜드 하얏트 제주(GRAND HYATT JEJU) 브랜드로 운영할 예정이다.[미디어펜=유진의 기자] ▶다른기사보기 &lt;저작권자 © 미디어펜 무단전재 및 재배포금지&gt; 회사소개 연혁 광고·제휴문의 청소년보호정책 이메일무단수집거부 인터넷신문 ( 윤리강령 | 심의규정 ) 서울특별시 종로구 새문안로3길 30 세종로대우빌딩 복합동 508호 전화번호 : 02)6241-7700 팩스 : 02)6241-7708 정기간행물ㆍ등록번호 : 서울 아 00574 등록일.발행일 2008.5.8 발행인 : 이의춘 편집인·편집국장 : 김태균 청소년보호책임자:김사성 Copyright © 2013 미디어펜. All rights reserved.</t>
+  </si>
+  <si>
+    <t>해외여행 막힌 광복절 연휴…관광객 21만명 제주도 간다 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 해외여행 막힌 광복절 연휴…관광객 21만명 제주도 간다 파이낸셜뉴스입력 2020.08.13 21:32수정 2020.08.13 23:27 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 13~17일 1일 평균 4만2600명 수준…코로나19 방역 비상5월 황금연휴보다 52%↑…특급호텔·골프장·렌터카 ‘호황’ '' 코로나19 감염 차단 마스크를 쓴 제주 돌하르방. [제주=좌승훈 기자] 올해 여름은 코로나19로 해외여행이 어려워지자, 국내여행이 대세가 됐다. 특히 제주도를 찾는 관광객은 이번 광복절 연휴 기간에 절정을 이룰 것으로 예상된다. 제주도관광협회(회장 부동석)는 정부가 코로나19에 따른 내수 진작을 위해 오는 17일을 임시 공휴일로 정한 가운데, 13일부터 17일까지 5일 동안 관광객 21만3000명이 제주도를 찾을 것으로 내다봤다. 이는 하루 평균 4만2600명 수준이다. 지난 4월30일 부처님 오신 날부터 5월1일 근로자의 날, 5월5일 어린이날로 이어지는 연휴 기간에 하루 평균 2만8000명이 제주를 찾았던 것과 비교하면, 52%나 증가한 것이다. 더욱이 현재 남아 있는 항공권까지 감안하면, 이 기간 동안 제주를 찾는 관광객은 더 늘어날 것으로 보인다. 물론 지난해 같은 기간 제주를 찾았던 23만3889명보다는 다소 적은 수치다. 이는 코로나19 확산을 막기 위해 제주 무사증(무비자) 제도가 중단된 데다, 해외 항공편이 끊기면서 외국인 관광객이 크게 줄었기 때문이다. 광복절 연휴기간 동안 내국인 관광객이 크게 늘면서, 도내 특급호텔과 골프장·렌터카 업종은 특수를 누리고 있다. 특급호텔은 현재 평일과 주말 상관없이 대부분 80％ 이상의 예약률을 보이고 있다. 호텔 측은 방역과 안전을 고려해 예약률을 80％ 수준에 맞춰 조절하고 있다. 골퍼들도 해외 여행길이 막히자 제주도로 발길을 돌리고 있다. 경기 도우미가 부족해 예약을 받지 못할 정도로 호황을 누리고 있다. 렌터카 업계도 연휴 기간 90% 이상의 예약률을 보이고 있다. 연휴 특수에 큰 기대를 건 관광업계와 달리, 제주도 방역당국은 코로나19 감염 차단을 위해 긴장의 끈을 놓지 않고 있다. 현재 제주공항에서는 30일부터 발열감지 기준을 기존 37.5도에서 37.3도로 낮춰 검역을 진행한다. 공항 내 도보 이동형 선별진료소에서는 기존 해외 입국자뿐만 아니라, 발열 증상자에게도 진단검사를 한다. 주요 관광지에 안내데스크를 설치, 이용자들의 발열 여부를 확인하고 유증상자가 있을 때는 관할 보건소로 통보하기로 했다. 배종면 제주 감염병 관리지원단장은 “코로나19는 현재 진행 중이며, 언제든 다시 유행할 수 있다”며 “지역전파 사례가 발생하지 않도록 조금이라도 이상이 있다면, 선별진료소를 찾아 검사를 받고, 마스크 착용과 손 씻기 등 방역지침을 준수해달라”고 당부했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 관광약자 이동권 확보, 아직 갈 길 멀었다 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광약자 이동권 확보, 아직 갈 길 멀었다 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 피플 장애인인권 이야기 제주도 관광약자 이동권 확보, 아직 갈 길 멀었다 편집팀 iheadline@hanmail.net 승인 2020.08.21 08:55 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × [장애인 인권이야기] 서동원 / 제주관광약자접근성안내센터 서동원 / 제주관광약자접근성안내센터 ⓒ헤드라인제주 모두를 위한 관광의 도시, 제주가 되길 바라며 올해 봄, 접근 가능한 관광지 안내책자를 만들기 위해 제주도 내 숨어있는 관광지들을 직접 발로 뛰어다니며 모니터링을 진행하였다. 노란색 유채꽃이 만발한 제주도의 봄은 말로 표현할 수 없을 정도로 아름다웠다. 하지만 올해 초는 코로나19로 인해 관광객의 수가 크게 줄었었고 관광업계도 침체되어 있던 시기였다. 제주 지역사회를 불안하게 하는 코로나19가 하루 빨리 종식되고 관광약자들을 포함한 모든 관광객이 편안하게 제주에 방문하기를 염원하면서 모니터링을 진행하였다. 나로서는 처음 접하는 모니터링이어서 심혈을 기울여 진행했다. 하지만 유채꽃밭의 경우, 우리가 모니터링을 다녀온 지 며칠 뒤, 코로나로 인해 유채꽃밭 자체를 파쇄하는 안타까운 일이 있었다. 이처럼 코로나19는 제주도 내 관광 산업에 큰 영향을 미치게 되었다. 제주특별자치도관광협회의 관광객 입도 현황을 확인하면 2019년 1월부터 5월까지 외국인을 포함한 누적 관광객 수는 6,028,386명이었지만 2020년 1월부터 5월까지의 관광객 수는 3,669,972명으로 38% 정도 줄었다. 하지만 본격적 여름 휴가시즌이 시작된 7월에 들어서 제주도를 찾는 관광객이 1일 3만명대를 기록하면서 예년 90% 수준을 회복한 것으로 나타났다. 올 여름 해외여행 수요가 제주로 집중되면서 입도하는 관광객의 수가 증가했기 때문이다. 코로나 19 위기상황이 심각단계로 격상된 2월 이후 5개월만이다. 그렇다면 현재 제주는 관광약자들의 이동권을 확보한 환경을 구축해 놓았는가? 아직은 갈길이 멀었다. 모니터링을 하던 중 겪었던 한가지 일화를 소개하고자 한다. 한번은 제주에서 가장 많은 관광객들이 찾는 관광지 중 한곳인 성산일출봉으로 가게 되었다. 독특한 암반으로 유명한 광치기해변에서 모니터링 진행 후 점심시간이 되자 식당이 밀집되어 있는 곳으로 이동하였다. 음식점의 경우 장애인 관광 또는 무장애 관광을 위해 물리적 편의성이 절실하다. 따라서 휠체어 장애인들이 진입할 수 있도록 출입문에 경사로가 설치되어 있거나 단차가 없는 곳을 찾는다. 하지만 차로 한바퀴를 쭉 돌아봐도 이에 적합한 음식점은 단 한군데도 찾을 수 없었다. 다시 한바퀴를 돌면서 자세히 보기로 했다. 거의 모든 음식점의 출입문에 계단이 있어 휠체어 장애인이 진입하기 힘든 구조로 되어 있었다. 또 다시 한바퀴를 돌고나서야 단차가 있으나 경사로가 설치되어 어렵게나마 진입이 가능한 음식점 한 곳을 찾게 되었다. 음식점을 찾는데 많은 시간을 허비하여 재빨리 음식을 시키고 먹기에 급급했다. 어느 정도 배를 채우고 음식점 모니터링을 완료한 이후 복귀하면서 착잡한 마음과 분노가 동시에 일었다. 관광약자는 가고 싶은 음식점을 마음껏 결정할 수도 없고, 먹고 싶은 음식, 그중에서도 맛있는 음식을 선택할 수도 없다. 나의 부모님이, 형제가, 자녀가 장애인이라면 지금과 같은 환경을 그대로 둘 것인가? 비장애인 또한 언제든 장애인이 될 수 있다. 우리 사회는 장애인 90% 이상이 사고와 질병 등 후천적 요인에 의한 장애를 갖고 있다는 통계를 간과해서는 안된다. 음식점에 대한 선택권과 결정권 없이 단순히 접근 가능한 음식점을 찾아서 배만 채워야하는 이 현실에 안타까움과 실망감만 들었다. 이뿐만이 아니다. 음식점 화장실의 진입로가 매우 좁아 휠체어를 이용하는 장애인은 진입이 아예 불가능한 경우, 진입을 위한 유효폭이 보장된다고 하더라도 내부 단차, 대변기 내부 활동공간이 협소하여 실질적인 이용이 매우 불편한 경우, 접근 가능한 테이블, 장애인 주차장, 엘리베이터 등의 편의시설이 설치되어 있지 않은 경우도 많다. 음식점 뿐만 아니라 관광지, 숙박시설 등 모든 시설에는 관광약자의 이용을 위한 편의시설을 법적 기준에 맞추어 설치하는 등 편리한 관광을 위한 환경이 제공되어야 한다. 연령과 성별, 국적(언어), 장애의 유무 등, 개인의 능력과 개성의 차이와 관계없이 처음부터 누구에게나 공평한 기회가 주어지도록, 동등한 위치에서 사용할 수 있도록 편리한 환경을 구현해야 한다. 이것이 바로 유니버설 디자인이며 제주는 무장애관광에서 한단계 더 나아가 유니버설 디자인 관광(universal design tourism)으로 전환해야 한다. 관광약자를 위한 안내책자를 발간하거나 관광지, 음식점, 숙박지 등의 정보를 여러 경로를 통해 제공하는 것도 중요하다. 하지만 우선 순위는 당장 관광약자들을 포함한 모든 사람들이 사용할 수 있고 갈 수 있으며 맛있게 먹을 수 있는 환경부터 구축하는 것이라고 생각한다. 관광약자의 선택할 권리와 결정할 권리가 침해되지 않아야 한다.  코로나로 인해 지치고 힘든 관광약자의 제주 여행이 실망으로만 가득 차지 않도록 하루빨리 대책을 강구하고 개선해나가는 노력이 필요하다. &lt;서동원 / 제주관광약자접근성안내센터&gt; *이 글은 헤드라인제주 편집방향과 다를 수 있습니다. &lt;장애인 인권 이야기는... 우리 사회는 장애인을 단순한 보호 대상으로만 바라보며 장애인의 문제를 대신 해결해 주려고 하고 있다. 하지만 장애인은 치료받아야 할 환자도, 보호받아야 할 어린이도, 그렇다고 우대받아야할 벼슬도 아니다. 장애인은 장애 그 자체보다도 사회적 편견의 희생자이며, 따라서 장애의 문제는 사회적 환경에서 비롯된다고 할 수 있다. (사)제주장애인인권포럼의 &lt;장애인인권 이야기&gt;에서는 장애인당사자의 입장에서 바라보는 세상에 대해 새로운 시선으로 다양하게 풀어나가고자 한다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>"제주도 1등 향토기업"… 약속 지키는 롯데관광개발, 본사 제주 이전 - 머니S 본문영역 바로가기 2022.10.11 | 14:51:51 김태형 감독, 8년 만에 두산 지휘봉 내려놓는다 더보기 김태형 감독, 8년 만에 두산 지휘봉 내려놓는다1분전 온라인서 가장 관심 많은 항공사는 대한항공… 아시아나·제주항공 순3분전 DS 나서는 저지 "올해는 다르다"… 팬들에겐 "소리 질러"7분전 남양주시, 불법 주정차 단속 'CCTV 통합운영 시스템' 구축9분전 [머니S포토] 질의 답변하는 이종국 SR대표이사14분전 최대 캠핑축제 '고아웃 캠프' 가는 포인터웍스 "키즈 브랜드 유일"15분전 [머니S포토] 코레일·SR 등 2022 국회 국토위 국감16분전 광주신세계, 감홍사과 등 '가을 제철과일 모듬전'18분전 [머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장20분전 불법체류자에 신종마약 유통한 태국인 일당 무더기 검거20분전 2022.10.11 기사표출기준 광고안내 독자의견 정기구독 MNB 머니바이크 하이하이 검색오픈 검색 검색 금융 은행 보험 증권섹션 재테크 정책일반 생활금융 증권 마켓 비즈니스 글로벌 재테크 가상화폐 산업 기업일반 IT 블록체인 자동차 항공물류 유통생활 정책일반 게임 의약/바이오 에너지/중공업 건설/부동산 업계일반 부동산시장동향 정책일반 재테크 생활문화 여행 맛집 출판 공연문화 교육,육아 건강 패션뷰티 이슈&amp; 창업현미경 브랜드소식 정책일반 핫이슈/트렌드 인물탐방 쇼핑몰뉴스 창업칼럼 연예 스타 드라마 예능 영화 뮤직 해외 일반 포토 스포츠 야구 해외야구 축구 해외축구 농구 배구 골프 일반 e스포츠&amp;게임 연재 정치/사회 정치 사회 지역 글로벌 인사 부고 전체 "제주도 1등 향토기업"… 약속 지키는 롯데관광개발, 본사 제주 이전 머니S 박정웅 기자|조회수 : 2,459|입력 : 2020.08.03 10:01 기사공유 댓글남기기 폰트크게 폰트작게 프린트 롯데관광개발이 서울 광화문 본사를 제주 드림타워 복합리조트로 이전한다. 사진은 현재 99.9% 공정률을 보이고 있는 제주 드림타워 복합리조트 전경. /사진=롯데관광개발제주 드림타워 복합리조트를 통해 일등 향토기업이 되겠다고 선언한 롯데관광개발이 제주로 본사 이전 작업에 본격 착수했다. 롯데관광개발은 지난달 31일 이사회를 열고 오는 18일을 주주명부 확정 기준일로 정하고 19일부터 25일까지 5영업일간 주주명부를 폐쇄하기로 의결했다고 3일 밝혔다. 이번 결정은 9월 열리는 임시 주주총회에서 정관에 명시된 본사 소재지를 서울 광화문에서 제주로 바꾸기 위한 필수적인 조치다. 롯데관광개발은 다음달 주주총회 이후 법원으로부터 등기이전 등록 절차를 거쳐 본사 이전 작업을 마무리할 계획이다.이번 조치로 롯데관광개발은 50년 광화문시대를 정리하고 제주에서 제2의 시대를 연다. 1971년 설립한 롯데관광개발은 당시 불모지나 다름없던 관광업계에서 최초로 금탑산업훈장을 수상했다. 이후 업계 최초 코스피 상장, 항공 전세기 및 크루즈 전세선 운항 등 종합여행기업으로서 한국 여행사에 굵직한 획을 그었다.김기병 롯데관광개발 회장은 “제주 드림타워 복합리조트를 통해 제주에서 제2의 창업을 한다는 각오로 고급일자리 1등, 세금 1등의 일등 향토기업 약속을 반드시 지키겠다”고 포부를 밝혔다. 롯데관광개발은 총 사업비 1조6000억원에 이르는 제주 드림타워 복합리조트 개발을 위해 실제로 1조원이 넘는 천문학적인 금액을 투자했다. 이는 순수 국내 자본으로 제주도에 투자한 역대 최대 규모다.신규 채용인원은 3100명으로 제주 취업 사상 단일기업으로 가장 많은 수치다. 롯데관광개발은 이 중 80%를 도민으로 우선 채용할 계획이다. 제주 드림타워 복합리조트의 운영을 통해 지역경제 활성화에도 막대한 영향을 미칠 것이라는 기대감도 커지고 있다. 롯데관광개발은 지난 5월 2021년부터 연평균 140만명의 외국인 관광객을 유치해 연간 530억원에 이르는 제주관광진흥기금을 납부하겠다는 청사진을 제시한 바 있다.530억원의 제주관광진흥기금은 지난 5년간 도내 8개 카지노를 모두 합친 액수(연간 평균 납부금 220억원)보다 2.4배 많은 것으로 지방세 납부까지 더해 제주 관광산업에 크게 기여할 것으로 기대된다. 제주 드림타워 복합리조트는 38층 169m 높이로 제주에서 가장 높은 롯데시티호텔(89m)보다 2배가량 높다. 연면적은 여의도 63빌딩의 1.8배인 30만3737㎡로 제주도 최대 규모다. 세계적 프리미엄 호텔 브랜드인 하얏트그룹이 전체 1600개 올스위트 객실, 14개 레스토랑, 8층 풀데크, 38층 전망대, 호텔부대시설 등을 그랜드 하얏트 제주(GRAND HYATT JEJU) 브랜드로 운영할 예정이다.현재 공정률은 99.9%로 준공에 박차를 가하고 있는 롯데관광개발은 지난달 28일 제주도에 카지노산업 영향평가서를 제출했다. 영향평가서에는 지난해 마련된 조례안에 맞춰 지역경제 활성화 및 교육, 주거, 환경 등 각 분야에 걸친 도민사회 기여방안과 함께 120억원에 달하는 제주발전기부금 납부 계획도 담겨져 있다. 제주도가 제시한 16개 설문항목과 조사대상 및 조사방법 등 정해진 매뉴얼에 따라 한국갤럽에 의뢰해 실시한 도민의견수렴 내용도 포함돼 있다. 박정웅 parkjo@mt.co.kr 안녕하세요, 박정웅 기자입니다. 이 기자의 다른기사 보기 &gt; 공유 : 공감 0% 비공감 0% &lt;저작권자 ⓒ ‘성공을 꿈꾸는 사람들의 경제 뉴스’ 머니S, 무단전재 및 재배포 금지&gt; &lt;보도자료 및 기사 제보 (moneys@mt.co.kr)&gt; [단독] 청바지 신화 '뱅뱅' 차남 소유 여주 땅 경매 처분… 낙찰자 봤더니?홍진영, 젖은 머리 셀카 '찰칵'… 자숙 후 달라진 모습큰 아들 횡령 대신 주장한 박수홍 아버지, 계좌 비밀번호도 몰랐다이은형♥강재준, 방송 중 이래도 돼?… '기습 키스'에 방청객 경악'뽀식이' 이용식 아내, 10년 전 고통 토로… "사는게 사는게 아니었다" 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 랭킹뉴스 최신뉴스 추천뉴스 [단독] 청바지 신화 '뱅뱅' 차남 소유 여주 땅 경매 처분… 낙찰자 봤더니?홍진영, 젖은 머리 셀카 '찰칵'… 자숙 후 달라진 모습큰 아들 횡령 대신 주장한 박수홍 아버지, 계좌 비밀번호도 몰랐다이은형♥강재준, 방송 중 이래도 돼?… '기습 키스'에 방청객 경악'뽀식이' 이용식 아내, 10년 전 고통 토로… "사는게 사는게 아니었다"'암투병' 엄앵란, 근황 공개… "관절수술 후 거동 불편해"박시연, '음주운전' 이후 첫 공식석상… 손담비가 남긴 댓글은?무주 생일 모임 일가족 참사… 원인은 일산화탄소 중독?'친중행보 논란' 헨리, 빨갛게 부어 버린 얼굴… 대체 무슨 일?흑인 팬 하이파이브 거부?… '조이♥' 크러쉬 "제스처 오해" 김태형 감독, 8년 만에 두산 지휘봉 내려놓는다온라인서 가장 관심 많은 항공사는 대한항공… 아시아나·제주항공 순DS 나서는 저지 "올해는 다르다"… 팬들에겐 "소리 질러"남양주시, 불법 주정차 단속 'CCTV 통합운영 시스템' 구축[머니S포토] 질의 답변하는 이종국 SR대표이사최대 캠핑축제 '고아웃 캠프' 가는 포인터웍스 "키즈 브랜드 유일"[머니S포토] 코레일·SR 등 2022 국회 국토위 국감광주신세계, 감홍사과 등 '가을 제철과일 모듬전'[머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장불법체류자에 신종마약 유통한 태국인 일당 무더기 검거 '12월 결혼' 티아라 지연♥황재균, 헬스장 데이트 '달달'18세 박유진, 전 재산 3만원인데… 한달 배달료만 80만원?한 살 이하 손주에게 물려준 재산 '1000억'… 1년 새 3배 '쑥'최강희 근황, 시간당 1만원 고깃집 설거지 알바?'13세 나이 차' ♥정준과 결별설… 김유지 근황 보니?박수홍 응급실 실려갈 때… "'폭행' 父는 형수와 식사""하정우 슬퍼하더라"… 차현우♥황보라, 이미 법적 부부?'돌싱글즈3' 이소라, 안면 골절→응급실행… ♥최동환 "회복하자""아이폰을 입에?"… 지드래곤, 어마어마한 플렉스 면모YG "제니 개인사진 최초 유포자 경찰수사 의뢰" 코스피 : 2186.27 46.5714:33 10/11 코스닥 : 669.72 28.7714:33 10/11 원달러 : 1435.00 22.614:33 10/11 두바이유 : 96.51 2.1514:33 10/11 금 : 1675.20 34.114:33 10/11 CEO [CEO 포커스] 송재준 컴투스 대표, 콘텐츠 확장 박차… '서머너즈 워', 누적 매출 3조 머니S리포트 한화, 대우조선 이어 KAI도 품을까 재테크 [법률S토리] 과세특례 활용으로 절세해 볼까 자동차 세계 수소차 시장 정체… 현대차, 시장점유율 60%로 1위 수성 머니S 뉴스스탠드를 구독하세요 [르포] 제약바이오 채용박람회… 인사담당자가 강조한 '이것'은? 연휴 끝난 코스피, 2200선 하회… 삼성전자는 3%대 하락 "간사 간 협의해라"… 감사원 국감, 개의 '8분'만에 파행 이전 다음 이전 다음 이전 다음 이전 다음 SLIDE[머니S포토] 코레일·SR 등 2022 국회 국토위 국감 SLIDE[머니S포토] 코레일 "감사원에 통상적 절차 답변…정보보안 철저히" SLIDE[머니S포토] 국회 국토위, 질의에 답변하는 코레일 '나희승' SLIDE[머니S포토] SR 이종국 "사전정보 보안 내부적 철저히...자료제공 면밀히" SLIDE[머니S포토] 철도공단 김한영 "철도 수송분담률 대폭 높일 것" SLIDE[머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장 SLIDE[머니S포토] 질의 답변하는 이종국 SR대표이사 SLIDE[머니S포토] 감사원 국감, 질의 경청하는 최재해·유병호 SLIDE[머니S포토] 최재해 감사원장 "정치적 중립지키며 공정 감사 노력" SLIDE[머니S포토] 생각에 잠긴 최재해 감사원장 SLIDE[머니S포토] 안경 고쳐쓰는 유병호 사무총장 SLIDE[머니S포토] 감사원 국정감사, 대화하는 최재해·유병호 SLIDE[머니S포토] 법제사법위원회 감사원 국정감사 SLIDE[머니S포토] '2022 국정감사' 여야 간사와 대화하는 김도읍 위원장 SLIDE[머니S포토] 감사원 국정감사, 여야 신경전으로 파행 SLIDE[머니S포토] 국정감사 증인 선서하는 최재해 감사원장 SLIDE[머니S포토] 2022 금감원 국감, 인사 나누는 이복현·강병원 SLIDE[머니S포토] 금감원 "금융권 횡령사고 및 이상 외환거래 등 신속·강력 대응" SLIDE[머니S포토] 이복현 "공매도 국민 눈높이 맞춰 형평성 있게 보완" SLIDE[머니S포토] 2022 금감원 국정감사, 의견 나누는 이복현·이명순 SLIDE[머니S포토] 금감원 이복현 "불법·불공정 거래행위 뿌리째 뽑을 것" SLIDE[머니S포토] 2022 정무위 국감, 질의 답변하는 이복현 금감원장 SLIDE[머니S포토] 금감원 "소상공·중소기업, 충격없이 연착륙하도록 지원" SLIDE[머니S포토] 이복현 "보이스피싱 등 민생침해 금융범죄 척결위해 총력" SLIDE[머니S포토] 2022 한은 국감, 마스크 고쳐쓰는 이창용 총재 SLIDE[머니S포토] 한은 이창용 "IMF 내 韓 외환보유고 적다는 인원 없어" SLIDE[머니S포토] 이창용 'PF·제2금융권 부실 현실화..."문제 될 수 있어"' SLIDE[머니S포토] 통화스와프 관련 질의 답하는 이창용 한은 총재 SLIDE[머니S포토] 한은 이창용 "물가 내년 1분기까지 5%대...하반기 내려갈듯" SLIDE[머니S포토] 2022 국회 기재위 국감, 답변하는 한은 이창용 총재 [기자수첩] 기업 혁신 막는 규제, 이제 버릴 때가 됐다 소비자 안전·환경 등과 관련된 기업 규제는 엄격해야 한다. 반면 미래로 도약하기 위한 혁신만큼은 길을 열어줘야 발전 속도가 빠르고 세계시장을 주도할 수 있다.국내 기업은 규제에 발목이 잡혀 이 같은 논리와 늘 거리가 멀었다. 언제나 현실과 동떨어진 규제가 변화의 흐름을 끊고 발전을 막았다. 편리한 서비스를 원하는 소비자만 피해를 봤다.모빌리티 플랫폼 타다 사례가 대표적이다. 최근 서울중앙지방법원 형사항소1-1부(부장판사 장찬·맹현무·김형작)는 타다를 불법 운영한 혐의로 재판에 넘겨진 이재웅 전 쏘카 대표와 쏘카의 전 자회사 브이씨앤씨(VCNC)의 박재욱 전 대표에 대한 항소심 선고 공판에서 무죄를 선고했다. 이들에게 적용됐던 혐의는 "여객자동차운수사업법" 위반이다. 타다는 운전자가 딸린 11인승 승합차를 이용자에게 빌려주는 서비스다. 이용자는 타다 서비스 이용을 위해 스마트폰 애플리케이션(앱)으로 호출하면 된다. 타다의 운영사이자 과거 쏘카의 자회사였던 VCNC는 쏘카에게 렌.. [법률S토리] 과세특례 활용으로 절세해 볼까[고수칼럼] 계속되는 금리인상 폭탄… 시장이 내딛는 발걸음 따라가야[청계광장]노동기본권에 대한 발상의 전환[기자수첩] 네카오 보험 비교·추천, 이대로 괜찮을까? 제770호한화, 세계 최고의 방위산업체를 꿈꾸다 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 김승연에서 김동관으로… 대 잇는 'M&amp;A 승부사' DNA 새 판 짜는 한화, 중심엔 '김동관 리더십' 한화, 대우조선 이어 KAI도 품을까 제769호재개발·재건축 변함없는 '복마전' [르포] 인천 숭의5구역 'SK vs 두산', 시공사 선정 난항 [르포] 신반포15차 '2차전'… 대우건설 vs 롯데건설 또 만났다 잠실 미성·크로바 벌금형 받은 '롯데건설'… 시공계약 유지할 수 있을까 제768호민간 주도 성장, 다시 뛰는 대한민국 '퍼펙트 스톰' 경고음… 돌파구는 '민간 주도 성장' 위기극복 팔 걷은 기업들… 한국 도약 이끈다 기업 끌고 정부 밀고… K-반도체, 공급망 주도권 쥔다 기업이 여는 '뉴 스페이스'… 민간 우주시대 활짝 "이번엔 K-원전"… 글로벌 시장 '정조준' 회사소개 정기구독 사이버몰이용약관 저작권규약 개인정보처리방침 광고안내 독자의견 머니앤밸류   서울시 종로구 청계천로 11(서린동, 청계한국빌딩)   제호: 머니에스   대표이사/발행인/편집인: 박정용등록번호:서울 아01082    등록일/발행일:2010.1.5    사업자등록번호 101-81-94590통신판매신고번호 제 01-1022호    호스팅사업자 주식회사 후이즈전자우편주소 moneys@mt.co.kr    Tel: 02-724-0959    청소년보호책임자: 강인귀 COPYRIGHT © MONEYS ALL RIGHTS RESERVED.</t>
+  </si>
+  <si>
+    <t>[제주에 산다] 늘어난 제주도 관광객… 남는 문제-국민일보 시사 시사 &gt; 전체기사 [제주에 산다] 늘어난 제주도 관광객… 남는 문제 박두호 (전 언론인) 입력 : 2020-08-15 04:04 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 이달 초 제주시 구좌읍 세화리 주민이 “아휴, 세화리에 사람이 너무 많아 하도리로 피신 왔어”라며 하도리 단골 카페에 들어섰다. 세화리는 구좌읍 소재지이면서 아름다운 해수욕장이 있어 여름이면 피서객이 몰리는 곳이다. 지난달 말부터 세화리 해안도로는 차량이 다니기 불편할 정도로 관광객이 몰렸다. 세화리뿐 아니라 월정, 평대, 하도, 종달리까지 제주 동부 구좌읍 해수욕장은 피서객으로 가득했다. 주민들은 바닷가를 이들 피서객에게 모두 내줬다.제주도에 올해 코로나19 사태 이후 이처럼 관광객이 몰리기는 처음이다. 제주도관광협회 자료를 보면 이달 들어 지난 8일까지 내국인 관광객은 34만4963명으로 지난해 같은 기간 33만3675명보다 3.4% 증가한 것으로 나타났다. 지난 1월 전년 대비 7.8% 증가했으나 코로나19 사태 이후 2월 40% 감소하고 3월 54%, 4월 53.3% 줄다가 5월 34%, 6월 25.5%, 7월 14.3%로 감소세가 회복되고 있었다. 제주도는 내국인 관광객 증가를 반기며 들떠 있는 분위기다. 중국인을 비롯한 외국인 관광객은 거의 없다.제주도 관광객이 회복세를 보이는 이유는 여름 휴가철 제주도가 다른 지역에 비해 상대적으로 코로나19 안전지역이라는 인식이다. 지난 12일 기준 제주도 확진자는 26명에 불과하다. 서울 광진구 20번 확진자로 인한 2, 3차 감염이 있었지만 이전까지는 지역감염이 한 차례도 없었다. 바람 때문인가 할 정도로 도민들도 의아해한다. 그리고 해외여행길이 막힌 것도 주효할 수밖에 없다. 육지의 장마가 많은 인명피해까지 동반하며 최장기록을 갈아치울 정도로 길어진 것도 발길을 제주로 돌린 이유로 들지 않을 수 없다.올여름 제주 관광객의 관광 스타일은 크게 달라졌다. KT 빅데이터는 최근 제주도 관광객들이 생태관광지를 많이 방문했다고 분석했다. 6월에 혼인지, 화순곶자왈생태탐방숲길, 한라생태숲, 엉또폭포, 비치미오름 등의 인기가 급등했다. 모두 야외로 유명 관광지가 아니다. 코로나19 때문이다. 세화리에 피서객이 그렇게 북적였지만 일부 음식점이 호황이었을 뿐 모두 그런 것은 아니었다. 카페는 실내보다 덥더라도 야외 파라솔에 앉는다. 세화리에서 인기 있는 고등어 횟집은 올해 포장 주문이 전체 매출의 50%를 차지했다. 처음 겪는 현상이란다. 마트, 편의점에서 재료를 사다 집에서 해 먹는 관광객이 많다. 밀집된 실내는 가능한 한 피하고 있다.제주도민들은 여름 휴가철 관광객 급증을 두 가지 관점에서 관심 있게 보고 있다. 하나는 관광객으로 인해 코로나19가 육지에서 유입이 되느냐 여부다. 다행히 아직 휴가철 관광객 가운데 감염자가 방문했거나 방문 뒤 귀가해 확진 판정을 받았다는 보고는 없다. 잠복기간이 있기 때문에 더 봐야 한다. 다른 하나는 이번 관광객 증가가 휴가철 일시적 현상인가, 아니면 과거의 연중 관광을 회복하는 신호인가 하는 것이다. 계절별 차이는 있지만 제주도는 확실한 연중 관광지로 자리잡아 왔다.박두호 (전 언론인) GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 ‘naver.pay’ 주소, 속았다…8천만원 사기친 피싱사이트 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 스페인에선 주전… 94분 뛴 이강인, 팀내 최고평점 부하 직원 엉덩이 때렸는데 정직 1개월…‘솜방망이’ 논란 김영환 지사 “현금복지 후퇴 없다…양해구한다” 한화 창립 70주년, 김승연 회장 “어제를 경계하고 늘 새로워지자” 3년만의 제약 바이오 채용박람회 “프로농구 우승 후보는?” 감독에게 물었더니…SK·KT 막상막하 과학·미래 가치 담았다…UCLG 총회 ‘대전트랙’ 시작 정진석 ‘식민사관’ 발언 논란…유승민 “천박한 발언, 사퇴해야” 경찰 ‘제2의 n번방’ 18명 검거, 3명 구속 잇따르는 경기침체 경고…JP모건 CEO “미·세계 경제에 침체 올 것” 이재호 연수구청장, MZ세대와 소통…역사·문화 공유 최인호 “코레일·SR, 간부급 경조사비 5년간 14억 지급” 대구서 전국동시조합장선거 관련 첫 고발 전주, 후백제∼조선 유산 묶는 ‘왕의 궁원’ 프로젝트 추진 JP모건 CEO “S&amp;P 20% 더 빠질 수 있다” [3분 미국주식]</t>
+  </si>
+  <si>
+    <t>제주도관광협회 ‘탐나오’, 현대백화점과 ‘제주마켓’ 진행 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도관광협회 ‘탐나오’, 현대백화점과 ‘제주마켓’ 진행 파이낸셜뉴스입력 2020.08.07 17:23수정 2020.08.07 17:23 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 7~13일 서울 목동점…제주 특산 기념품 할인 판매 제주도관광협회가 운영하는 온라인쇼핑몰 '탐나오'의 숙박 카테고리 [제주=좌승훈 기자] 제주도관광협회(회장 부동석)는 코로나19 위기 극복을 위해 제주여행 대표 온라인마켓인 ‘탐나오’와 함께 현대백화점에서 개최하는 'THE 제주마켓' 테마 행사에 나선다. 행사는 7~13일 서울 목동점 식품관에서 진행되고 있다. 협회는 행사기간 동안 제주 특산 기념품을 저렴한 가격에 판매한다. 구매 고객에게는 ‘탐나오’에서 판매되고 있는 기념품을 사은품으로 준다. 협회는 아울러 인스타그램을 비롯해 SNS를 통해 제주여행 스팟 추천과 함께 이벤트도 다양하게 준비했다. 탐나오는 협회가 운영하는 공공앱 성격의 제주여행 전문 오픈마켓이다. 제주도내 관광사업체의 온라인 홍보와 상품 판매를 지원하고 있다. 현재 제주도내 1400여개 사업체가 참여 중이며, 항공권, 숙박, 렌터카, 여행상품, 맛집, 기념품 등의 카테고리로 구성돼 있다. 탐나오 입점은 제주도내 관광사업체라면 누구나 해당 사이트를 통해 신청할 수 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥 조례 일부 개정안 입법예고 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주] 투비소프트 상승, 투비디티엑스-키월드 MOA 체결 [특징주] 대화제약 주가 하락 '요오드 관련주 수혜 끝났나' [급등주] 켐온, 코아스템과 흡수합병 진행 '27%↑' [특징주] 나노씨엠에스 주가 급등 '바이러스 사멸램프 성능 소개' [특징주] 해성산업 주가 상승 '계양전기 투자부문 분할흡수합병' [급등주] SCI평가정보 상승, 한은 두 번째 빅스텝 전망 [급등주] 코디엠 3거래일 지속 상승 '삼성전자 영향?' [급등주] 테라셈 상장폐지 앞두고 정리매매 '60%↑' [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' 2022-10-11 14:38 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 관광진흥 조례 일부 개정안 입법예고 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 관광진흥 조례 일부 개정안 입법예고 기자명 문서현 기자 입력 2020.08.13 09:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 관광숙박업 용도지역 및 개발 가능면적 제한·호텔업 등급결정 신청기한 조정 (제주=국제뉴스) 문서현 기자 = 제주도는 관광사업 종류 재분류 및 유원시설업 안전사고 예방 보완, 숙박업 과잉공급 억제 등을 주요 골자로 하는 '제주특별자치도 관광진흥 조례'를 일부 개정하기 위해 12일부터 9월 1일까지 개정안에 대한 입법예고를 실시한다고 밝혔다. 이번 조례 일부 개정은 관광시책의 전국적 통일을 꾀하고, 숙박업 난립에 따른 관광숙박업 공급 억제에 역점을 두고 있다. 관광진흥법 시행령 및 시행규칙 개정 사항을 반영해 사회적 변화 추이에 발맞추는 한편 숙박업 과잉공급 및 개발 사업에 포함된 휴양콘도미니엄 분양 시 가족 간 분양 금지 조항 등 제도시행 과정에서 나타난 문제점 등을 개선·보완하기 위해 추진되고 있다. '제주특별자치도 관광진흥 조례' 일부 개정안은 제주도 홈페이지의'도정뉴스-도정소식-입법․고시․공고'에서 확인할 수 있다. 조례 개정안에 대해 의견이 있는 단체 또는 개인은 개정안의 조문별 의견과 그 사유를 기재한 의견서를 오는 9월 1일까지 제주도 관광정책과로 제출하면 된다. 제주도는 입법예고기간 동안 의견을 수렴하고 제주특별자치도조례규칙심의회 심의를 거쳐 최종 개정안을 확정하고 10월 중 도의회에 제출할 예정이다. 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 한전KDN, 현장에서 답 찾는다...적극행정문화 확산 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 성시경 골드버튼, 믿고 보는 유튜버됐다 대화하는 이재명-박홍근 발언하는 이재명 더불어민주당 대표 최신뉴스 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 한전KDN, 현장에서 답 찾는다...적극행정문화 확산 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 성시경 골드버튼, 믿고 보는 유튜버됐다 대화하는 이재명-박홍근 포토뉴스 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 한전KDN, 현장에서 답 찾는다...적극행정문화 확산 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 성시경 골드버튼, 믿고 보는 유튜버됐다 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 여름시즌 내국인 관광객, 작년보다 더 왔다 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 여름시즌 내국인 관광객, 작년보다 더 왔다 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 여름시즌 내국인 관광객, 작년보다 더 왔다 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.08.14 17:47 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 8월 누적 관광객 54만명...6개월만에 증가세 전환완전한 회복세...광복절 연휴 17만명 입도, 막바지 특수 코로나19 사태로 직격탄을 맞았던 제주관광이 지난달 시작된 여름 휴가시즌을 기점으로 완전한 회복세를 보이고 있는 데, 8월 입도 내국인관광객은 7개월만에 증가세로 전환된 것으로 나타났다. 이러한 가운데 15일부터 이어지는 광복절 연휴기간에는 많은 관광객들이 제주도를 방문하면서 올 여름 시즌은 절정에 이를 것으로 전망된다. 14일 제주특별자치도와 제주도관광협회에 따르면, 8월 들어 13일까지 제주도를 찾은 관광객은 외국인(2840명)을 포함해 54만 6113명으로 지난해 같은기간(60만 1040명)과 비교해 9.1% 감소했다. 그러나 무비자입국 및 제주국제공항의 국제선 운항 중단으로 단절된 외국인 관광객을 제외한 순수 내국인관광객(54만 3273명)만을 놓고 보면 '2.4%' 증가한 것으로 나타났다. 올해들어 내국인관광객이 증가세를 보인 것은 1월(8.4%) 이후 7개월만이다. 제주도 입도관광객(내국인 기준)은 코로나19 위기상황이 심각단계로 격상된 지난 2월 39.3% 감소한 것을 시작으로, 3~5월에는 반토막 수준으로 줄어들었다. 이후 여름 휴가시즌을 맞은 지난 7월부터 완연한 회복세를 보였다. 7월 제주도 입도 내국인관광객은 98만 4407명으로 전년대비 85%(-14.3%)의 회복세를 나타냈다. 여름 휴가시즌을 맞았으나 코로나19 사태로 해외여행이 제한되는 상황이 지속됨에 따라 코로나19 청정지역으로 평가받는 제주도로 발길을 돌리고 있기 때문으로 풀이된다. 이러한 가운데, 오는 17일이 임시공휴일로 지정되면서 이번 광복절 연휴기간에는 제주도를 찾는 관광객이 17만명(8월 14~17일)에 이를 것으로 전망되면서 여름 휴가시즌 막바지 특수가 예상된다. 이번 연휴기간 제주국제공항을 기점으로 운항되는 항공편은 14일 480편, 15일 482편, 16일 486편, 17일 482편 총 1930편이 예정돼 있다. 연휴를 앞둔 지난 13일 제주도를 찾은 관광객은 4만 4402명으로 집계됐다. 관광객들이 몰리면서 도내 특급호텔 예약률은 코로나19 방역 수칙을 감안한 최대치인 80%를 보이고 있다. 사실상 예약이 끝난 셈이다. 도내 30개 골프장도 예약이 이미 끝났으며, 렌터카 예약률도 업체별로 90~100%에 달하고 있다. 개별관광객 중심의 입도 행렬이 이어지면서 특급호텔과 렌터카 등은 활기를 띄는 반면, 단체관광객을 대상으로 하는 전세버스는 '개점휴업' 상태가 지속되면서 업종간 희비를 보이고 있다. 패키지 여행객도 거의 사라지면서 여행사들도 불황이 계속되고 있다. 한편, 제주도 방역당국은 이번 광복절 연휴를 맞아 관광사업체에 대한 방역대책을 강화하고 있다. 방역당국은 관광지 등 각 시설에 방역관리자를 지정해 방역을 관리하도록 하는 한편, 관광시설에서 코로나19 의심증세가 있는 경우 입장하지 않고 대기하다 119구급차를 통해 방역진료소에서 검사를 받록 하고 있다. 정인보 제주도 보건건강위생과장은 "관광객들께서는 관광지에서 마스크를 착용하고, 2m 거리두기와 손씻기 등 방역지침을 준수해 달라"면서 "증상이 있다면 관광시설 등 다중이용시설을 이용하지 말고, 119를 통해 선별진료소를 이용해 검사를 받아달라"고 당부했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>전남도, 제주항공과 제주도에서 전남 관광지 '홍보' - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 전남도, 제주항공과 제주도에서 전남 관광지 '홍보' 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 광주 전남도, 제주항공과 제주도에서 전남 관광지 '홍보' 광주CBS 김삼헌 기자 메일보내기 2020-08-03 16:14 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 제주 함덕해수욕장에서 전남 관광지 홍보활동(사진=전남도 제공) 전라남도는 최근 무안군, 한국공항공사 등 관계기관과 함께 제주공항과 제주도 주요 해수욕장 등에서 여름 휴가철 무안과 제주 하늘길을 이용한 청정 전남 대표 관광지를 홍보하고 나섰다. 전라남도에 따르면 무안국제공항은 지난해 90만 명(2018년 대비 64.8% 증가)이 이용해 전국 15개 공항 중 상승율 전국 1위를 달성했으나 코로나19 영향으로 지난 3월부터 모든 항공기의 운항이 중단됐다.현재 무안국제공항에는 국내 저비용항공사(LCC) 중 취항율과 매출액 1위인 제주항공이 지난 7월 17일부터 제주행 노선을 금요일부터 월요일까지 주 4회 부정기 운항 중이다.전라남도와 관계기관은 이번 홍보활동으로 정상가격에서 70~80% 할인된 2~3만원대 특가 항공요금을 집중 소개하고 지역 대표 관광지인 목포 해상케이블카와 무안 백련지, 신안 천사대교 등 여름 휴가철 전남 여행정보 등을 담은 안내 브로슈어도 배포했다.특히 국토교통부가 국제선을 인천공항으로 집중시킴에 따라 전라남도는 지난해보다 규모를 확대한 '전남 여행 및 무안국제공항 활성화 공모전'을 8월중에 개최해 국민적 관심과 함께 공항 활성화를 유도할 방침이다. 더 클릭 정진석 "조선, 안에서 썩어 망해…日, 조선왕조와 전쟁 한 적 없다" 동료들 보는 앞에서 엉덩이 때려도…'정직 1개월' 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 군 "北 저수지 탄도미사일, 한미 '킬 체인' 의식"…실효성은 글쎄? 이재명 "종북몰이 공세, 친일파 같아…한미일 훈련, 尹 소명해야" '택시 연 매출, 배달업의 1/3에 불과' 승용차 6미터 절벽 추락 나무에 걸려 구조…40대 운전자 음주 혐의 입건 윤 대통령 "청년들이 좌절 않게 희망의 사다리 놓아야" 광주CBS 김삼헌 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 3박4일 여행코스 실내체험관광 ‘제주이야기’ 천연꽃 향수, 립글로즈 만들기 체험 - 한국면세뉴스 × 전체기사 DF산업 전체 국내면세점 해외면세점 산업동향 금융 DF정책 브랜드·유통 전체 뷰티 패션·인테리어 주류·담배 식품·음료 가전·IT·게임 유통채널 포커스 전체 인터뷰·칼럼 What’s NEW 글로벌 라이프 여행·레저 전체 국내여행·숙박 해외여행·숙박 항공사·항공권 아웃도어 보도자료 UPDATED. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 전체기사 DF산업 국내면세점 해외면세점 산업동향 DF정책 브랜드·유통 뷰티 패션·인테리어 주류·담배 식품·음료 가전·IT·게임 유통채널 포커스 인터뷰·칼럼 What’s NEW 글로벌 ISSUE 라이프 여행·레저 국내여행·숙박 해외여행·숙박 항공사·항공권 아웃도어 핫뉴스 핫뉴스 생활 엔터테인먼트 보도자료 기사검색 검색 이전 다음 제주도 3박4일 여행코스 실내체험관광 ‘제주이야기’ 천연꽃 향수, 립글로즈 만들기 체험 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME 핫뉴스 생활 제주도 3박4일 여행코스 실내체험관광 ‘제주이야기’ 천연꽃 향수, 립글로즈 만들기 체험 허남수 승인 2020.08.15 10:00 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 제주도 구좌읍 송당리는 대중교통 전면 개편과 함께 관광지 순환버스가 운행되고 있는 교통의 요지이자 제주도내 368개 오름 중 18개의 오름이 자리잡고 있어 제주도3박4일 여행코스의 중심지로 계획하기 좋다. 제주시 구좌읍 비자림 근처에 위치한 ‘제주이야기’ 송당점은 제주도의 자연을 담은 천연향수와 천연 화장품을 만들어 볼 수 있는 체험형 관광지로, 실내에 자리하고 있어 날씨에 구애 받지 않고 언제나 쾌적한 체험이 가능하다. 날씨 변덕이 심한 제주도 특성상 실내체험관광지는 제주여행 필수코스로 ‘제주이야기’는 대부분 실내 만들기 체험이 연령대 제한이 있는 것과 달리 5세 이상 미취학아동부터 체험이 가능해 어린 자녀 동반 가족 여행객들에게 특히 선호되고 있다. 체험상품으로는 △천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’ △자신이 좋아하는 향의 냉동 건조된 천연꽃을 골라 나만의 스타일대로 넣어 데코 할 수 있는 ‘천연꽃 롤향수’로 자극적이지 않은 천연원료를 사용하고 보존제를 전혀 첨가하지 않아 어린이도 부담 없이 사용할 수 있다. 뿐만 아니라 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차와 최근 신제품 립오일을 출시한 기능성 화장품, 예쁜 젤 캔들 등 다양한 제주도 기념품까지 구매할 수 있으며 현재 체험비 할인 및 화산송이 볼방향제 만들기 체험(1만원 상당)을 무료로 제공하고 있다. ‘제주이야기’ 송당점 2층에는 제주구좌카페 ‘송당다방’이 위치해있어, 별도의 테라스 공간에서 제주도 고유의 색을 간직하고 있는 송당마을 전경과 오름을 감상할 수 있다. ‘송당다방’에서는 100% 아라비카원두(에티오피아, 콜롬비아)를 최적의 로스팅 기법을 적용해 차별화된 커피맛의 아메리카노와 카페라떼, 에스프레소 대비 2배 진한 고농도 콜드브루 원액을 사용한 콜드브루 커피를 비롯해 구좌읍 대표 특산품인 제주당근으로 만든 당근주스와 보리미숫가루,  제주한라방에이드 등의 음료를 맛볼 수 있다. 업체 관계자는 “제주도 천연꽃으로 향수와 화장품을 만드는 체험은 제주도에서 할 수 있는 특별한 체험으로 연인이나 가족단위 방문객은 물론 회사 워크숍 등 단체 체험도 이어지고 있다”며”만들기 체험도 하고 송당다방에서 편안하게 이야기도 나누며 제주도에서 좋은 추억을 남기시길 바란다”고 말했다. 한편, ‘제주이야기’브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상 차 및 꽃을 이용한 티백 및 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 허남수 기자 kdf@kdfnews.com 저작권자 © 한국면세뉴스 무단전재 및 재배포 금지 허남수 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 관련기사 현대백화점그룹, 소외계층 아동 대상 대학생 멘토링 '언택트'로 재개 위메프 '베이비위크', 육아 필수 아이템 최대 40% 할인! 레니본 로맨티시즘의 향연, 유니크한 컬러와 페미닌한 실루엣의 20FW 광고 캠페인 롯데리아, 코로나 확진자 발생 매장 영업 재개 강북구청, 30번 확진자 발생...번동 거주 50대[코로나19] 자연지애, 프리바이오틱스 2종 투입한 '프리바이오틱스 더블' 20% 할인 이재명, 도내 종교시설 2주간 집합제한 행정명령 필네이처 ‘리타 노니쥬스 원액’ 누적판매 400만병 돌파 강북구청, 성북구 사랑제일교회 관련 확진자 5명 발생....#31~35[코로나19] 여성 Y존 관리에 좋은 청결제, 추천 제품은? 관광공사, 한국인 글로벌 파워유튜버들과 '한국관광 매력' 홍보 구딸 파리, 신제품 ‘르 떵 데 헤브’ 출시...남프랑스 그라스 오마주 향수 더보기+ 주요기사 LF ‘아떼 바네사브루노’,가을 시즌 패션·뷰티 브랜드 통합 기획전 열어 [kdf LF] 오늘부터 개량백신 접종 시작 日 도요타 자동차의 미래형 실험도시 '우븐 시티' 11월초 첫삽 유경준 의원, 'KTX-이음' 승차감 이상 195회…코레일·현대로템 개선방안 찾아야 LG에너지솔루션·포스코홀딩스, '이차전지 사업협력' 협약..."100년 기업으로 함께 성장" KB국민카드, ‘KB페이’ 중심 ‘원 플랫폼’ 서비스 구축 당신만 안 본 뉴스 [속보] 모스크바 주재 美 대사관, 러시아 거주-여행 미국인 철수령...이중 국적 미국인 동원령 징집 경고 [KDF World] 카카오톡 PC·모바일 오류 발생…메시지 전송 속도 저하 및 로그인 불가 [속보] 美 허리케인 '이안(Ian)' 4등급 폭풍 격상...플로리다 비상사태 선포 '강제 주민 대피령' [KDF Disaster] 지수, 글로벌 VVIP 등극, LVMH 아르노 회장과 어깨 나란히 [KDF Dior] 이세영, '법대로 아름다워라' 자연미인의 성숙미란 이런것! [속보] 모스크바 주재 美 대사관, 러시아 거주-여행 미국인 철수령...이중 국적 미국인 동원령 징집 경고 [KDF World] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신뉴스 지수, 송강, 앤 마리도 모두 모여, PARTY~PARTY! [KDF Cartier] 이복현 금감원장, 은행권 이자 장사 지적에 "금리인하요구권 불수용 개선책 요구할 것" 김승연 회장, 한화 창립 70주년 맞아 "늘 새로워지자" LF ‘아떼 바네사브루노’,가을 시즌 패션·뷰티 브랜드 통합 기획전 열어 [kdf LF] 포인터웍스, 최대 캠핑 축제 ‘고아웃 캠프’ 체험 부스 운영 KDFN 인터뷰 윤석열차는 계속 달려야 한다 [안창현의 돋보기] 윤석열 대통령이 취임 5개월을 목전에 두고 외교, 안보, 경제 분야에서 난맥상을 보이며 미국에서 비속어 발언 논란까지 겹쳐 국정 지지율이 급락하는 가뜩이나 어려운 국면에 각료인 박... 농협하나로마트와 양두구육(羊頭狗肉)...점검 2곳 중 1곳은 수입농산물 판매 중 농협하나로마트를 운영하는 농협하나로유통 홈페이지에는 ‘농민과 함께 대한민국에 믿을 수 있는 행복한 먹거리를 제공하는 초일류 농식품 유통전문기업’, ‘진심을 판다! 안심을 산다!’라... 2022 국정감사 민생에 주력해야 [안창현의 돋보기] 2022년 5월에 취임한 윤석열 대통령과 정부에 대한 국정감사가 4일부터 막이 오르며 여당인 국민의힘과 야당인 더불어민주당은 한 치의 양보도 없는 혈전을 예고하고 있다.취임 5개월... What's NEW 내 남자가 낯설게, 프리해 보일 때 바바토스 ‘존? 누구세요?’[KDF varvatos] 아메리칸 맨즈웨어 브랜드 존 바바토스가 반포 솔빛섬 ‘무드서울 by 겟올라잇’에서 10월 12일 가을·겨울 프레젠테이션을 진행한다. 이번 시즌 테마인 ‘When You Are St... 라이언 고슬링, 깊은 눈빛의 젠틀한 트래블맨 변신 [KDF Gucci] 라이언 고슬링이 우수 어린 눈빛으로 먼 곳을 응시하는 트래블러로 변신했다. 고슬링은 구찌 발리제리아에 둘러싸여 낯선 곳을 지나는 여행자가 됐다. 6일 구찌(Gucci)가 공개한 ‘... 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 한국면세뉴스 KoreaDutyFreeNews 등록번호 서울 아 03561 등록일 2015-02-02 발행인 박홍규 편집인 박홍규 청소년보호책임자 박주범 서울특별시 서초구 서초대로55길 3 애니빌딩 6층 (서초동 1696-13) 02-3478-1767 mail to kdf@kdfnews.com / 4067park@naver.com 한국면세뉴스 · 면세뉴스아시아 © 2022 kdfnews.com All rights reserved. 한국면세뉴스의 모든 콘텐츠는 저작권법의 보호를 받으며, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
+  </si>
+  <si>
+    <t>제주도 공항·관광지서 마스크 의무착용…위반시 고발 - 이투데이 속보창 구독신청 RSS 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 사회 일반 제주도 공항·관광지서 마스크 의무착용…위반시 고발 입력 2020-08-24 20:39 권태성 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 ▲제주도 내 11곳 해수욕장이 정식 개장한 1일 제주시 곽지해수욕장을 찾은 피서객들이 해수욕을 즐기고 있다. (뉴시스)앞으로 제주국제공항을 비롯한 제주 주요 관광지에서 마스크를 의무적으로 착용해야 한다. 제주도는 24일 ‘사회적 거리 두기 2단계에 따른 제주형 특별방역 행정조치계획’ 고시를 통해 고위험 시설, 대중교통, 항공기 내, 제주공항, 제주항, 실내 관광시설 등에서 마스크 착용을 의무화하는 행정조치를 발동했다고 이날 밝혔다.또 제주도는 공공기관의 실내 50인 이상, 실외 100인 이상 행사를 금지하도록 했다. 관련 뉴스 [곽노성의 글로벌 인사이트] 코로나19 방역의 정치화와 ‘폰지’ 위험 충북서 80대 노인 코로나로 숨져…아들 부부 접촉 LG전자 인도네시아 TV 공장서 직원 200명 코로나19 감염 도내 종교시설은 각종 소모임과 정규행사 외 추가 행사 개최를 전면 금지했다. 또 온라인 예배를 권고했다.도는 특별행정 조치를 위반하면 ‘감염병의 예방 및 관리에 관한 법률’(이하 감염병예방법)에 따라 고발 조치해 300만 원 이하의 벌금을 물도록 하고 또 확진자가 발생하면 방역 비용에 대해 손해배상(구상권) 청구하기로 했다. #코로나 #제주도 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 [이슈크래커] ‘무비자 여행 개시’ 일본 어디 갈까…日관광청 추천 10월 최고의 여행지는? 일본이 2년 7개월 만에 무비자 관광을 재개하면서 일본이 올 가을 최고의 여행지가 될 전망이다. 게다가 엔저 덕분에 유럽이나 미국보다 상대적으로 통화가치가 낮아 비용 부담도 덜 수 있다. 가을 정취를 즐길 수 있는 단풍 명소뿐만 아니라 먹거리와 트래킹, 핼러윈 축제 등이 여행객을 기다린다. 국내 여행사들은 앞다퉈 특가 항공권을 내놓 [영상] ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 최근 미국 군수산업체 제너럴 다이내믹스사에서 미군의 차세대 전차 ‘에이브럼스 X’의 영상을 공개했습니다. 에이브럼스 X에는 신형주포, 하이브리드 엔진, 유무인복합체계 등이 적용 됐다고 하는데요. 놀라운 것은 에이브럼스 X에 장착되는 하이브리드 엔진은 연료 소모를 기존보다 50% 줄이고 ‘무소음 기동’도 가능하다고 합니다. 미국 차세대 [국감 핫이슈] ‘감사위원 배석’ 두고 여야 2라운드 공방 여야가 국회 법제사법위원회 감사원 국정감사에서 감사위원 배석 여부를 두고 충돌했다. 야당은 서해 공무원 피격사건 감사와 관련해 '감사위원회 패싱' 문제를 확인해야 한다고 주장했고, 여당에서는 '특정사안감사'는 문재인 정부 당시에도 많았다며 감사위원 배석이 불필요하다고 반박했다. 더불어민주당 국회 법사위 간사인 기동민 의원은 1 尹, 북한 전술핵에 “걱정 말라”…핵무장 여지도 남겨 윤석열 대통령은 11일 북한이 ‘전술핵 운용 훈련’을 했다고 밝히며 위협 수위를 높인 데 대해 한미일 안보협력을 통해 대비하겠다며 “걱정 말라”고 말했다. 윤 대통령은 이날 용산 대통령실 청사 출근길에 기자들과 만나 “북핵 위협이 날로 심각해지고 있다. 누누이 강조했지만 굳건한 한미동맹과 한미일 안보협력을 바탕으로 아주 견고한 대응 KDI "경기 회복세 약화...반도체ㆍ대중수출 부진 경기하방 위험↑" 한국개발연구원(KDI)이 두 달째 우리 경제의 회복세가 약화하고 있다는 진단을 내렸다. KDI는 11일 발간한 '10월 경제동향'에서 "최근 우리 경제는 내수가 일부 개선됐으나, 대외 여건 악화에 따른 수출 부진으로 경기 회복세가 약해지는 모습"이라고 분석했다. KDI의 이같은 진단은 지난달 '9월 경제동향' 발표에 이어 두번째다. KDI에 따르면 10월 초 무역수지 38억 달러 적자…글로벌 위기에 '빨간불' 계속 조업일수 줄어들고 분기초 빠지는 탓 반도체도 단가 하락으로 수출 감소해 중심축인 美·中 모두 무역수지 적자 "각국 금리·긴축 기조 영향 지켜봐야" 무역수지의 빨간불이 꺼지지 않고 있다. 수출이 많이 감소한 탓에 4~9월까지 6개월 연속 적자 흐름을 이어가고 있으며 국제 경기가 좋지 않은 상황이라 이번달 무역수지도 어두운 상황이다. 11 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 많이 본 뉴스 01 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 02 전장연, 지하철 4호선 출근길 시위…“지연 우려” 03 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 04 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 05 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 06 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 07 ‘결혼지옥’ 외도 2번 저지른 79세 남편…“내연녀, 우수한 대학 성적 보기 좋더라” 08 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 09 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 10 ‘공사중단’ 둔촌주공, 상가 갈등에 발목 잡히나 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 사회 최신 뉴스 박강수 마포구청장 "쓰레기 소각만이 답 아냐…전처리시설 설립 제안" "우주 공부하고 학점 인정받고"...여가부, 고교학점제 연계프로그램 늘린다 신혜성, 음주운전 벌써 두 번째…“만취해 본인 차량 아닌지도 모르고 운전” [국감 핫이슈] 교육부 등 소속기관 등 5년간 사이버 공격 21만 건 50대 남성, 서울 공원서 총상…극단 선택 추정 [포토] 2022 하이서울패션쇼 개막 [포토] 한국패션 미래를 한자리에 '하이서울패션쇼 2022' [포토] 하이서울패션쇼 2022, 3년만에 개최 “통통한 새우젓 알뜰 구매”…3년 만에 마포나루 ‘새우젓 축제’ 열린다 [포토] '내가 가고싶은 회사에서 만드는 제품은' 뉴스발전소 [이슈크래커] '무비자 여행 개시' 일본 어디 갈까…日관광청 추천 10월 최고의 여행지는? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '비에니끄' 의류 선보이는 모델들 마켓 뉴스 특징주 투자전략 코아스템·켐온, 합병 소식에 상한가·28% 강세 LG에너지솔루션, 증권가 목표가 상향에 강세 CJ대한통운, 8만원 붕괴…‘신저가’ 경신 HMM, 52주 신저가 SCI평가정보, 기준금리 인상 가능성에 강세 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 14:33 20분지연 코스피 코스닥 1.다이나믹디자인 3,200 2.화천기계 1,050 3.유니온머티리얼 380 4.STX 525 5.베트남개발1 47 1.동국알앤에스 1,030 2.코아스템 2,680 3.켐온 585 4.테라셈 14 5.코디엠 166 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,355,000 -1.25% 이더리움 1,832,000 -2.66% 비트코인 캐시 159,900 -4.19% 리플 704.8 -6.46% 위믹스 2,417 -4.84% 에이다 569.1 -5.48% 이오스 1,496 -6.67% 트론 88.46 -2.92% 스텔라루멘 177.4 -2.63% 비트코인에스브이 68,350 -3.26% 체인링크 10,360 -4.34% 샌드박스 1,133 -4.79% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+  </si>
+  <si>
+    <t>제주도관광협회 '탐나오', 'THE 제주마켓' 동참 &lt; 경제일반 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 '탐나오', 'THE 제주마켓' 동참 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 경제일반 제주도관광협회 '탐나오', 'THE 제주마켓' 동참 기자명 홍석형 기자 입력 2020.08.07 11:29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회(회장 부동석)는 코로나19 조기 극복을 위해 제주여행 대표 온라인마켓인 탐나오와 함께 현대백화점에서 개최하는 'THE 제주마켓' 테마행사에 동참한다고 7일 밝혔다.행사는 7일부터 13일까지 목동점 식품관에서 진행된다.행사기간 동안 현대백화점에서는 제주의 특산기념품을 합리적인 가격에 구매할 수 있으며, 구매고객에게는 탐나오에서 판매되고 있는 제주도 기념품을 사은품으로 지급한다.인스타그램 등 SNS를 통해 제주여행 스팟 추천과 다양한 이벤트도 진행된다.탐나오는 제주여행 전문 오픈마켓으로, 도내 관광사업체의 온라인 홍보와 판매를 지원하고 있다.제주도내 1400여개 사업체가 참여 중이며 제주 항공권, 선박, 숙박, 렌트카, 관광레저 체험과 음식점, 특산품과 기념품업이 모두 참여할 수 있다.탐나오 입점은 도내 관광사업체라면 누구나 가능하며 언제든지 사이트를 통해 신청할 수 있다. 홍석형 기자 hsh8116@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 탐나오, 코로나 조기극복 'THE 제주마켓' 동참 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 탐나오, 코로나 조기극복 'THE 제주마켓' 동참 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도관광협회 탐나오, 코로나 조기극복 'THE 제주마켓' 동참 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2020.08.07 14:16 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도관광협회(회장 부동석)는 코로나 19 조기 극복을 위해 제주여행 대표 온라인마켓인 탐나오와 함께 현대백화점에서 개최하는 'THE 제주마켓' 테마행사에 동참한다. 행사는 7일부터 13일까지 목동점 식품관에서 진행된다. 행사기간 동안 현대백화점에서는 제주의 특산기념품을 합리적인 가격에 구매할 수 있다. 구매고객에게는 탐나오에서 판매되고 있는 제주도 기념품을 사은품으로 지급한다. 인스타그램 등 SNS를 통해 제주여행 스팟 추천과 다양한 이벤트도 진행된다. 탐나오는 제주여행 전문 오픈마켓으로, 제주도내 관광사업체의 온라인 홍보와 판매를 지원하고 있다. 제주도내 1400여개 사업체가 참여 중이며 제주 항공권, 선박, 숙박, 렌트카, 관광레저 체험과 음식점, 특산품과 기념품업이 모두 참여할 수 있다. 탐나오 입점은 제주도내 관광사업체라면 누구나 가능하며, 언제든지 사이트(www.tamnao.com)를 통해 신청할 수 있다. 문의: 제주도관광협회 온라인사업실(1522-3454). &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 탐나오, 코로나19 조기 극복을 위한 제주마켓 동참 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 탐나오, 코로나19 조기 극복을 위한 제주마켓 동참 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도관광협회 탐나오, 코로나19 조기 극복을 위한 제주마켓 동참 기자명 허태홍 기자 입력 2020.08.07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회는 코로나 19 조기 극복을 위해 제주여행 대표 온라인마켓인 탐나오와 함께 현대백화점에서 개최하는 “THE 제주마켓” 테마행사에 동참한다. 행사는 오는 13일까지 목동점 식품관에서 진행된다. 행사기간 동안 현대백화점에서는 제주의 특산기념품을 합리적인 가격에 구매할 수 있으며, 구매고객에게는 탐나오에서 판매되고 있는 제주도 기념품을 사은품으로 지급한다. 인스타그램 등 SNS를 통해 제주여행 스팟 추천과 다양한 이벤트도 진행된다. 탐나오 입점은 도내 관광사업체라면 누구나 가능하며 언제든지 사이트(www.tamnao.com)를 통해 신청할 수 있다. 한편 탐나오는 제주여행 전문 오픈마켓으로, 도내 관광사업체의 온라인 홍보와 판매를 지원하고 있다. 허태홍 기자 black4t@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>특별 여행주간 관광객 증가율, 제주도 가장 높았다 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 특별 여행주간 관광객 증가율, 제주도 가장 높았다 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 특별 여행주간 관광객 증가율, 제주도 가장 높았다 원성심.홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.08.05 11:23 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 7월 1~19일 여행주간, 제주도 27만명 방문...6월 比 23% 증가여름 휴가시즌 맞물려 증가세 전환...1일4만9000명↑ 정부가 코로나19 위기극복의 일환으로 안전한 여행문화 확산 및 내수 활성화를 위해 시행한 '2020 특별 여행주간'(7월 1~19일) 운영 결과, 지역별 방문객에서는 제주도가 가장 높은 증가율을 보인 것으로 나타났다. 문화체육관광부가 5일 발표한 '2020 특별 여행주간' 사업 효과 분석결과 자료에 따르면, 특별 여행주간 기간 동안 지역방문(이동량)과 관광소비지출액 모두 전월(6월) 같은 기간 보다 증가했지만 아직 지난해 같은 기간 수준에는 미치지 못한 것으로 나타났다. 특별 여행주간 동안 지역방문자 수는 전월(6월) 동기 대비 4.1%가 증가한 것으로 나타났다. 제주도는 이 기간 총 27만 4300명이 방문한 것으로 집계됐다. 이는 6월 같은 기간(22만 2000명)과 비교해 23.6% 증가한 수치이다. 지난해 같은 기간과 비교해서도 1.4% 증가했다. 6월과 비교해 제주도 다음으로 강원(18.6%), 인천(9.0%) 순으로 높은 증가세를 보였다. 지난해 대비 증가한 곳은 강원(6.8%), 전북(2.8%), 제주도(1.4%) 3곳이다. 문체부는 이번 특별여행주간 결과를 바탕으로 여름성수기 관광수요가 하반기에도 계속 이어질 수 있도록 오는 10월 말부터 약 2주간(10월 31일~11월 15일) 가을여행주간을 추진한다. 한편, 최근 여름 휴가시즌이 절정에 이르면서 제주도를 방문하는 내국인 관광객은 1일 5만명에 육박하는 등 완전한 증가세로 전환됐다. 일별 입도객 추이를 보면, 주말인 지난 1일 올해 최대치인 '4만 9219명'을 기록한 것을 시작으로 △2일(일) 4만 7093명 △3일(월) 4만 3531명으로 집계됐다. 8월 내국인 입도객은 총 13만 9843명으로, 지난해와 비교해 4.2% 증가했다. 코로나19 위기상황이 심각단계로 격상됐던 지난 2월 이후 월단위 증가세 전환은 이번이 처음이다. 제주관광은 올 여름 휴가시즌이 시작된 7월부터 완연한 회복세를 보이기 시작했다. 7월 입도객은 내내국인 98만 4407명, 외국인 4422명 총 98만 8829명으로 집계됐다. 전체적으로는 지난해와 비교해 24.3% 감소한 것이지만, 이는 외국인 무비자 입국 중단 및 제주국제공항의 국제선 운항이 전면 중단되면서 외국인 관광객의 발길이 완전히 끊겼기 때문이다.  7월 외국인 입도객은 지난해 같은기간(15만 6214명)의 불과 3%도 안되는 수준(-97.2%)이다. 반면, 내국인은 지난해 대비 85% 수준(-14.3%)으로 회복된 것으로 나타났다. 지난 3~4월만 하더라도 '반토막' 수준이던 것이, 빠른 회복세를 보이고 있음을 보여준다. 이처럼 내국인 관광객들이 급증하고 있는 것은 여름 휴가시즌을 맞았으나 코로나19 사태로 해외여행이 제한되는 상황이 지속됨에 따라 코로나19 청정지역으로 평가받는 제주도로 발길을 돌리고 있기 때문으로 풀이된다. 외국인 관광시장의 '개점휴업'이 장기화되는 가운데, 내국인 입도객의 이러한 추이는 최대 불황기를 맞고 있는 관광업계에서는 매우 고무적으로 받아들이고 있다. 그러나 현재 제주도를 방문하는 관광객들은 대부분 '개별' 여행객이 주를 이루는 것으로 나타나 전세버스 업계는 물론 단체관광객을 대상으로 영업해온 음식점 등은 여전히 극심한 침체가 이어지는 것으로 나타났다.  &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심.홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주관광 모처럼 활기...1일 입도 여행객 4만명↑ '출렁' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광은 언제부터 시작됐을까? ┃ 기업인 너는 누구인가 HL - 펜앤드마이크 × 전체기사 정치 전체 이제는 4·15총선이다 사회 경제·산업·과학 미디어 전체 방송 모니터 외교·안보·국제 연예·문화·스포츠 기획·연재·기고 전체 \'가짜 뉴스\' 만든 정치인 \'가짜 뉴스\' 만든 언론인 문혁춘추 미제스 에세이 유니샘의 교실이야기 특별기고 자유지성인 대회 기타 나의좌파 탈출기 차명진 만평 칼럼 시민기자 시민단체 동향 인사·동정·부고 펜앤드마이크 최신영상 전체 펜앤뉴스 펜앤드마이크TV 독자의 소리 현대사 자료실 전체 5·18 광주사태를 파헤친다 북한정권 창출의 주인공 스티코프 일기 황장엽 망명 비화 전두환, 제5공화국 탄생의 비밀 김일성 정권의 아버지 레베데프 비망록 김용삼의 현대사 추적 화제의 신간 촌평 차명진 만평 김정산 작가의 펜앤투어 집회·행사·세미나 공지사항 미디어 모니터 UPDATED. 2022-10-11 14:43 (화) 로그인 회원가입 모바일웹 기사검색 검색 홈 칼럼 정규재 권순활 김용삼 PenN수첩 정치 사회 경제·산업·과학 외교·안보·국제 미디어 연예·문화·스포츠 촌평 기획·연재·기고 '가짜 뉴스' 만든 언론인 문혁춘추 미제스 에세이 특별기고 유니샘의 교실이야기 기타 차명진 만평 현대사 자료실 현대사 추적 5·18 광주사태 북한정권 스티코프 일기 황장엽 비화 제5공화국 탄생의 비밀 레베데프 비망록 펜앤드마이크TV 구독안내 이전 다음 제주도 관광은 언제부터 시작됐을까? ┃ 기업인 너는 누구인가 HL 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 펜앤드마이크 최신영상 펜앤드마이크TV 제주도 관광은 언제부터 시작됐을까? ┃ 기업인 너는 누구인가 HL 펜앤 펜앤 이메일 기자의 다른기사보기 최초승인 2020.08.10 12:23:37 최종수정 2020.08.10 12:23 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × © 펜앤드마이크 출처 명기한 전재 및 재배포는 환영합니다 펜앤 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 후 이용가능합니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 추천순 최신순 전체보기 인기기사 1KBS 직원들,尹 대통령 발언 관련 단체 성명 "정파적 편견에 찌든 특정 언론이 저지른 국가적 자해행위" 2허접한 대통령실 MBC 공문 서식 '충격'...김재원 "직원들 너무 나태" 3[단독] 자유총연맹 文말뚝인사 송영무 총재의 이상한 물류센터 사업···뭐길래? 4[탐사기획] 文정부가 박살낸 기무사, 안보사 거쳐 국군방첩사령부 개정···무슨 일이길래? 5[단독] '이재명 비리 방송' 엉터리 조사한 경찰관들,허위공문서 작성 혐의로 무더기 검찰 조사받아 6[단독] 경찰 수사선상 오른 자유총연맹 예산전횡 막후 정황 속 송영무 총재 직무유기 의혹 7[단독] 자유총연맹 文알박기 인사 송영무 총재의 인사전횡·보복의혹···국감 오르나 8[단독] 자유총연맹 장악하려는 文말뚝인사 송영무 총재의 수상한 인사개정···왜 9[단독] 박원순 간판시책 '태양광' 먹튀, 해드림협동조합의 수상한 자금 흐름 내막 추적 10北 연루 코인받은 KBS 간부, 아태협 통한 '암흑 커넥션'의혹 일파만파···"듣도 보도 못한 사건" 최신기사 확 뚫린 일본 여행...김포-하네다, 주 28회→56회 증편 감사위 배석 두고 법사위 국감서 충돌한 여야...핵심은 '서해 공무원 피살 관련 文 서면조사 통보' 이건희 회장 2주기 맞는 삼성, ‘이재용 회장승진’에 관심 법사위 국감 파행...감사원장 업무보고 막고 의사진행 요구한 민주당에, 퇴장한 국힘 일본, 한국인 무비자 관광 오늘부터 2년7개월 만에 허용 북-중-러-민주당 vs 한-미-일-국힘당 [2022년 10월 11일(화) 김진기의 텐텐뉴스] 김병민 "푸틴 대신 젤렌스키 탓한 이재명...북한 만행조차 일본 탓" 우)03149 서울특별시 종로구 인사동5길 26 8층(관훈동,홍익빌딩) 대표전화 : 02-2138-5881 팩스 : 02-730-0989 명칭 : (주)펜앤드마이크 제호 : 펜앤드마이크(PenN) 등록번호 : 서울 아 04863 발행인 : 천영식 편집인 : 천영식 등록일 : 2017-12-06 발행일 : 2018-01-02 청소년보호책임자 : 최대현 펜앤마이크 penn@pennmike.com / 기사제보·보도문의 pennjebo@pennmike.com Copyright © 2022 펜앤드마이크. All rights reserved. 상담가능 시간 : 평일 오전 10시~오후 5시30분 회사소개 광고안내 개인정보처리방침 청소년보호정책 인터넷신문윤리강령 위로</t>
+  </si>
+  <si>
+    <t>제주도관광지추천 ‘제주이야기’, 제주도 자생꽃으로 만드는 향수 만들기 체험 - CCTV뉴스 - 김범규 기자 × 전체기사 특집 모아보기 News Focus On People Inside Product Zoom In D-Trend 스토리지 안전산업특집 OT보안특집 UPDATE : 2022-10-11 13:20 (화) 로그인 전체기사 정기구독신청 고객센터 광고문의 스토리지 OT보안 안전산업 News Focus On People Inside Product Zoom In D-Trend 검색 기사검색 검색 회원 로그인 회원가입 이전 다음 제주도관광지추천 ‘제주이야기’, 제주도 자생꽃으로 만드는 향수 만들기 체험 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 조이뉴스 제주도관광지추천 ‘제주이야기’, 제주도 자생꽃으로 만드는 향수 만들기 체험 김범규 기자 승인 2020.08.01 09:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 한라산 정상으로부터 가장 가까운 지경에 중산간 마을로 최근 인기 있는 제주도관광지로 꼽히는 인생사진 명소 안돌오름을 비롯해 백약이오름, 아부오름 등 수많은 오름이 분포되어 있다. 또한 종달리 수국길과 2800여 그루의 비자나무가 그늘을 만들어 주는 ‘비자림’, 수요미식회를 통해 유명해진 핸드드립카페 ‘풍림다방’ 등 다양한 핫플레이스가 밀집돼 여름여행지로 각광받고 있다. 풍림다방 바로 앞에 위치한 ‘제주이야기’ 송당점은 제주도 천연꽃으로 향수와 화장품을 만들기 체험을 할 수 있는 제주도체험관광지로 날씨에 구애받지 않고 쾌적한 체험이 가능하다. 체험상품으로는 △천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’ △자신이 좋아하는 향의 냉동 건조된 천연꽃을 골라 나만의 스타일대로 넣어 데코 할 수 있는 ‘천연꽃 롤향수’가 있으며 천연꽃디퓨저와 화상송이 볼방향제 만들기 체험도 가능하다. ‘제주이야기’의 천연꽃 향수는 동백, 수국, 수선화, 장미 등 제주자생 꽃과 천연오일 등 보존제가 전혀 들어가지 않은 천연원료로 만들어 제주도 여름여행지로 어린이도 부담 없이 만들고 사용할 수 있다. 또한 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차와 최근 신제품 립오일을 출시한 기능성 화장품, 예쁜 젤 캔들 등 다양한 제주도 기념품까지 구매할 수 있다. 현재 ‘제주이야기’는 행원본점과 송당점으로 운영되고 있으며 대부분의 실내체험이 연령대 제한이 있지만 5세 이상부터 체험이 가능해 가족여행지로도 인기가 높다. 업체 관계자는 “제주도 천연꽃으로 향수와 화장품을 만드는 체험은 제주도에서 할 수 있는 특별한 체험으로 내 손으로 직접 만들어 세상에 단 하나뿐인 향수라는 특별한 의미가 더해져 선물용으로 만족도가 높은 편”이라고 말했다. 이어 “연인이나 가족단위 방문객은 물론 회사 워크숍 등 단체 체험도 이어지고 있다”고 설명했다. 한편, ‘제주이야기’브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상 차 및 꽃을 이용한 티백 및 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 저작권자 © CCTV뉴스 무단전재 및 재배포 금지 김범규 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 가장 많이 본 뉴스 1[IT트렌드] 출입부터 결제까지, 무인 매장 지키는 보안 기술 각광 2[IT트렌드] 교통사고, 이제 AI·빅데이터로 막는다 3[기고] 빠르게 진화하는 사이버 보안 위협 요인의 진단 및 정보 보안 핫 이슈 4윈도우-리눅스 노리는 멀웨어 ‘카오스’ 주의 5안랩, 컴퓨터 드라이버 취약점 이용한 사이버 공격 사례 발표 6LGU+ 등 개인정보 보호법 어긴 8개 사업자에 3120만 원 벌금 부과 7인섹시큐리티, 디지털포렌식 ‘랜섬웨어-가상자산 분석 추적 세미나’ 연다 8스패로우, 연례 고객 초청 행사 ‘PUC 2022’ 성공적 개최 9비자, 코로나19 이후 온라인 금융 사기 양상 보고서 공개 10개인정보 보호법 어긴 바로고-누리집에 약 8600만 원 벌금 부과 이 시각 주요뉴스 세종시, ‘시민 참여로 지속 가능한 국제 안전 도시 만들기 대회’ 개최 세종시, ‘시민 참여로 지속 가능한 국제 안전 도시 만들기 대회’ 개최 독일 IT 보안청장, 러 정보 기관 접촉 혐의로 해임 수순 독일 IT 보안청장, 러 정보 기관 접촉 혐의로 해임 수순 러 해커 킬넷, 美 주요 공항에 디도스 공격 러 해커 킬넷, 美 주요 공항에 디도스 공격 매체소개 광고문의 기사제보 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 법인명 : (주) 테크월드 제호 : CCTV뉴스 08507 서울특별시 금천구 가산디지털1로 168, 1012-1호 (가산동, 우림라이온스밸리 C동) 대표전화 : 02)2026-5700 팩스 : 02)2026-5701 이메일 : webmaster@techworld.co.kr 등록번호 : 서울, 아 03078 등록일 : 2008-06-27 발행일 : 2009-02-19 발행·편집인 : 박한식 청소년보호책임자 : 박지성 Copyright © CCTV뉴스 All rights reserved. 위로</t>
+  </si>
+  <si>
+    <t>제주도가볼만한곳, 실내체험관광지 ‘제주이야기’에서 천연꽃향수만들기 제공 &lt; 조이뉴스 &lt; 기사본문 - 테크월드뉴스 - 조명의 기자 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 정기구독 특집 아카이브 스마트 팩토리 계측기 오토모티브 산업용 PC 뉴스 최신기사 반도체·디스플레이 임베디드·컴퓨팅·IoT 홈·모바일·통신 자동차·배터리 인터넷·게임·플랫폼 AI·메타버스·로봇 바이오·헬스케어 정책·사회·종합 인사·동정 인사이트 한장TECH 포커스 TECH웨이브 오피니언 인터뷰 칼럼 기고 트렌드 글로벌 트렌드 국내 트렌드 IT 증권가 라이프 생활TECH #IT용어 컨슈머 테크토크/동영상 전체메뉴 버튼 검색하기 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도가볼만한곳, 실내체험관광지 ‘제주이야기’에서 천연꽃향수만들기 제공 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 기사저장 다른 공유 찾기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 본문 글씨 줄이기 본문 글씨 키우기 제주도가볼만한곳, 실내체험관광지 ‘제주이야기’에서 천연꽃향수만들기 제공 기자명 조명의 기자 입력 2020.08.01 10:00 댓글 0 [테크월드=조명의 기자] 현재 제주도에서 인기 있는 관광지로 꼽히고 있는 안돌오름 비밀의 숲은 SNS 인생샷 장소로 화제를 모으며 커플여행지추천 순위로 꼽히고 있다. 60년을 가꾼 편백나무가 하늘 높이 솟아 장관을 이루고 있는 숲의 입구에는 한가운데서 사진을 찍으려는 사람들로 붐비고 있으며 신비스러운 분위기의 숲 속은 곳곳이 포토스팟으로 커플사진, 셀프웨딩사진을 찍기 위해 다양한 소품을 챙겨오기도 한다. 또한 오감을 만족시키는 실내체험관광 ‘제주이야기’에서 동백, 수국, 수선화 등 제주자생 꽃으로 천연향수와 천연 화장품을 만들며 향기로 제주도를 기억하는 특별한 기념품을 남길 수 있다. ‘제주이야기’는 날씨 변화가 심한 제주도에서 날씨에 구애 받지 않고 쾌적한 실내 체험을 즐길 수 있는 실내 커플여행지로, 월정리 해변 인근 행원본점과 송담점 두 군데를 운영되고 있다. 체험상품으로는 △천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’ △자신이 좋아하는 향의 냉동 건조된 천연꽃을 골라 나만의 스타일대로 넣어 데코 할 수 있는 ‘천연꽃 롤향수’가 있으며 천연꽃 방향제와 화산송이 모공팩 만들기 체험도 가능하다. 제주도의 자연을 담은 천연향수는 보존제가 전혀 들어가지 않고 천연꽃과 천연오일 등 천연원료로 만들어 어린이도 부담 없이 만들어보고 사용도 가능하다. 특히 제주도에서 나고 자란 천연꽃과 원료로 내 손으로 직접 만들어 세상에 단 하나뿐인 화장품과 향수는 의미가 더해져 선물용으로도 만족도가 높은 편이다. 또한 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차, 립오일 등 기능성 화장품과 예쁜 젤 캔들 등 다양한 제주도 기념품까지 구매할 수 있다. 뿐만 아니라 대부분의 실내체험이 연령대 제한이 있지만 5세 이상부터 체험이 가능하다는 것이 장점으로, 어린 자녀를 동반한 가족여행지로도 선호도가 높고 회사 워크숍 등 단체 체험도 이어지고 있다 특히 ‘제주이야기’ 행원본점에서는 현재 8월 31일까지 방문 전 전화 후 제주도로 신혼여행을 온 신혼부부에 한해 체험비를 전액 무료로 제공하고 있다. 업체 측은 “제주도에 오신 신혼부부들에게 호텔 패키지나 알려진 명소뿐만 아니라 제주도의 아름다움을 더욱 다양하게 느끼고 가시길 바라며 무료 체험 이벤트를 준비했다”고 말했다. 한편, ‘제주이야기’브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상 차 및 꽃을 이용한 티백 및 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 조명의 기자 (techwriter@techworld.co.kr) 기자의 다른기사 보기 저작권자 © 테크월드뉴스 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 테크월드 인기기사 엔비디아, GPU 가격 구설수…‘매출보전’ 소비자‧협력사에 전가 [생활Tech] 노이즈캔슬링이 뭐길래 …‘에어팟 프로2’ 출시에 관심 집중 LG헬로비전, 휴먼 다큐 ‘눈에 띄는 그녀들’ 시즌2 10일 첫 방송 SKT-한국지속가능캠퍼스협회-신한대, 탄소중립 스마트에너지캠퍼스 구축 MOU 체결 아이템베이, ‘디아2 레저렉션’ 래더 시즌2 프로모션 진행 주요뉴스 Now SK실트론, ‘GaN 웨이퍼’ 시장 진출 위해 英 IQE와 SCA 체결 LG전자, 차별화된 ‘생활가전’에 진심…최적의 식품·물 ‘맛’ 찾는다 [생활Tech] 노이즈캔슬링이 뭐길래 …‘에어팟 프로2’ 출시에 관심 집중 NIPA ‘AI 기반 에너지 효율화 사업’, 1차 연도 사업 마무리 단계 에이서, 연내 한국법인 설립…국내시장 공략 강화 세종텔레콤, 5G특화망 사업 준비 완료 인피니언, 헝가리드에 고전력 반도체 모듈 생산공장 가동 SKT-한국지속가능캠퍼스협회-신한대, 탄소중립 스마트에너지캠퍼스 구축 MOU 체결 ST, 이탈리아에 통합 실리콘 카바이드 기판 제조시설 구축 매체소개 광고문의 기사제보 개인정보취급방침 청소년보호정책 이메일무단수집거부 기사 및 제보문의 : desk@epnc.co.kr 2020년 문화훈장 2011년 대통령 표창 2005년 국무총리 표창 1998/1999년 문화관광부 표창 인터넷신문위원회 법인명 : (주)테크월드 제호 : 테크월드뉴스 서울특별시 금천구 가산디지털1로 168, 1012-1호 (가산동, 우림라이온스밸리 C동) 대표전화 : 02)2026-5700 팩스 : 02)2026-5701 이메일 : webmaster@techworld.co.kr 등록번호 : 서울 아 03078 등록일 : 2014-04-01 발행일 : 1995-01-01 발행·편집인 : 박한식 청소년보호책임자 : 박지성 통신판매업신고 : 제 2008-서울금천-0415호 Copyright © 2022 테크월드뉴스. All rights reserved. 위로 전체메뉴 전체기사 특집 아카이브 전체 스마트 팩토리 계측기 오토모티브 산업용 PC 뉴스 전체 반도체·디스플레이 임베디드·컴퓨팅·IoT 홈·모바일·통신 자동차·배터리 인터넷·게임·플랫폼 AI·메타버스·로봇 바이오·헬스케어 정책·사회·종합 인사·동정 인사이트 전체 한장TECH 포커스 TECH웨이브 오피니언 전체 인터뷰 칼럼 기고 트렌드 전체 글로벌 트렌드 국내 트렌드 IT 증권가 라이프 전체 생활TECH 가젯·컨슈머 IT용어 TECH토크 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 탐나오, 현대백화점과 제주마켓 진행 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도관광협회 탐나오, 현대백화점과 제주마켓 진행 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회 탐나오, 현대백화점과 제주마켓 진행 김태형 기자 승인 2020.08.09 15:59 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 부동석)는 제주여행 온라인마켓으로 자체 운영 중인 ‘탐나오’와 함께 지난 7일부터 오는 13일까지 서울 현대백화점 목동점에서 진행하고 있는 ‘THE 제주마켓’ 테마 행사에 참여하고 있다고 밝혔다. 도관광협회는 행사 기간에 제주의 특산기념품을 합리적인 가격에 판매하는 한편 구매 고객에게는 탐나오에서 판매되는 기념품을 사은품으로 제공하고 있다. 또 인스타그램 등 소셜네트워크서비스를 통해 제주여행 스팟 추천과 다양한 이벤트도 벌이고 있다. 김태형 기자  kimth@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김태형 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
 </sst>
 </file>
@@ -437,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,9 +623,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -470,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +643,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +665,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +687,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +698,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +720,334 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
